--- a/data/comments.xlsx
+++ b/data/comments.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Feuil1" state="visible" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -329,7 +337,7 @@
     <t>Questions:
 Est-ce que tu reconnais tes fautes ou es-tu porté à mettre la faute sur Dieu ?
 Quels sont dans ta vie les « juges » qui te montrent le bon chemin ?
-Pourrais-tu nommer des circonstances où tu n’as pas écouté Dieu ? </t>
+Pourrais-tu nommer des circonstances où tu n’as pas écouté Dieu ?</t>
   </si>
   <si>
     <t>AT27</t>
@@ -356,7 +364,7 @@
   <si>
     <t>Questions:
 Parfois nous savons exactement ce qu’il faut faire et ne le faisons pourtant pas. Connais-tu cela ? 
-Dans quel domaine de ta vie dois-tu manifester du courage ? </t>
+Dans quel domaine de ta vie dois-tu manifester du courage ?</t>
   </si>
   <si>
     <t>AT28</t>
@@ -403,13 +411,12 @@
     <t>23 Un jour, les chefs philistins se réunissent pour offrir un grand sacrifice à leur dieu Dagon et pour fêter leur victoire. Ils chantent : « Notre dieu a livré entre nos mains Samson, notre ennemi. » 24 Quand le peuple voit Samson, il chante la louange de son dieu Dagon en disant : « Notre dieu a livré entre nos mains Samson, notre ennemi, le destructeur de notre pays qui répandait la mort parmi nous. » 
 25 Dans leur joie, les gens disent : « Faites venir Samson pour nous amuser ! » On le fait sortir de prison, et il amuse la foule. Ensuite, ils le placent entre les colonnes du temple de Dagon. 26 Samson demande au garçon qui le conduit par la main : « Guide-moi pour que je touche les colonnes qui soutiennent le temple. Je veux m'appuyer contre elles. » 27 Le temple est rempli d'hommes et de femmes. Tous les chefs philistins sont là. Il y a sur la terrasse environ 3 000 personnes, hommes et femmes, qui s'amusent à regarder Samson.
 28 Alors Samson prie le SEIGNEUR en disant : « Seigneur DIEU, je t'en prie, souviens-toi de moi ! Donne-moi de la force, uniquement cette fois-ci, ô Dieu ! Permets-moi de me venger des Philistins d'un seul coup pour la perte de mes deux yeux ! » 29 Samson touche les deux colonnes du milieu qui soutiennent le temple. Il pousse celle de droite avec sa main droite et celle de gauche avec sa main gauche. 
-30 Il dit : « Je veux bien mourir, mais pas sans les Philistins ! » Il pousse de toutes ses forces, et le temple tombe sur les chefs et sur tous les gens qui sont là. Ceux qu'il entraîne dans la mort en mourant sont plus nombreux que ceux qu'il a fait mourir pendant sa vie.
-</t>
+30 Il dit : « Je veux bien mourir, mais pas sans les Philistins ! » Il pousse de toutes ses forces, et le temple tombe sur les chefs et sur tous les gens qui sont là. Ceux qu'il entraîne dans la mort en mourant sont plus nombreux que ceux qu'il a fait mourir pendant sa vie.</t>
   </si>
   <si>
     <t>Samson fut un des juges (= leader) d’Israël et Dieu s’en est servi d’une manière particulière pour se venger des ennemis de son peuple. Samson a juré de mettre sa vie à disposition de Dieu et en échange, Dieu lui donne une force quasi illimitée. Il devient ainsi une sorte de Terminator, de Rambo ou de Spiderman de son temps. Un jour, il réussit à frapper, avec une mâchoire d’âne, 1000 ennemis (Juges 15,15) ; un autre jour il transporta facilement les battants de la porte d’une ville sur une montagne. Tous ses exploits inspirèrent la crainte des autres hommes. 
 Mais malheureusement, cette histoire ne se termine pas bien : Samson est infidèle à Dieu, il devient prisonnier et il en vient à se donner la mort. 
-Son histoire le montre clairement : mieux vaut que tu travailles sur ton caractère, sur ta personnalité et ta relation avec Dieu, ainsi il sera possible d’éviter de faire un mauvais usage de tes dons.   </t>
+Son histoire le montre clairement : mieux vaut que tu travailles sur ton caractère, sur ta personnalité et ta relation avec Dieu, ainsi il sera possible d’éviter de faire un mauvais usage de tes dons.</t>
   </si>
   <si>
     <t>Questions:
@@ -472,7 +479,7 @@
   <si>
     <t>Samuel dort dans le temple, pas très loin de l’arche de l’alliance, le symbole de la présence glorieuse de Dieu. Il est tiré de son sommeil par la voix audible de l’Eternel. Etonnant, le fait que Dieu l’appelle par son prénom ! Et que dire du fait qu’Il s’adresse à un enfant plutôt qu’au grand sacrificateur? Samuel croit que c’est le grand prêtre Eli qui l’appelle. Normal, puisqu’il n’a encore jamais entendu Dieu de vive voix. 
 Et toi, L’as-tu déjà entendu? 
-Souvent, Dieu nous parle mais nous n’y prêtons pas attention ou alors nous pensons que imagination nous joue des tours. Comment reconnaître Sa voix? J’aimerais te donner le même conseil qu’Eli a donné à Samuel: demande-Lui de te parler! Dieu n’attend qu’une chose, que tout comme Samuel, tu lui dises aujourd’hui: «parle, car ton serviteur écoute».  </t>
+Souvent, Dieu nous parle mais nous n’y prêtons pas attention ou alors nous pensons que imagination nous joue des tours. Comment reconnaître Sa voix? J’aimerais te donner le même conseil qu’Eli a donné à Samuel: demande-Lui de te parler! Dieu n’attend qu’une chose, que tout comme Samuel, tu lui dises aujourd’hui: «parle, car ton serviteur écoute».</t>
   </si>
   <si>
     <t>A méditer : La meilleure façon d’entendre la voix de Dieu, c’est de L’écouter!</t>
@@ -481,7 +488,7 @@
     <t>AT32</t>
   </si>
   <si>
-    <t>Le Roi Saül </t>
+    <t>Le Roi Saül</t>
   </si>
   <si>
     <t>1 Samuel 9,15-10,1</t>
@@ -493,14 +500,14 @@
     <t>15 La veille, le SEIGNEUR a dit à Samuel : 16 « Demain, à la même heure, je t'enverrai un homme de la tribu de Benjamin. Tu le consacreras comme chef de mon peuple Israël. Il le délivrera du pouvoir des Philistins. J'ai vu la situation de mon peuple, et son cri est arrivé jusqu'à moi. » 17 Quand Samuel voit Saül, le SEIGNEUR lui dit : « Tu vois cet homme, je t'ai parlé de lui hier. Je t'ai dit : “C'est lui qui gouvernera mon peuple.”  »
 18 Saül s'approche de Samuel à la porte de la ville et lui dit : « S'il te plaît, montre-moi où le voyant habite. » 19 Samuel répond à Saül : « Le voyant, c'est moi. Monte devant moi au lieu sacré. Tous les deux, vous mangerez avec moi aujourd'hui. Demain matin, je répondrai à toutes tes questions et je te laisserai partir. 20 Les ânesses qui étaient perdues depuis trois jours, ne te fais pas de souci pour elles. Elles sont retrouvées. D'ailleurs, tout ce qu'il y a de précieux en Israël, à qui est-ce réservé ? À toi et à toute la famille de ton père, n'est-ce pas ? » 21 Saül répond : « Je suis de la tribu de Benjamin. C'est une des plus petites tribus d'Israël. Mon clan est le plus petit de la tribu de Benjamin. Pourquoi donc est-ce que tu me dis cela ? »
 22 Samuel emmène Saül et son serviteur et il les conduit dans la salle du repas. Il les fait asseoir à la place d'honneur, au milieu des invités. Ils sont à peu près trente. 23 Samuel dit au cuisinier : « Tout à l'heure, je t'ai dit de mettre un morceau de viande de côté. Sers-le maintenant. » 24 Le cuisinier apporte le gigot et la queue de l'animal. Il les met devant Saül. Samuel dit à Saül : « Voici le morceau que j'ai fait mettre à part pour toi. Tu es servi. Mange ! Je l'ai gardé pour cette occasion. Mange avec ceux que j'ai invités. » Ce jour-là, Saül mange avec Samuel. 25 Puis ils redescendent en ville. Samuel parle avec Saül sur la terrasse de la maison.
-26 Le jour suivant, tôt le matin, Saül est sur la terrasse. Samuel l'appelle et lui dit : « En route, je vais te reconduire ! » Saül se lève et il part avec Samuel. 27 Ils arrivent à la sortie de la ville. Samuel dit à Saül : « Dis au serviteur de passer devant nous. » Le serviteur passe devant eux. Samuel dit : « Toi, reste ici ! Je vais te faire connaître ce que Dieu dit. » </t>
+26 Le jour suivant, tôt le matin, Saül est sur la terrasse. Samuel l'appelle et lui dit : « En route, je vais te reconduire ! » Saül se lève et il part avec Samuel. 27 Ils arrivent à la sortie de la ville. Samuel dit à Saül : « Dis au serviteur de passer devant nous. » Le serviteur passe devant eux. Samuel dit : « Toi, reste ici ! Je vais te faire connaître ce que Dieu dit. »</t>
   </si>
   <si>
     <t>Dans l’Ancien Testament, l’huile d’olive était utilisée pour consacrer les rois. Depuis le Nouveau Testament, l’onction d’huile est utilisée pour mettre à part des personnes pour le service. Une huile magique? Non! Au travers de ce symbole puissant établi par Dieu lui même (Exode 30:25), c’est comme si une empreinte divine est posée sur la vie de la personne en question: mis à part, démarqué, consacré. 
 Dieu a parlé à Samuel, Il lui a montré de manière claire que Saül était l’homme de la situation, pour qu’il soit le premier roi d’Israël ! L’attitude de Saül me frappe: il se laisse emporter par le mouvement de Dieu. Il se laisse guider, rassurer, oindre, envoyer. Soyons comme Saül, ne nous mettons pas en travers du chemin lorsque Dieu est à l’oeuvre, mais laissons-nous surprendre par Sa gloire.</t>
   </si>
   <si>
-    <t>Prière : Seigneur, tout comme Tu as oint Saul, marque-moi par Ton empreinte divine. </t>
+    <t>Prière : Seigneur, tout comme Tu as oint Saul, marque-moi par Ton empreinte divine.</t>
   </si>
   <si>
     <t>AT33</t>
@@ -518,7 +525,7 @@
     <t>41 Goliath s'approche petit à petit de David. L'homme qui porte son bouclier marche devant lui. 42 Goliath regarde David. Quand il le voit, il le juge comme un petit rien-du-tout. En effet, David est encore jeune. Il a le teint clair et un beau visage. 43 Alors Goliath crie à David : « Tu viens contre moi avec un bâton ! Tu me prends donc pour un chien ! » Et il lance à David des malédictions de la part des dieux philistins. 44 Il crie encore : « Viens ici ! Je vais donner ton corps à manger aux oiseaux et aux animaux sauvages ! » 
 45 David lui dit : « Toi, tu viens contre moi avec une épée, une lance et une autre arme. Et moi, je viens contre toi au nom du SEIGNEUR de l'univers, le Dieu de l'armée d'Israël que tu as insulté ! 46 Aujourd'hui même, le SEIGNEUR va te livrer à moi. Je vais te tuer et te couper la tête ! Aujourd'hui même, je vais donner les corps des soldats philistins aux oiseaux et aux animaux sauvages, qui les mangeront. Alors tout le monde apprendra que les Israélites ont un Dieu. 
 47 Et tous les Israélites rassemblés ici le sauront : le SEIGNEUR n'a pas besoin d'épée ni de lance pour donner la victoire. Il est le maître de cette guerre et il va vous livrer en notre pouvoir ! » 48 Goliath se remet à marcher vers David. Alors David court très vite vers Goliath sur le terrain du combat. 49 Il prend une pierre dans son sac. Il la lance avec sa fronde, et la pierre va frapper le front de Goliath. Elle s'enfonce dans son front, et Goliath tombe, le visage contre le sol.
-50 Ainsi, avec une fronde et une pierre, David a été plus fort que Goliath le Philistin. Il l'a fait tomber et il l'a tué, sans épée. </t>
+50 Ainsi, avec une fronde et une pierre, David a été plus fort que Goliath le Philistin. Il l'a fait tomber et il l'a tué, sans épée.</t>
   </si>
   <si>
     <t>Lorsque Dieu est à l’oeuvre, les dimensions sont bouleversées: le grand, celui que tout le monde craint se fait tuer par le p’tit rouquin du coin. Le guerrier armé jusqu’au cou est livré entre les mains de David. Le premier vient au nom de sa force et de ses prouesses, alors que le second vient au nom du Dieu Très-Haut. 
@@ -554,7 +561,7 @@
   </si>
   <si>
     <t>Prière:
-Seigneur, mon Dieu, donne-moi d’être intègre dans tout ce que je fais, peu importent les situations. </t>
+Seigneur, mon Dieu, donne-moi d’être intègre dans tout ce que je fais, peu importent les situations.</t>
   </si>
   <si>
     <t>AT35</t>
@@ -576,12 +583,11 @@
   </si>
   <si>
     <t>David est vieux mais il rêve encore ! Un projet bouillonne dans son coeur. Ce projet est né d’un désir de glorifier Dieu. Il veut Lui construire une maison «en dur», passer de la toile à quelque chose de plus solide, plus noble. J’aime la réponse du prophète Nathan, le conseiller du roi David: «Vas-y ! Fais tout ce que tu as sur ton coeur, car l’Eternel est avec toi». 
-Le coeur de David a été travaillé au fil des années. Les victoires, les échecs, les coups durs et les temps intimes avec Dieu ont transformé son coeur et ses pensées. A la fin de sa vie, les pensées de Dieu sont devenues les siennes si bien que lorsque David parle du futur temple, Dieu le suit dans ce projet et le fera réaliser par Salomon. Soyons nous aussi si proches du coeur de Dieu que Ses désirs deviennent nôtres! </t>
+Le coeur de David a été travaillé au fil des années. Les victoires, les échecs, les coups durs et les temps intimes avec Dieu ont transformé son coeur et ses pensées. A la fin de sa vie, les pensées de Dieu sont devenues les siennes si bien que lorsque David parle du futur temple, Dieu le suit dans ce projet et le fera réaliser par Salomon. Soyons nous aussi si proches du coeur de Dieu que Ses désirs deviennent nôtres!</t>
   </si>
   <si>
     <t>Challenge:
-Aujourd’hui, prends un temps particulier avec Dieu et demande-Lui de te donner Ses rêves pour ta vie.
-</t>
+Aujourd’hui, prends un temps particulier avec Dieu et demande-Lui de te donner Ses rêves pour ta vie.</t>
   </si>
   <si>
     <t>AT36</t>
@@ -730,7 +736,7 @@
   <si>
     <t>L’auteur principal de ce livre est Salomon, roi d’Israël. Il donne des conseils pour bien vivre. Il observe qu’obéir à Dieu prolonge ma vie. Parfois je n’ai pas envie de faire ce que Dieu me demande, j’ai aussi peur qu’en lui obéissant, je serai triste… Pourtant Il dit que Son plan me rendra heureuse ! 
 Bizarre, non ? Pourtant nous appelés à croire en Dieu et non nos propres pensées. L’obéissance garantit le bonheur ; la pratique du bien te préserve du mal. 
-Salomon sait se confier en Dieu et s’appuyer sur lui. Il le prie de lui donner sagesse et intelligence pour bien diriger le peuple. Dieu, en plus de les lui donner, lui offre des richesses et une longue vie. Il est aussi écrit dans la lettre de Jacques que celui qui demande la sagesse à Dieu la recevra, car Dieu donne à tous généreusement et sans reproche (Jc 1,5). </t>
+Salomon sait se confier en Dieu et s’appuyer sur lui. Il le prie de lui donner sagesse et intelligence pour bien diriger le peuple. Dieu, en plus de les lui donner, lui offre des richesses et une longue vie. Il est aussi écrit dans la lettre de Jacques que celui qui demande la sagesse à Dieu la recevra, car Dieu donne à tous généreusement et sans reproche (Jc 1,5).</t>
   </si>
   <si>
     <t>Challenge : 
@@ -743,7 +749,7 @@
     <t>AT45</t>
   </si>
   <si>
-    <t>La volonté de Dieu </t>
+    <t>La volonté de Dieu</t>
   </si>
   <si>
     <t>Proverbes 16,1-9</t>
@@ -757,7 +763,7 @@
   <si>
     <t>Les Proverbes abordent tous les sujets de la vie, qu’ils soient plutôt spirituels ou alors très « terre à terre ». En effet, Dieu se soucie de tout ce que je vis. Il a plein de bonnes idées pour ma vie et lorsque je le laisse me guider, mes projets sont menés à bon port. Dieu veut influer sur ma vie et c’est parce qu’il veut le meilleur pour moi qu’il ne supporte pas ma méchanceté. 
 Le roi David, dont on trouve l’histoire dans 2 Samuel, a fait des erreurs durant son règne. Dieu, en père aimant, l’a puni. Mais David a aussi reçu le pardon de Dieu. Toi aussi, demande une nouvelle chance à Dieu !
-La Bible nous dit encore : «Avant tout, prends garde à ce que tu penses au fond de toi-même, car ta vie en dépend. » (Proverbes 4,23). Dieu connaît tout, il sait à quel point je suis faible derrière les grands airs que je prends parfois. </t>
+La Bible nous dit encore : «Avant tout, prends garde à ce que tu penses au fond de toi-même, car ta vie en dépend. » (Proverbes 4,23). Dieu connaît tout, il sait à quel point je suis faible derrière les grands airs que je prends parfois.</t>
   </si>
   <si>
     <t>Prière:
@@ -1142,7 +1148,7 @@
     <t>NT82</t>
   </si>
   <si>
-    <t>God's Spirit </t>
+    <t>God's Spirit</t>
   </si>
   <si>
     <t>Galates 5,22-26</t>
@@ -1325,25 +1331,29 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1351,9 +1361,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1365,2534 +1373,2870 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf applyAlignment="1" fillId="0" xfId="0" numFmtId="0" borderId="0" fontId="0">
-      <alignment vertical="bottom" horizontal="general" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf fillId="0" xfId="0" numFmtId="0" borderId="0" applyFont="1" fontId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.86" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
-      <c t="s" s="1" r="A1">
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="1" r="C1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="1" r="D1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="1" r="E1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="1" r="F1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c t="s" s="1" r="G1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="1" r="H1">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c t="s" s="1" r="I1">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c t="s" s="1" r="J1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c t="s" s="1" r="K1">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="1" r="L1">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c t="s" s="1" r="M1">
+      <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="1" r="N1">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c t="s" s="1" r="O1">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c t="s" s="1" r="P1">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c s="1" r="A2">
+    <row r="2" spans="1:16">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c s="1" r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c t="s" s="1" r="C2">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c t="s" s="1" r="D2">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c t="s" s="1" r="E2">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c t="s" s="1" r="F2">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c t="s" s="1" r="G2">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c t="s" s="1" r="H2">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3">
-      <c s="1" r="A3">
+    <row r="3" spans="1:16">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c s="1" r="B3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c t="s" s="1" r="C3">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c t="s" s="1" r="D3">
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c t="s" s="1" r="E3">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c t="s" s="1" r="F3">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c s="1" r="A4">
+    <row r="4" spans="1:16">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c s="1" r="B4">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c t="s" s="1" r="C4">
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c t="s" s="1" r="D4">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c t="s" s="1" r="E4">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c t="s" s="1" r="F4">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
-      <c s="1" r="A5">
+    <row r="5" spans="1:16">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c s="1" r="B5">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c t="s" s="1" r="C5">
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c t="s" s="1" r="D5">
+      <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-      <c t="s" s="1" r="E5">
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c t="s" s="1" r="F5">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c s="1" r="A6">
+    <row r="6" spans="1:16">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c s="1" r="B6">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c t="s" s="1" r="C6">
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c t="s" s="1" r="D6">
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c t="s" s="1" r="E6">
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c t="s" s="1" r="F6">
+      <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
-      <c s="1" r="A7">
+    <row r="7" spans="1:16">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c s="1" r="B7">
+      <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c t="s" s="1" r="C7">
+      <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c t="s" s="1" r="D7">
+      <c r="D7" s="1" t="s">
         <v>33</v>
       </c>
-      <c t="s" s="1" r="E7">
+      <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
-      <c t="s" s="1" r="F7">
+      <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8">
-      <c s="1" r="A8">
+    <row r="8" spans="1:16">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c s="1" r="B8">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c t="s" s="1" r="C8">
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c t="s" s="1" r="D8">
+      <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
-      <c t="s" s="1" r="E8">
+      <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
-      <c t="s" s="1" r="F8">
+      <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9">
-      <c s="1" r="A9">
+    <row r="9" spans="1:16">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c s="1" r="B9">
+      <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c t="s" s="1" r="C9">
+      <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c t="s" s="1" r="D9">
+      <c r="D9" s="1" t="s">
         <v>40</v>
       </c>
-      <c t="s" s="1" r="E9">
+      <c r="E9" s="1" t="s">
         <v>41</v>
       </c>
-      <c t="s" s="1" r="F9">
+      <c r="F9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10">
-      <c s="1" r="A10">
+    <row r="10" spans="1:16">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c s="1" r="B10">
+      <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c t="s" s="1" r="C10">
+      <c r="C10" s="1" t="s">
         <v>42</v>
       </c>
-      <c t="s" s="1" r="D10">
+      <c r="D10" s="1" t="s">
         <v>43</v>
       </c>
-      <c t="s" s="1" r="E10">
+      <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c t="s" s="1" r="F10">
+      <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11">
-      <c s="1" r="A11">
+    <row r="11" spans="1:16">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c s="1" r="B11">
+      <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c t="s" s="1" r="C11">
+      <c r="C11" s="1" t="s">
         <v>45</v>
       </c>
-      <c t="s" s="1" r="D11">
+      <c r="D11" s="1" t="s">
         <v>46</v>
       </c>
-      <c t="s" s="1" r="E11">
+      <c r="E11" s="1" t="s">
         <v>47</v>
       </c>
-      <c t="s" s="1" r="F11">
+      <c r="F11" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12">
-      <c s="1" r="A12">
+    <row r="12" spans="1:16">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c s="1" r="B12">
+      <c r="B12" s="1">
         <v>3</v>
       </c>
-      <c t="s" s="1" r="C12">
+      <c r="C12" s="1" t="s">
         <v>48</v>
       </c>
-      <c t="s" s="1" r="D12">
+      <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
-      <c t="s" s="1" r="E12">
+      <c r="E12" s="1" t="s">
         <v>50</v>
       </c>
-      <c t="s" s="1" r="F12">
+      <c r="F12" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13">
-      <c s="1" r="A13">
+    <row r="13" spans="1:16">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c s="1" r="B13">
+      <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c t="s" s="1" r="C13">
+      <c r="C13" s="1" t="s">
         <v>52</v>
       </c>
-      <c t="s" s="1" r="D13">
+      <c r="D13" s="1" t="s">
         <v>53</v>
       </c>
-      <c t="s" s="1" r="E13">
+      <c r="E13" s="1" t="s">
         <v>54</v>
       </c>
-      <c t="s" s="1" r="F13">
+      <c r="F13" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14">
-      <c s="1" r="A14">
+    <row r="14" spans="1:16">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c s="1" r="B14">
+      <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c t="s" s="1" r="C14">
+      <c r="C14" s="1" t="s">
         <v>55</v>
       </c>
-      <c t="s" s="1" r="D14">
+      <c r="D14" s="1" t="s">
         <v>56</v>
       </c>
-      <c t="s" s="1" r="E14">
+      <c r="E14" s="1" t="s">
         <v>57</v>
       </c>
-      <c t="s" s="1" r="F14">
+      <c r="F14" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15">
-      <c s="1" r="A15">
+    <row r="15" spans="1:16">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c s="1" r="B15">
+      <c r="B15" s="1">
         <v>3</v>
       </c>
-      <c t="s" s="1" r="C15">
+      <c r="C15" s="1" t="s">
         <v>58</v>
       </c>
-      <c t="s" s="1" r="D15">
+      <c r="D15" s="1" t="s">
         <v>59</v>
       </c>
-      <c t="s" s="1" r="E15">
+      <c r="E15" s="1" t="s">
         <v>60</v>
       </c>
-      <c t="s" s="1" r="F15">
+      <c r="F15" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16">
-      <c s="1" r="A16">
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c s="1" r="B16">
+      <c r="B16" s="1">
         <v>4</v>
       </c>
-      <c t="s" s="1" r="C16">
+      <c r="C16" s="1" t="s">
         <v>61</v>
       </c>
-      <c t="s" s="1" r="D16">
+      <c r="D16" s="1" t="s">
         <v>62</v>
       </c>
-      <c t="s" s="1" r="E16">
+      <c r="E16" s="1" t="s">
         <v>63</v>
       </c>
-      <c t="s" s="1" r="F16">
+      <c r="F16" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17">
-      <c s="1" r="A17">
+    <row r="17" spans="1:15">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c s="1" r="B17">
+      <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c t="s" s="1" r="C17">
+      <c r="C17" s="1" t="s">
         <v>64</v>
       </c>
-      <c t="s" s="1" r="D17">
+      <c r="D17" s="1" t="s">
         <v>65</v>
       </c>
-      <c t="s" s="1" r="E17">
+      <c r="E17" s="1" t="s">
         <v>66</v>
       </c>
-      <c t="s" s="1" r="F17">
+      <c r="F17" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18">
-      <c s="1" r="A18">
+    <row r="18" spans="1:15">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c s="1" r="B18">
+      <c r="B18" s="1">
         <v>4</v>
       </c>
-      <c t="s" s="1" r="C18">
+      <c r="C18" s="1" t="s">
         <v>68</v>
       </c>
-      <c t="s" s="1" r="D18">
+      <c r="D18" s="1" t="s">
         <v>69</v>
       </c>
-      <c t="s" s="1" r="E18">
+      <c r="E18" s="1" t="s">
         <v>70</v>
       </c>
-      <c t="s" s="1" r="F18">
+      <c r="F18" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19">
-      <c s="1" r="A19">
+    <row r="19" spans="1:15">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c s="1" r="B19">
+      <c r="B19" s="1">
         <v>4</v>
       </c>
-      <c t="s" s="1" r="C19">
+      <c r="C19" s="1" t="s">
         <v>71</v>
       </c>
-      <c t="s" s="1" r="D19">
+      <c r="D19" s="1" t="s">
         <v>72</v>
       </c>
-      <c t="s" s="1" r="E19">
+      <c r="E19" s="1" t="s">
         <v>73</v>
       </c>
-      <c t="s" s="1" r="F19">
+      <c r="F19" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20">
-      <c s="1" r="A20">
+    <row r="20" spans="1:15">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c s="1" r="B20">
+      <c r="B20" s="1">
         <v>4</v>
       </c>
-      <c t="s" s="1" r="C20">
+      <c r="C20" s="1" t="s">
         <v>74</v>
       </c>
-      <c t="s" s="1" r="D20">
+      <c r="D20" s="1" t="s">
         <v>75</v>
       </c>
-      <c t="s" s="1" r="E20">
+      <c r="E20" s="1" t="s">
         <v>76</v>
       </c>
-      <c t="s" s="1" r="F20">
+      <c r="F20" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21">
-      <c s="1" r="A21">
+    <row r="21" spans="1:15">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c s="1" r="B21">
+      <c r="B21" s="1">
         <v>4</v>
       </c>
-      <c t="s" s="1" r="C21">
+      <c r="C21" s="1" t="s">
         <v>77</v>
       </c>
-      <c t="s" s="1" r="D21">
+      <c r="D21" s="1" t="s">
         <v>78</v>
       </c>
-      <c t="s" s="1" r="E21">
+      <c r="E21" s="1" t="s">
         <v>79</v>
       </c>
-      <c t="s" s="1" r="F21">
+      <c r="F21" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22">
-      <c s="1" r="A22">
+    <row r="22" spans="1:15">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c s="1" r="B22">
+      <c r="B22" s="1">
         <v>5</v>
       </c>
-      <c t="s" s="1" r="C22">
+      <c r="C22" s="1" t="s">
         <v>80</v>
       </c>
-      <c t="s" s="1" r="D22">
+      <c r="D22" s="1" t="s">
         <v>81</v>
       </c>
-      <c t="s" s="1" r="E22">
+      <c r="E22" s="1" t="s">
         <v>82</v>
       </c>
-      <c t="s" s="1" r="F22">
+      <c r="F22" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="23">
-      <c s="1" r="A23">
+    <row r="23" spans="1:15">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c s="1" r="B23">
+      <c r="B23" s="1">
         <v>5</v>
       </c>
-      <c t="s" s="1" r="C23">
+      <c r="C23" s="1" t="s">
         <v>84</v>
       </c>
-      <c t="s" s="1" r="D23">
+      <c r="D23" s="1" t="s">
         <v>85</v>
       </c>
-      <c t="s" s="1" r="E23">
+      <c r="E23" s="1" t="s">
         <v>86</v>
       </c>
-      <c t="s" s="1" r="F23">
+      <c r="F23" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24">
-      <c s="1" r="A24">
+    <row r="24" spans="1:15">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c s="1" r="B24">
+      <c r="B24" s="1">
         <v>5</v>
       </c>
-      <c t="s" s="1" r="C24">
+      <c r="C24" s="1" t="s">
         <v>87</v>
       </c>
-      <c t="s" s="1" r="D24">
+      <c r="D24" s="1" t="s">
         <v>88</v>
       </c>
-      <c t="s" s="1" r="E24">
+      <c r="E24" s="1" t="s">
         <v>89</v>
       </c>
-      <c t="s" s="1" r="F24">
+      <c r="F24" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25">
-      <c s="1" r="A25">
+    <row r="25" spans="1:15">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c s="1" r="B25">
+      <c r="B25" s="1">
         <v>5</v>
       </c>
-      <c t="s" s="1" r="C25">
+      <c r="C25" s="1" t="s">
         <v>90</v>
       </c>
-      <c t="s" s="1" r="D25">
+      <c r="D25" s="1" t="s">
         <v>91</v>
       </c>
-      <c t="s" s="1" r="E25">
+      <c r="E25" s="1" t="s">
         <v>92</v>
       </c>
-      <c t="s" s="1" r="F25">
+      <c r="F25" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26">
-      <c s="1" r="A26">
+    <row r="26" spans="1:15">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c s="1" r="B26">
+      <c r="B26" s="1">
         <v>5</v>
       </c>
-      <c t="s" s="1" r="C26">
+      <c r="C26" s="1" t="s">
         <v>93</v>
       </c>
-      <c t="s" s="1" r="D26">
+      <c r="D26" s="1" t="s">
         <v>94</v>
       </c>
-      <c t="s" s="1" r="E26">
+      <c r="E26" s="1" t="s">
         <v>95</v>
       </c>
-      <c t="s" s="1" r="F26">
+      <c r="F26" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27">
-      <c s="1" r="A27">
+    <row r="27" spans="1:15">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c s="1" r="B27">
+      <c r="B27" s="1">
         <v>6</v>
       </c>
-      <c t="s" s="1" r="C27">
+      <c r="C27" s="1" t="s">
         <v>96</v>
       </c>
-      <c t="s" s="1" r="D27">
+      <c r="D27" s="1" t="s">
         <v>97</v>
       </c>
-      <c t="s" s="1" r="E27">
+      <c r="E27" s="1" t="s">
         <v>98</v>
       </c>
-      <c t="s" s="1" r="F27">
+      <c r="F27" s="1" t="s">
         <v>99</v>
       </c>
-      <c t="s" s="1" r="K27">
+      <c r="K27" s="1" t="s">
         <v>97</v>
       </c>
-      <c t="s" s="1" r="L27">
+      <c r="L27" s="1" t="s">
         <v>100</v>
       </c>
-      <c t="s" s="1" r="M27">
+      <c r="M27" s="1" t="s">
         <v>101</v>
       </c>
-      <c t="s" s="1" r="N27">
+      <c r="N27" s="1" t="s">
         <v>102</v>
       </c>
-      <c t="s" s="1" r="O27">
+      <c r="O27" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="28">
-      <c s="1" r="A28">
+    <row r="28" spans="1:15">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c s="1" r="B28">
+      <c r="B28" s="1">
         <v>6</v>
       </c>
-      <c t="s" s="1" r="C28">
+      <c r="C28" s="1" t="s">
         <v>104</v>
       </c>
-      <c t="s" s="1" r="D28">
+      <c r="D28" s="1" t="s">
         <v>105</v>
       </c>
-      <c t="s" s="1" r="E28">
+      <c r="E28" s="1" t="s">
         <v>106</v>
       </c>
-      <c t="s" s="1" r="F28">
+      <c r="F28" s="1" t="s">
         <v>99</v>
       </c>
-      <c t="s" s="1" r="K28">
+      <c r="K28" s="1" t="s">
         <v>105</v>
       </c>
-      <c t="s" s="1" r="L28">
+      <c r="L28" s="1" t="s">
         <v>107</v>
       </c>
-      <c t="s" s="1" r="M28">
+      <c r="M28" s="1" t="s">
         <v>108</v>
       </c>
-      <c t="s" s="1" r="N28">
+      <c r="N28" s="1" t="s">
         <v>109</v>
       </c>
-      <c t="s" s="1" r="O28">
+      <c r="O28" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29">
-      <c s="1" r="A29">
+    <row r="29" spans="1:15">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c s="1" r="B29">
+      <c r="B29" s="1">
         <v>6</v>
       </c>
-      <c t="s" s="1" r="C29">
+      <c r="C29" s="1" t="s">
         <v>111</v>
       </c>
-      <c t="s" s="1" r="D29">
+      <c r="D29" s="1" t="s">
         <v>112</v>
       </c>
-      <c t="s" s="1" r="E29">
+      <c r="E29" s="1" t="s">
         <v>113</v>
       </c>
-      <c t="s" s="1" r="F29">
+      <c r="F29" s="1" t="s">
         <v>99</v>
       </c>
-      <c t="s" s="1" r="K29">
+      <c r="K29" s="1" t="s">
         <v>112</v>
       </c>
-      <c t="s" s="1" r="L29">
+      <c r="L29" s="1" t="s">
         <v>114</v>
       </c>
-      <c t="s" s="1" r="M29">
+      <c r="M29" s="1" t="s">
         <v>115</v>
       </c>
-      <c t="s" s="1" r="N29">
+      <c r="N29" s="1" t="s">
         <v>116</v>
       </c>
-      <c t="s" s="1" r="O29">
+      <c r="O29" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30">
-      <c s="1" r="A30">
+    <row r="30" spans="1:15">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c s="1" r="B30">
+      <c r="B30" s="1">
         <v>6</v>
       </c>
-      <c t="s" s="1" r="C30">
+      <c r="C30" s="1" t="s">
         <v>118</v>
       </c>
-      <c t="s" s="1" r="D30">
+      <c r="D30" s="1" t="s">
         <v>119</v>
       </c>
-      <c t="s" s="1" r="E30">
+      <c r="E30" s="1" t="s">
         <v>120</v>
       </c>
-      <c t="s" s="1" r="F30">
+      <c r="F30" s="1" t="s">
         <v>99</v>
       </c>
-      <c t="s" s="1" r="K30">
+      <c r="K30" s="1" t="s">
         <v>119</v>
       </c>
-      <c t="s" s="1" r="L30">
+      <c r="L30" s="1" t="s">
         <v>121</v>
       </c>
-      <c t="s" s="1" r="M30">
+      <c r="M30" s="1" t="s">
         <v>122</v>
       </c>
-      <c t="s" s="1" r="N30">
+      <c r="N30" s="1" t="s">
         <v>123</v>
       </c>
-      <c t="s" s="1" r="O30">
+      <c r="O30" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31">
-      <c s="1" r="A31">
+    <row r="31" spans="1:15">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c s="1" r="B31">
+      <c r="B31" s="1">
         <v>6</v>
       </c>
-      <c t="s" s="1" r="C31">
+      <c r="C31" s="1" t="s">
         <v>125</v>
       </c>
-      <c t="s" s="1" r="D31">
+      <c r="D31" s="1" t="s">
         <v>126</v>
       </c>
-      <c t="s" s="1" r="E31">
+      <c r="E31" s="1" t="s">
         <v>127</v>
       </c>
-      <c t="s" s="1" r="F31">
+      <c r="F31" s="1" t="s">
         <v>99</v>
       </c>
-      <c t="s" s="1" r="K31">
+      <c r="K31" s="1" t="s">
         <v>126</v>
       </c>
-      <c t="s" s="1" r="L31">
+      <c r="L31" s="1" t="s">
         <v>128</v>
       </c>
-      <c t="s" s="1" r="M31">
+      <c r="M31" s="1" t="s">
         <v>129</v>
       </c>
-      <c t="s" s="1" r="N31">
+      <c r="N31" s="1" t="s">
         <v>130</v>
       </c>
-      <c t="s" s="1" r="O31">
+      <c r="O31" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32">
-      <c s="1" r="A32">
+    <row r="32" spans="1:15">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c s="1" r="B32">
+      <c r="B32" s="1">
         <v>7</v>
       </c>
-      <c t="s" s="1" r="C32">
+      <c r="C32" s="1" t="s">
         <v>132</v>
       </c>
-      <c t="s" s="1" r="D32">
+      <c r="D32" s="1" t="s">
         <v>133</v>
       </c>
-      <c t="s" s="1" r="E32">
+      <c r="E32" s="1" t="s">
         <v>134</v>
       </c>
-      <c t="s" s="1" r="F32">
+      <c r="F32" s="1" t="s">
         <v>135</v>
       </c>
-      <c t="s" s="1" r="I32">
+      <c r="I32" s="1" t="s">
         <v>136</v>
       </c>
-      <c t="s" s="1" r="K32">
+      <c r="K32" s="1" t="s">
         <v>133</v>
       </c>
-      <c t="s" s="1" r="L32">
+      <c r="L32" s="1" t="s">
         <v>137</v>
       </c>
-      <c t="s" s="1" r="M32">
+      <c r="M32" s="1" t="s">
         <v>138</v>
       </c>
-      <c t="s" s="1" r="N32">
+      <c r="N32" s="1" t="s">
         <v>139</v>
       </c>
-      <c t="s" s="1" r="O32">
+      <c r="O32" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="33">
-      <c s="1" r="A33">
+    <row r="33" spans="1:16">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c s="1" r="B33">
+      <c r="B33" s="1">
         <v>7</v>
       </c>
-      <c t="s" s="1" r="C33">
+      <c r="C33" s="1" t="s">
         <v>141</v>
       </c>
-      <c t="s" s="1" r="D33">
+      <c r="D33" s="1" t="s">
         <v>142</v>
       </c>
-      <c t="s" s="1" r="E33">
+      <c r="E33" s="1" t="s">
         <v>143</v>
       </c>
-      <c t="s" s="1" r="F33">
+      <c r="F33" s="1" t="s">
         <v>135</v>
       </c>
-      <c t="s" s="1" r="I33">
+      <c r="I33" s="1" t="s">
         <v>136</v>
       </c>
-      <c t="s" s="1" r="K33">
+      <c r="K33" s="1" t="s">
         <v>144</v>
       </c>
-      <c t="s" s="1" r="M33">
+      <c r="M33" s="1" t="s">
         <v>145</v>
       </c>
-      <c t="s" s="1" r="N33">
+      <c r="N33" s="1" t="s">
         <v>146</v>
       </c>
-      <c t="s" s="1" r="O33">
+      <c r="O33" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34">
-      <c s="1" r="A34">
+    <row r="34" spans="1:16">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c s="1" r="B34">
+      <c r="B34" s="1">
         <v>7</v>
       </c>
-      <c t="s" s="1" r="C34">
+      <c r="C34" s="1" t="s">
         <v>148</v>
       </c>
-      <c t="s" s="1" r="D34">
+      <c r="D34" s="1" t="s">
         <v>149</v>
       </c>
-      <c t="s" s="1" r="E34">
+      <c r="E34" s="1" t="s">
         <v>150</v>
       </c>
-      <c t="s" s="1" r="F34">
+      <c r="F34" s="1" t="s">
         <v>135</v>
       </c>
-      <c t="s" s="1" r="I34">
+      <c r="I34" s="1" t="s">
         <v>136</v>
       </c>
-      <c t="s" s="1" r="K34">
+      <c r="K34" s="1" t="s">
         <v>149</v>
       </c>
-      <c t="s" s="1" r="L34">
+      <c r="L34" s="1" t="s">
         <v>151</v>
       </c>
-      <c t="s" s="1" r="M34">
+      <c r="M34" s="1" t="s">
         <v>152</v>
       </c>
-      <c t="s" s="1" r="N34">
+      <c r="N34" s="1" t="s">
         <v>153</v>
       </c>
-      <c t="s" s="1" r="O34">
+      <c r="O34" s="1" t="s">
         <v>154</v>
       </c>
-      <c t="s" s="1" r="P34">
+      <c r="P34" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="35">
-      <c s="1" r="A35">
+    <row r="35" spans="1:16">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c s="1" r="B35">
+      <c r="B35" s="1">
         <v>7</v>
       </c>
-      <c t="s" s="1" r="C35">
+      <c r="C35" s="1" t="s">
         <v>156</v>
       </c>
-      <c t="s" s="1" r="D35">
+      <c r="D35" s="1" t="s">
         <v>157</v>
       </c>
-      <c t="s" s="1" r="E35">
+      <c r="E35" s="1" t="s">
         <v>158</v>
       </c>
-      <c t="s" s="1" r="F35">
+      <c r="F35" s="1" t="s">
         <v>135</v>
       </c>
-      <c t="s" s="1" r="I35">
+      <c r="I35" s="1" t="s">
         <v>136</v>
       </c>
-      <c t="s" s="1" r="K35">
+      <c r="K35" s="1" t="s">
         <v>157</v>
       </c>
-      <c t="s" s="1" r="L35">
+      <c r="L35" s="1" t="s">
         <v>159</v>
       </c>
-      <c t="s" s="1" r="M35">
+      <c r="M35" s="1" t="s">
         <v>160</v>
       </c>
-      <c t="s" s="1" r="N35">
+      <c r="N35" s="1" t="s">
         <v>161</v>
       </c>
-      <c t="s" s="1" r="O35">
+      <c r="O35" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="36">
-      <c s="1" r="A36">
+    <row r="36" spans="1:16">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c s="1" r="B36">
+      <c r="B36" s="1">
         <v>7</v>
       </c>
-      <c t="s" s="1" r="C36">
+      <c r="C36" s="1" t="s">
         <v>163</v>
       </c>
-      <c t="s" s="1" r="D36">
+      <c r="D36" s="1" t="s">
         <v>164</v>
       </c>
-      <c t="s" s="1" r="E36">
+      <c r="E36" s="1" t="s">
         <v>165</v>
       </c>
-      <c t="s" s="1" r="F36">
+      <c r="F36" s="1" t="s">
         <v>135</v>
       </c>
-      <c t="s" s="1" r="I36">
+      <c r="I36" s="1" t="s">
         <v>136</v>
       </c>
-      <c t="s" s="1" r="K36">
+      <c r="K36" s="1" t="s">
         <v>164</v>
       </c>
-      <c t="s" s="1" r="L36">
+      <c r="L36" s="1" t="s">
         <v>166</v>
       </c>
-      <c t="s" s="1" r="M36">
+      <c r="M36" s="1" t="s">
         <v>167</v>
       </c>
-      <c t="s" s="1" r="N36">
+      <c r="N36" s="1" t="s">
         <v>168</v>
       </c>
-      <c t="s" s="1" r="O36">
+      <c r="O36" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="37">
-      <c s="1" r="A37">
+    <row r="37" spans="1:16">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c s="1" r="B37">
+      <c r="B37" s="1">
         <v>8</v>
       </c>
-      <c t="s" s="1" r="C37">
+      <c r="C37" s="1" t="s">
         <v>170</v>
       </c>
-      <c t="s" s="1" r="D37">
+      <c r="D37" s="1" t="s">
         <v>171</v>
       </c>
-      <c t="s" s="1" r="E37">
+      <c r="E37" s="1" t="s">
         <v>172</v>
       </c>
-      <c t="s" s="1" r="F37">
+      <c r="F37" s="1" t="s">
         <v>173</v>
       </c>
-      <c t="s" s="1" r="I37">
+      <c r="I37" s="1" t="s">
         <v>174</v>
       </c>
-      <c t="s" s="1" r="J37">
+      <c r="J37" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="38">
-      <c s="1" r="A38">
+    <row r="38" spans="1:16">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c s="1" r="B38">
+      <c r="B38" s="1">
         <v>8</v>
       </c>
-      <c t="s" s="1" r="C38">
+      <c r="C38" s="1" t="s">
         <v>176</v>
       </c>
-      <c t="s" s="1" r="D38">
+      <c r="D38" s="1" t="s">
         <v>177</v>
       </c>
-      <c t="s" s="1" r="E38">
+      <c r="E38" s="1" t="s">
         <v>178</v>
       </c>
-      <c t="s" s="1" r="F38">
+      <c r="F38" s="1" t="s">
         <v>173</v>
       </c>
-      <c t="s" s="1" r="I38">
+      <c r="I38" s="1" t="s">
         <v>174</v>
       </c>
-      <c t="s" s="1" r="J38">
+      <c r="J38" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="39">
-      <c s="1" r="A39">
+    <row r="39" spans="1:16">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c s="1" r="B39">
+      <c r="B39" s="1">
         <v>8</v>
       </c>
-      <c t="s" s="1" r="C39">
+      <c r="C39" s="1" t="s">
         <v>179</v>
       </c>
-      <c t="s" s="1" r="D39">
+      <c r="D39" s="1" t="s">
         <v>180</v>
       </c>
-      <c t="s" s="1" r="E39">
+      <c r="E39" s="1" t="s">
         <v>181</v>
       </c>
-      <c t="s" s="1" r="F39">
+      <c r="F39" s="1" t="s">
         <v>173</v>
       </c>
-      <c t="s" s="1" r="I39">
+      <c r="I39" s="1" t="s">
         <v>174</v>
       </c>
-      <c t="s" s="1" r="J39">
+      <c r="J39" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="40">
-      <c s="1" r="A40">
+    <row r="40" spans="1:16">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c s="1" r="B40">
+      <c r="B40" s="1">
         <v>8</v>
       </c>
-      <c t="s" s="1" r="C40">
+      <c r="C40" s="1" t="s">
         <v>182</v>
       </c>
-      <c t="s" s="1" r="D40">
+      <c r="D40" s="1" t="s">
         <v>183</v>
       </c>
-      <c t="s" s="1" r="E40">
+      <c r="E40" s="1" t="s">
         <v>184</v>
       </c>
-      <c t="s" s="1" r="F40">
+      <c r="F40" s="1" t="s">
         <v>173</v>
       </c>
-      <c t="s" s="1" r="I40">
+      <c r="I40" s="1" t="s">
         <v>174</v>
       </c>
-      <c t="s" s="1" r="J40">
+      <c r="J40" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="41">
-      <c s="1" r="A41">
+    <row r="41" spans="1:16">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c s="1" r="B41">
+      <c r="B41" s="1">
         <v>8</v>
       </c>
-      <c t="s" s="1" r="C41">
+      <c r="C41" s="1" t="s">
         <v>185</v>
       </c>
-      <c t="s" s="1" r="D41">
+      <c r="D41" s="1" t="s">
         <v>186</v>
       </c>
-      <c t="s" s="1" r="E41">
+      <c r="E41" s="1" t="s">
         <v>187</v>
       </c>
-      <c t="s" s="1" r="F41">
+      <c r="F41" s="1" t="s">
         <v>173</v>
       </c>
-      <c t="s" s="1" r="I41">
+      <c r="I41" s="1" t="s">
         <v>174</v>
       </c>
-      <c t="s" s="1" r="J41">
+      <c r="J41" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="42">
-      <c s="1" r="A42">
+    <row r="42" spans="1:16">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c s="1" r="B42">
+      <c r="B42" s="1">
         <v>9</v>
       </c>
-      <c t="s" s="1" r="C42">
+      <c r="C42" s="1" t="s">
         <v>188</v>
       </c>
-      <c t="s" s="1" r="D42">
+      <c r="D42" s="1" t="s">
         <v>189</v>
       </c>
-      <c t="s" s="1" r="E42">
+      <c r="E42" s="1" t="s">
         <v>190</v>
       </c>
-      <c t="s" s="1" r="F42">
+      <c r="F42" s="1" t="s">
         <v>191</v>
       </c>
-      <c t="s" s="1" r="I42">
+      <c r="I42" s="1" t="s">
         <v>192</v>
       </c>
-      <c t="s" s="1" r="J42">
+      <c r="J42" s="1" t="s">
         <v>193</v>
       </c>
-      <c t="s" s="1" r="K42">
+      <c r="K42" s="1" t="s">
         <v>189</v>
       </c>
-      <c t="s" s="1" r="L42">
+      <c r="L42" s="1" t="s">
         <v>194</v>
       </c>
-      <c t="s" s="1" r="M42">
+      <c r="M42" s="1" t="s">
         <v>190</v>
       </c>
-      <c t="s" s="1" r="N42">
+      <c r="N42" s="1" t="s">
         <v>195</v>
       </c>
-      <c t="s" s="1" r="O42">
+      <c r="O42" s="1" t="s">
         <v>196</v>
       </c>
-      <c t="s" s="1" r="P42">
+      <c r="P42" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="43">
-      <c s="1" r="A43">
+    <row r="43" spans="1:16">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c s="1" r="B43">
+      <c r="B43" s="1">
         <v>9</v>
       </c>
-      <c t="s" s="1" r="C43">
+      <c r="C43" s="1" t="s">
         <v>198</v>
       </c>
-      <c t="s" s="1" r="D43">
+      <c r="D43" s="1" t="s">
         <v>199</v>
       </c>
-      <c t="s" s="1" r="E43">
+      <c r="E43" s="1" t="s">
         <v>200</v>
       </c>
-      <c t="s" s="1" r="F43">
+      <c r="F43" s="1" t="s">
         <v>191</v>
       </c>
-      <c t="s" s="1" r="I43">
+      <c r="I43" s="1" t="s">
         <v>192</v>
       </c>
-      <c t="s" s="1" r="J43">
+      <c r="J43" s="1" t="s">
         <v>193</v>
       </c>
-      <c t="s" s="1" r="K43">
+      <c r="K43" s="1" t="s">
         <v>199</v>
       </c>
-      <c t="s" s="1" r="L43">
+      <c r="L43" s="1" t="s">
         <v>201</v>
       </c>
-      <c t="s" s="1" r="M43">
+      <c r="M43" s="1" t="s">
         <v>200</v>
       </c>
-      <c t="s" s="1" r="N43">
+      <c r="N43" s="1" t="s">
         <v>202</v>
       </c>
-      <c t="s" s="1" r="O43">
+      <c r="O43" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="44">
-      <c s="1" r="A44">
+    <row r="44" spans="1:16">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c s="1" r="B44">
+      <c r="B44" s="1">
         <v>9</v>
       </c>
-      <c t="s" s="1" r="C44">
+      <c r="C44" s="1" t="s">
         <v>204</v>
       </c>
-      <c t="s" s="1" r="D44">
+      <c r="D44" s="1" t="s">
         <v>205</v>
       </c>
-      <c t="s" s="1" r="E44">
+      <c r="E44" s="1" t="s">
         <v>206</v>
       </c>
-      <c t="s" s="1" r="F44">
+      <c r="F44" s="1" t="s">
         <v>191</v>
       </c>
-      <c t="s" s="1" r="I44">
+      <c r="I44" s="1" t="s">
         <v>192</v>
       </c>
-      <c t="s" s="1" r="J44">
+      <c r="J44" s="1" t="s">
         <v>193</v>
       </c>
-      <c t="s" s="1" r="K44">
+      <c r="K44" s="1" t="s">
         <v>205</v>
       </c>
-      <c t="s" s="1" r="L44">
+      <c r="L44" s="1" t="s">
         <v>207</v>
       </c>
-      <c t="s" s="1" r="M44">
+      <c r="M44" s="1" t="s">
         <v>206</v>
       </c>
-      <c t="s" s="1" r="N44">
+      <c r="N44" s="1" t="s">
         <v>208</v>
       </c>
-      <c t="s" s="1" r="O44">
+      <c r="O44" s="1" t="s">
         <v>209</v>
       </c>
-      <c t="s" s="1" r="P44">
+      <c r="P44" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="45">
-      <c s="1" r="A45">
+    <row r="45" spans="1:16">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c s="1" r="B45">
+      <c r="B45" s="1">
         <v>9</v>
       </c>
-      <c t="s" s="1" r="C45">
+      <c r="C45" s="1" t="s">
         <v>211</v>
       </c>
-      <c t="s" s="1" r="D45">
+      <c r="D45" s="1" t="s">
         <v>212</v>
       </c>
-      <c t="s" s="1" r="E45">
+      <c r="E45" s="1" t="s">
         <v>213</v>
       </c>
-      <c t="s" s="1" r="F45">
+      <c r="F45" s="1" t="s">
         <v>191</v>
       </c>
-      <c t="s" s="1" r="I45">
+      <c r="I45" s="1" t="s">
         <v>192</v>
       </c>
-      <c t="s" s="1" r="J45">
+      <c r="J45" s="1" t="s">
         <v>193</v>
       </c>
-      <c t="s" s="1" r="K45">
+      <c r="K45" s="1" t="s">
         <v>212</v>
       </c>
-      <c t="s" s="1" r="L45">
+      <c r="L45" s="1" t="s">
         <v>214</v>
       </c>
-      <c t="s" s="1" r="M45">
+      <c r="M45" s="1" t="s">
         <v>213</v>
       </c>
-      <c t="s" s="1" r="N45">
+      <c r="N45" s="1" t="s">
         <v>215</v>
       </c>
-      <c t="s" s="1" r="O45">
+      <c r="O45" s="1" t="s">
         <v>216</v>
       </c>
-      <c t="s" s="1" r="P45">
+      <c r="P45" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="46">
-      <c s="1" r="A46">
+    <row r="46" spans="1:16">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c s="1" r="B46">
+      <c r="B46" s="1">
         <v>9</v>
       </c>
-      <c t="s" s="1" r="C46">
+      <c r="C46" s="1" t="s">
         <v>218</v>
       </c>
-      <c t="s" s="1" r="D46">
+      <c r="D46" s="1" t="s">
         <v>219</v>
       </c>
-      <c t="s" s="1" r="E46">
+      <c r="E46" s="1" t="s">
         <v>220</v>
       </c>
-      <c t="s" s="1" r="F46">
+      <c r="F46" s="1" t="s">
         <v>191</v>
       </c>
-      <c t="s" s="1" r="I46">
+      <c r="I46" s="1" t="s">
         <v>192</v>
       </c>
-      <c t="s" s="1" r="J46">
+      <c r="J46" s="1" t="s">
         <v>193</v>
       </c>
-      <c t="s" s="1" r="K46">
+      <c r="K46" s="1" t="s">
         <v>221</v>
       </c>
-      <c t="s" s="1" r="L46">
+      <c r="L46" s="1" t="s">
         <v>222</v>
       </c>
-      <c t="s" s="1" r="M46">
+      <c r="M46" s="1" t="s">
         <v>220</v>
       </c>
-      <c t="s" s="1" r="N46">
+      <c r="N46" s="1" t="s">
         <v>223</v>
       </c>
-      <c t="s" s="1" r="O46">
+      <c r="O46" s="1" t="s">
         <v>224</v>
       </c>
-      <c t="s" s="1" r="P46">
+      <c r="P46" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="47">
-      <c s="1" r="A47">
+    <row r="47" spans="1:16">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c s="1" r="B47">
+      <c r="B47" s="1">
         <v>10</v>
       </c>
-      <c t="s" s="1" r="C47">
+      <c r="C47" s="1" t="s">
         <v>226</v>
       </c>
-      <c t="s" s="1" r="D47">
+      <c r="D47" s="1" t="s">
         <v>227</v>
       </c>
-      <c t="s" s="1" r="E47">
+      <c r="E47" s="1" t="s">
         <v>228</v>
       </c>
-      <c t="s" s="1" r="F47">
+      <c r="F47" s="1" t="s">
         <v>229</v>
       </c>
-      <c t="s" s="1" r="I47">
+      <c r="I47" s="1" t="s">
         <v>230</v>
       </c>
-      <c t="s" s="1" r="J47">
+      <c r="J47" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="48">
-      <c s="1" r="A48">
+    <row r="48" spans="1:16">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c s="1" r="B48">
+      <c r="B48" s="1">
         <v>10</v>
       </c>
-      <c t="s" s="1" r="C48">
+      <c r="C48" s="1" t="s">
         <v>232</v>
       </c>
-      <c t="s" s="1" r="D48">
+      <c r="D48" s="1" t="s">
         <v>233</v>
       </c>
-      <c t="s" s="1" r="E48">
+      <c r="E48" s="1" t="s">
         <v>234</v>
       </c>
-      <c t="s" s="1" r="F48">
+      <c r="F48" s="1" t="s">
         <v>229</v>
       </c>
-      <c t="s" s="1" r="I48">
+      <c r="I48" s="1" t="s">
         <v>230</v>
       </c>
-      <c t="s" s="1" r="J48">
+      <c r="J48" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="49">
-      <c s="1" r="A49">
+    <row r="49" spans="1:10">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c s="1" r="B49">
+      <c r="B49" s="1">
         <v>10</v>
       </c>
-      <c t="s" s="1" r="C49">
+      <c r="C49" s="1" t="s">
         <v>235</v>
       </c>
-      <c t="s" s="1" r="D49">
+      <c r="D49" s="1" t="s">
         <v>236</v>
       </c>
-      <c t="s" s="1" r="E49">
+      <c r="E49" s="1" t="s">
         <v>237</v>
       </c>
-      <c t="s" s="1" r="F49">
+      <c r="F49" s="1" t="s">
         <v>229</v>
       </c>
-      <c t="s" s="1" r="I49">
+      <c r="I49" s="1" t="s">
         <v>230</v>
       </c>
-      <c t="s" s="1" r="J49">
+      <c r="J49" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="50">
-      <c s="1" r="A50">
+    <row r="50" spans="1:10">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c s="1" r="B50">
+      <c r="B50" s="1">
         <v>10</v>
       </c>
-      <c t="s" s="1" r="C50">
+      <c r="C50" s="1" t="s">
         <v>238</v>
       </c>
-      <c t="s" s="1" r="D50">
+      <c r="D50" s="1" t="s">
         <v>239</v>
       </c>
-      <c t="s" s="1" r="E50">
+      <c r="E50" s="1" t="s">
         <v>240</v>
       </c>
-      <c t="s" s="1" r="F50">
+      <c r="F50" s="1" t="s">
         <v>229</v>
       </c>
-      <c t="s" s="1" r="I50">
+      <c r="I50" s="1" t="s">
         <v>230</v>
       </c>
-      <c t="s" s="1" r="J50">
+      <c r="J50" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="51">
-      <c s="1" r="A51">
+    <row r="51" spans="1:10">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c s="1" r="B51">
+      <c r="B51" s="1">
         <v>10</v>
       </c>
-      <c t="s" s="1" r="C51">
+      <c r="C51" s="1" t="s">
         <v>241</v>
       </c>
-      <c t="s" s="1" r="D51">
+      <c r="D51" s="1" t="s">
         <v>242</v>
       </c>
-      <c t="s" s="1" r="E51">
+      <c r="E51" s="1" t="s">
         <v>243</v>
       </c>
-      <c t="s" s="1" r="F51">
+      <c r="F51" s="1" t="s">
         <v>229</v>
       </c>
-      <c t="s" s="1" r="I51">
+      <c r="I51" s="1" t="s">
         <v>230</v>
       </c>
-      <c t="s" s="1" r="J51">
+      <c r="J51" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="52">
-      <c s="1" r="A52">
+    <row r="52" spans="1:10">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c s="1" r="B52">
+      <c r="B52" s="1">
         <v>11</v>
       </c>
-      <c t="s" s="1" r="C52">
+      <c r="C52" s="1" t="s">
         <v>244</v>
       </c>
-      <c t="s" s="1" r="D52">
+      <c r="D52" s="1" t="s">
         <v>245</v>
       </c>
-      <c t="s" s="1" r="E52">
+      <c r="E52" s="1" t="s">
         <v>246</v>
       </c>
-      <c t="s" s="1" r="F52">
+      <c r="F52" s="1" t="s">
         <v>247</v>
       </c>
-      <c t="s" s="1" r="I52">
+      <c r="I52" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="53">
-      <c s="1" r="A53">
+    <row r="53" spans="1:10">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c s="1" r="B53">
+      <c r="B53" s="1">
         <v>11</v>
       </c>
-      <c t="s" s="1" r="C53">
+      <c r="C53" s="1" t="s">
         <v>249</v>
       </c>
-      <c t="s" s="1" r="D53">
+      <c r="D53" s="1" t="s">
         <v>250</v>
       </c>
-      <c t="s" s="1" r="E53">
+      <c r="E53" s="1" t="s">
         <v>251</v>
       </c>
-      <c t="s" s="1" r="F53">
+      <c r="F53" s="1" t="s">
         <v>247</v>
       </c>
-      <c t="s" s="1" r="I53">
+      <c r="I53" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="54">
-      <c s="1" r="A54">
+    <row r="54" spans="1:10">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c s="1" r="B54">
+      <c r="B54" s="1">
         <v>11</v>
       </c>
-      <c t="s" s="1" r="C54">
+      <c r="C54" s="1" t="s">
         <v>252</v>
       </c>
-      <c t="s" s="1" r="D54">
+      <c r="D54" s="1" t="s">
         <v>253</v>
       </c>
-      <c t="s" s="1" r="E54">
+      <c r="E54" s="1" t="s">
         <v>254</v>
       </c>
-      <c t="s" s="1" r="F54">
+      <c r="F54" s="1" t="s">
         <v>247</v>
       </c>
-      <c t="s" s="1" r="I54">
+      <c r="I54" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="55">
-      <c s="1" r="A55">
+    <row r="55" spans="1:10">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c s="1" r="B55">
+      <c r="B55" s="1">
         <v>11</v>
       </c>
-      <c t="s" s="1" r="C55">
+      <c r="C55" s="1" t="s">
         <v>255</v>
       </c>
-      <c t="s" s="1" r="D55">
+      <c r="D55" s="1" t="s">
         <v>256</v>
       </c>
-      <c t="s" s="1" r="E55">
+      <c r="E55" s="1" t="s">
         <v>257</v>
       </c>
-      <c t="s" s="1" r="F55">
+      <c r="F55" s="1" t="s">
         <v>247</v>
       </c>
-      <c t="s" s="1" r="I55">
+      <c r="I55" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="56">
-      <c s="1" r="A56">
+    <row r="56" spans="1:10">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c s="1" r="B56">
+      <c r="B56" s="1">
         <v>11</v>
       </c>
-      <c t="s" s="1" r="C56">
+      <c r="C56" s="1" t="s">
         <v>258</v>
       </c>
-      <c t="s" s="1" r="D56">
+      <c r="D56" s="1" t="s">
         <v>259</v>
       </c>
-      <c t="s" s="1" r="E56">
+      <c r="E56" s="1" t="s">
         <v>260</v>
       </c>
-      <c t="s" s="1" r="F56">
+      <c r="F56" s="1" t="s">
         <v>247</v>
       </c>
-      <c t="s" s="1" r="I56">
+      <c r="I56" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="57">
-      <c s="1" r="A57">
+    <row r="57" spans="1:10">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c s="1" r="B57">
+      <c r="B57" s="1">
         <v>12</v>
       </c>
-      <c t="s" s="1" r="C57">
+      <c r="C57" s="1" t="s">
         <v>261</v>
       </c>
-      <c t="s" s="1" r="D57">
+      <c r="D57" s="1" t="s">
         <v>262</v>
       </c>
-      <c t="s" s="1" r="E57">
+      <c r="E57" s="1" t="s">
         <v>263</v>
       </c>
-      <c t="s" s="1" r="F57">
+      <c r="F57" s="1" t="s">
         <v>264</v>
       </c>
-      <c t="s" s="1" r="I57">
+      <c r="I57" s="1" t="s">
         <v>265</v>
       </c>
-      <c t="s" s="1" r="J57">
+      <c r="J57" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="58">
-      <c s="1" r="A58">
+    <row r="58" spans="1:10">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c s="1" r="B58">
+      <c r="B58" s="1">
         <v>12</v>
       </c>
-      <c t="s" s="1" r="C58">
+      <c r="C58" s="1" t="s">
         <v>266</v>
       </c>
-      <c t="s" s="1" r="D58">
+      <c r="D58" s="1" t="s">
         <v>267</v>
       </c>
-      <c t="s" s="1" r="E58">
+      <c r="E58" s="1" t="s">
         <v>268</v>
       </c>
-      <c t="s" s="1" r="F58">
+      <c r="F58" s="1" t="s">
         <v>264</v>
       </c>
-      <c t="s" s="1" r="I58">
+      <c r="I58" s="1" t="s">
         <v>265</v>
       </c>
-      <c t="s" s="1" r="J58">
+      <c r="J58" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="59">
-      <c s="1" r="A59">
+    <row r="59" spans="1:10">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c s="1" r="B59">
+      <c r="B59" s="1">
         <v>12</v>
       </c>
-      <c t="s" s="1" r="C59">
+      <c r="C59" s="1" t="s">
         <v>269</v>
       </c>
-      <c t="s" s="1" r="D59">
+      <c r="D59" s="1" t="s">
         <v>270</v>
       </c>
-      <c t="s" s="1" r="E59">
+      <c r="E59" s="1" t="s">
         <v>271</v>
       </c>
-      <c t="s" s="1" r="F59">
+      <c r="F59" s="1" t="s">
         <v>264</v>
       </c>
-      <c t="s" s="1" r="I59">
+      <c r="I59" s="1" t="s">
         <v>265</v>
       </c>
-      <c t="s" s="1" r="J59">
+      <c r="J59" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="60">
-      <c s="1" r="A60">
+    <row r="60" spans="1:10">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c s="1" r="B60">
+      <c r="B60" s="1">
         <v>12</v>
       </c>
-      <c t="s" s="1" r="C60">
+      <c r="C60" s="1" t="s">
         <v>272</v>
       </c>
-      <c t="s" s="1" r="D60">
+      <c r="D60" s="1" t="s">
         <v>273</v>
       </c>
-      <c t="s" s="1" r="E60">
+      <c r="E60" s="1" t="s">
         <v>274</v>
       </c>
-      <c t="s" s="1" r="F60">
+      <c r="F60" s="1" t="s">
         <v>264</v>
       </c>
-      <c t="s" s="1" r="I60">
+      <c r="I60" s="1" t="s">
         <v>265</v>
       </c>
-      <c t="s" s="1" r="J60">
+      <c r="J60" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="61">
-      <c s="1" r="A61">
+    <row r="61" spans="1:10">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c s="1" r="B61">
+      <c r="B61" s="1">
         <v>12</v>
       </c>
-      <c t="s" s="1" r="C61">
+      <c r="C61" s="1" t="s">
         <v>275</v>
       </c>
-      <c t="s" s="1" r="D61">
+      <c r="D61" s="1" t="s">
         <v>276</v>
       </c>
-      <c t="s" s="1" r="E61">
+      <c r="E61" s="1" t="s">
         <v>277</v>
       </c>
-      <c t="s" s="1" r="F61">
+      <c r="F61" s="1" t="s">
         <v>264</v>
       </c>
-      <c t="s" s="1" r="I61">
+      <c r="I61" s="1" t="s">
         <v>265</v>
       </c>
-      <c t="s" s="1" r="J61">
+      <c r="J61" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="62">
-      <c s="1" r="A62">
+    <row r="62" spans="1:10">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c s="1" r="B62">
+      <c r="B62" s="1">
         <v>13</v>
       </c>
-      <c t="s" s="1" r="C62">
+      <c r="C62" s="1" t="s">
         <v>278</v>
       </c>
-      <c t="s" s="1" r="D62">
+      <c r="D62" s="1" t="s">
         <v>279</v>
       </c>
-      <c t="s" s="1" r="E62">
+      <c r="E62" s="1" t="s">
         <v>280</v>
       </c>
-      <c t="s" s="1" r="F62">
+      <c r="F62" s="1" t="s">
         <v>281</v>
       </c>
-      <c t="s" s="1" r="I62">
+      <c r="I62" s="1" t="s">
         <v>282</v>
       </c>
-      <c t="s" s="1" r="J62">
+      <c r="J62" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="63">
-      <c s="1" r="A63">
+    <row r="63" spans="1:10">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c s="1" r="B63">
+      <c r="B63" s="1">
         <v>13</v>
       </c>
-      <c t="s" s="1" r="C63">
+      <c r="C63" s="1" t="s">
         <v>284</v>
       </c>
-      <c t="s" s="1" r="D63">
+      <c r="D63" s="1" t="s">
         <v>285</v>
       </c>
-      <c t="s" s="1" r="E63">
+      <c r="E63" s="1" t="s">
         <v>286</v>
       </c>
-      <c t="s" s="1" r="F63">
+      <c r="F63" s="1" t="s">
         <v>281</v>
       </c>
-      <c t="s" s="1" r="I63">
+      <c r="I63" s="1" t="s">
         <v>282</v>
       </c>
-      <c t="s" s="1" r="J63">
+      <c r="J63" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="64">
-      <c s="1" r="A64">
+    <row r="64" spans="1:10">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c s="1" r="B64">
+      <c r="B64" s="1">
         <v>13</v>
       </c>
-      <c t="s" s="1" r="C64">
+      <c r="C64" s="1" t="s">
         <v>287</v>
       </c>
-      <c t="s" s="1" r="D64">
+      <c r="D64" s="1" t="s">
         <v>288</v>
       </c>
-      <c t="s" s="1" r="E64">
+      <c r="E64" s="1" t="s">
         <v>289</v>
       </c>
-      <c t="s" s="1" r="F64">
+      <c r="F64" s="1" t="s">
         <v>281</v>
       </c>
-      <c t="s" s="1" r="I64">
+      <c r="I64" s="1" t="s">
         <v>282</v>
       </c>
-      <c t="s" s="1" r="J64">
+      <c r="J64" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="65">
-      <c s="1" r="A65">
+    <row r="65" spans="1:10">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c s="1" r="B65">
+      <c r="B65" s="1">
         <v>13</v>
       </c>
-      <c t="s" s="1" r="C65">
+      <c r="C65" s="1" t="s">
         <v>290</v>
       </c>
-      <c t="s" s="1" r="D65">
+      <c r="D65" s="1" t="s">
         <v>291</v>
       </c>
-      <c t="s" s="1" r="E65">
+      <c r="E65" s="1" t="s">
         <v>292</v>
       </c>
-      <c t="s" s="1" r="F65">
+      <c r="F65" s="1" t="s">
         <v>281</v>
       </c>
-      <c t="s" s="1" r="I65">
+      <c r="I65" s="1" t="s">
         <v>282</v>
       </c>
-      <c t="s" s="1" r="J65">
+      <c r="J65" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="66">
-      <c s="1" r="A66">
+    <row r="66" spans="1:10">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c s="1" r="B66">
+      <c r="B66" s="1">
         <v>13</v>
       </c>
-      <c t="s" s="1" r="C66">
+      <c r="C66" s="1" t="s">
         <v>293</v>
       </c>
-      <c t="s" s="1" r="D66">
+      <c r="D66" s="1" t="s">
         <v>294</v>
       </c>
-      <c t="s" s="1" r="E66">
+      <c r="E66" s="1" t="s">
         <v>295</v>
       </c>
-      <c t="s" s="1" r="F66">
+      <c r="F66" s="1" t="s">
         <v>281</v>
       </c>
-      <c t="s" s="1" r="I66">
+      <c r="I66" s="1" t="s">
         <v>282</v>
       </c>
-      <c t="s" s="1" r="J66">
+      <c r="J66" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="67">
-      <c s="1" r="A67">
+    <row r="67" spans="1:10">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c s="1" r="B67">
+      <c r="B67" s="1">
         <v>14</v>
       </c>
-      <c t="s" s="1" r="C67">
+      <c r="C67" s="1" t="s">
         <v>296</v>
       </c>
-      <c t="s" s="1" r="D67">
+      <c r="D67" s="1" t="s">
         <v>297</v>
       </c>
-      <c t="s" s="1" r="E67">
+      <c r="E67" s="1" t="s">
         <v>298</v>
       </c>
-      <c t="s" s="1" r="F67">
+      <c r="F67" s="1" t="s">
         <v>299</v>
       </c>
-      <c t="s" s="1" r="I67">
+      <c r="I67" s="1" t="s">
         <v>300</v>
       </c>
-      <c t="s" s="1" r="J67">
+      <c r="J67" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="68">
-      <c s="1" r="A68">
+    <row r="68" spans="1:10">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c s="1" r="B68">
+      <c r="B68" s="1">
         <v>14</v>
       </c>
-      <c t="s" s="1" r="C68">
+      <c r="C68" s="1" t="s">
         <v>302</v>
       </c>
-      <c t="s" s="1" r="D68">
+      <c r="D68" s="1" t="s">
         <v>303</v>
       </c>
-      <c t="s" s="1" r="E68">
+      <c r="E68" s="1" t="s">
         <v>304</v>
       </c>
-      <c t="s" s="1" r="F68">
+      <c r="F68" s="1" t="s">
         <v>299</v>
       </c>
-      <c t="s" s="1" r="I68">
+      <c r="I68" s="1" t="s">
         <v>300</v>
       </c>
-      <c t="s" s="1" r="J68">
+      <c r="J68" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="69">
-      <c s="1" r="A69">
+    <row r="69" spans="1:10">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c s="1" r="B69">
+      <c r="B69" s="1">
         <v>14</v>
       </c>
-      <c t="s" s="1" r="C69">
+      <c r="C69" s="1" t="s">
         <v>305</v>
       </c>
-      <c t="s" s="1" r="D69">
+      <c r="D69" s="1" t="s">
         <v>306</v>
       </c>
-      <c t="s" s="1" r="E69">
+      <c r="E69" s="1" t="s">
         <v>307</v>
       </c>
-      <c t="s" s="1" r="F69">
+      <c r="F69" s="1" t="s">
         <v>299</v>
       </c>
-      <c t="s" s="1" r="I69">
+      <c r="I69" s="1" t="s">
         <v>300</v>
       </c>
-      <c t="s" s="1" r="J69">
+      <c r="J69" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="70">
-      <c s="1" r="A70">
+    <row r="70" spans="1:10">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c s="1" r="B70">
+      <c r="B70" s="1">
         <v>14</v>
       </c>
-      <c t="s" s="1" r="C70">
+      <c r="C70" s="1" t="s">
         <v>308</v>
       </c>
-      <c t="s" s="1" r="D70">
+      <c r="D70" s="1" t="s">
         <v>309</v>
       </c>
-      <c t="s" s="1" r="E70">
+      <c r="E70" s="1" t="s">
         <v>310</v>
       </c>
-      <c t="s" s="1" r="F70">
+      <c r="F70" s="1" t="s">
         <v>299</v>
       </c>
-      <c t="s" s="1" r="I70">
+      <c r="I70" s="1" t="s">
         <v>300</v>
       </c>
-      <c t="s" s="1" r="J70">
+      <c r="J70" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="71">
-      <c s="1" r="A71">
+    <row r="71" spans="1:10">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c s="1" r="B71">
+      <c r="B71" s="1">
         <v>14</v>
       </c>
-      <c t="s" s="1" r="C71">
+      <c r="C71" s="1" t="s">
         <v>311</v>
       </c>
-      <c t="s" s="1" r="D71">
+      <c r="D71" s="1" t="s">
         <v>312</v>
       </c>
-      <c t="s" s="1" r="E71">
+      <c r="E71" s="1" t="s">
         <v>313</v>
       </c>
-      <c t="s" s="1" r="F71">
+      <c r="F71" s="1" t="s">
         <v>299</v>
       </c>
-      <c t="s" s="1" r="I71">
+      <c r="I71" s="1" t="s">
         <v>300</v>
       </c>
-      <c t="s" s="1" r="J71">
+      <c r="J71" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="72">
-      <c s="1" r="A72">
+    <row r="72" spans="1:10">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c s="1" r="B72">
+      <c r="B72" s="1">
         <v>15</v>
       </c>
-      <c t="s" s="1" r="C72">
+      <c r="C72" s="1" t="s">
         <v>314</v>
       </c>
-      <c t="s" s="1" r="D72">
+      <c r="D72" s="1" t="s">
         <v>315</v>
       </c>
-      <c t="s" s="1" r="E72">
+      <c r="E72" s="1" t="s">
         <v>316</v>
       </c>
-      <c t="s" s="1" r="F72">
+      <c r="F72" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="73">
-      <c s="1" r="A73">
+    <row r="73" spans="1:10">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c s="1" r="B73">
+      <c r="B73" s="1">
         <v>15</v>
       </c>
-      <c t="s" s="1" r="C73">
+      <c r="C73" s="1" t="s">
         <v>318</v>
       </c>
-      <c t="s" s="1" r="D73">
+      <c r="D73" s="1" t="s">
         <v>319</v>
       </c>
-      <c t="s" s="1" r="E73">
+      <c r="E73" s="1" t="s">
         <v>320</v>
       </c>
-      <c t="s" s="1" r="F73">
+      <c r="F73" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="74">
-      <c s="1" r="A74">
+    <row r="74" spans="1:10">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c s="1" r="B74">
+      <c r="B74" s="1">
         <v>15</v>
       </c>
-      <c t="s" s="1" r="C74">
+      <c r="C74" s="1" t="s">
         <v>321</v>
       </c>
-      <c t="s" s="1" r="D74">
+      <c r="D74" s="1" t="s">
         <v>322</v>
       </c>
-      <c t="s" s="1" r="E74">
+      <c r="E74" s="1" t="s">
         <v>323</v>
       </c>
-      <c t="s" s="1" r="F74">
+      <c r="F74" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="75">
-      <c s="1" r="A75">
+    <row r="75" spans="1:10">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c s="1" r="B75">
+      <c r="B75" s="1">
         <v>15</v>
       </c>
-      <c t="s" s="1" r="C75">
+      <c r="C75" s="1" t="s">
         <v>324</v>
       </c>
-      <c t="s" s="1" r="D75">
+      <c r="D75" s="1" t="s">
         <v>325</v>
       </c>
-      <c t="s" s="1" r="E75">
+      <c r="E75" s="1" t="s">
         <v>326</v>
       </c>
-      <c t="s" s="1" r="F75">
+      <c r="F75" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="76">
-      <c s="1" r="A76">
+    <row r="76" spans="1:10">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c s="1" r="B76">
+      <c r="B76" s="1">
         <v>15</v>
       </c>
-      <c t="s" s="1" r="C76">
+      <c r="C76" s="1" t="s">
         <v>327</v>
       </c>
-      <c t="s" s="1" r="D76">
+      <c r="D76" s="1" t="s">
         <v>328</v>
       </c>
-      <c t="s" s="1" r="E76">
+      <c r="E76" s="1" t="s">
         <v>329</v>
       </c>
-      <c t="s" s="1" r="F76">
+      <c r="F76" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="77">
-      <c s="1" r="A77">
+    <row r="77" spans="1:10">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c s="1" r="B77">
+      <c r="B77" s="1">
         <v>16</v>
       </c>
-      <c t="s" s="1" r="C77">
+      <c r="C77" s="1" t="s">
         <v>330</v>
       </c>
-      <c t="s" s="1" r="D77">
+      <c r="D77" s="1" t="s">
         <v>331</v>
       </c>
-      <c t="s" s="1" r="E77">
+      <c r="E77" s="1" t="s">
         <v>332</v>
       </c>
-      <c t="s" s="1" r="F77">
+      <c r="F77" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="78">
-      <c s="1" r="A78">
+    <row r="78" spans="1:10">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c s="1" r="B78">
+      <c r="B78" s="1">
         <v>16</v>
       </c>
-      <c t="s" s="1" r="C78">
+      <c r="C78" s="1" t="s">
         <v>334</v>
       </c>
-      <c t="s" s="1" r="D78">
+      <c r="D78" s="1" t="s">
         <v>335</v>
       </c>
-      <c t="s" s="1" r="E78">
+      <c r="E78" s="1" t="s">
         <v>336</v>
       </c>
-      <c t="s" s="1" r="F78">
+      <c r="F78" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="79">
-      <c s="1" r="A79">
+    <row r="79" spans="1:10">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c s="1" r="B79">
+      <c r="B79" s="1">
         <v>16</v>
       </c>
-      <c t="s" s="1" r="C79">
+      <c r="C79" s="1" t="s">
         <v>337</v>
       </c>
-      <c t="s" s="1" r="D79">
+      <c r="D79" s="1" t="s">
         <v>338</v>
       </c>
-      <c t="s" s="1" r="E79">
+      <c r="E79" s="1" t="s">
         <v>339</v>
       </c>
-      <c t="s" s="1" r="F79">
+      <c r="F79" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="80">
-      <c s="1" r="A80">
+    <row r="80" spans="1:10">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c s="1" r="B80">
+      <c r="B80" s="1">
         <v>16</v>
       </c>
-      <c t="s" s="1" r="C80">
+      <c r="C80" s="1" t="s">
         <v>340</v>
       </c>
-      <c t="s" s="1" r="D80">
+      <c r="D80" s="1" t="s">
         <v>341</v>
       </c>
-      <c t="s" s="1" r="E80">
+      <c r="E80" s="1" t="s">
         <v>342</v>
       </c>
-      <c t="s" s="1" r="F80">
+      <c r="F80" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="81">
-      <c s="1" r="A81">
+    <row r="81" spans="1:16">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c s="1" r="B81">
+      <c r="B81" s="1">
         <v>16</v>
       </c>
-      <c t="s" s="1" r="C81">
+      <c r="C81" s="1" t="s">
         <v>343</v>
       </c>
-      <c t="s" s="1" r="D81">
+      <c r="D81" s="1" t="s">
         <v>344</v>
       </c>
-      <c t="s" s="1" r="E81">
+      <c r="E81" s="1" t="s">
         <v>345</v>
       </c>
-      <c t="s" s="1" r="F81">
+      <c r="F81" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="82">
-      <c s="1" r="A82">
+    <row r="82" spans="1:16">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c s="1" r="B82">
+      <c r="B82" s="1">
         <v>17</v>
       </c>
-      <c t="s" s="1" r="C82">
+      <c r="C82" s="1" t="s">
         <v>346</v>
       </c>
-      <c t="s" s="1" r="D82">
+      <c r="D82" s="1" t="s">
         <v>347</v>
       </c>
-      <c t="s" s="1" r="E82">
+      <c r="E82" s="1" t="s">
         <v>348</v>
       </c>
-      <c t="s" s="1" r="F82">
+      <c r="F82" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="83">
-      <c s="1" r="A83">
+    <row r="83" spans="1:16">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c s="1" r="B83">
+      <c r="B83" s="1">
         <v>17</v>
       </c>
-      <c t="s" s="1" r="C83">
+      <c r="C83" s="1" t="s">
         <v>350</v>
       </c>
-      <c t="s" s="1" r="D83">
+      <c r="D83" s="1" t="s">
         <v>351</v>
       </c>
-      <c t="s" s="1" r="E83">
+      <c r="E83" s="1" t="s">
         <v>352</v>
       </c>
-      <c t="s" s="1" r="F83">
+      <c r="F83" s="1" t="s">
         <v>349</v>
       </c>
-      <c t="s" s="1" r="P83">
+      <c r="P83" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="84">
-      <c s="1" r="A84">
+    <row r="84" spans="1:16">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c s="1" r="B84">
+      <c r="B84" s="1">
         <v>17</v>
       </c>
-      <c t="s" s="1" r="C84">
+      <c r="C84" s="1" t="s">
         <v>354</v>
       </c>
-      <c t="s" s="1" r="D84">
+      <c r="D84" s="1" t="s">
         <v>355</v>
       </c>
-      <c t="s" s="1" r="E84">
+      <c r="E84" s="1" t="s">
         <v>356</v>
       </c>
-      <c t="s" s="1" r="F84">
+      <c r="F84" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="85">
-      <c s="1" r="A85">
+    <row r="85" spans="1:16">
+      <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c s="1" r="B85">
+      <c r="B85" s="1">
         <v>17</v>
       </c>
-      <c t="s" s="1" r="C85">
+      <c r="C85" s="1" t="s">
         <v>357</v>
       </c>
-      <c t="s" s="1" r="D85">
+      <c r="D85" s="1" t="s">
         <v>358</v>
       </c>
-      <c t="s" s="1" r="E85">
+      <c r="E85" s="1" t="s">
         <v>359</v>
       </c>
-      <c t="s" s="1" r="F85">
+      <c r="F85" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="86">
-      <c s="1" r="A86">
+    <row r="86" spans="1:16">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c s="1" r="B86">
+      <c r="B86" s="1">
         <v>17</v>
       </c>
-      <c t="s" s="1" r="C86">
+      <c r="C86" s="1" t="s">
         <v>360</v>
       </c>
-      <c t="s" s="1" r="D86">
+      <c r="D86" s="1" t="s">
         <v>361</v>
       </c>
-      <c t="s" s="1" r="E86">
+      <c r="E86" s="1" t="s">
         <v>362</v>
       </c>
-      <c t="s" s="1" r="F86">
+      <c r="F86" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="87">
-      <c s="1" r="A87">
+    <row r="87" spans="1:16">
+      <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c s="1" r="B87">
+      <c r="B87" s="1">
         <v>18</v>
       </c>
-      <c t="s" s="1" r="C87">
+      <c r="C87" s="1" t="s">
         <v>363</v>
       </c>
-      <c t="s" s="1" r="D87">
+      <c r="D87" s="1" t="s">
         <v>364</v>
       </c>
-      <c t="s" s="1" r="E87">
+      <c r="E87" s="1" t="s">
         <v>365</v>
       </c>
-      <c t="s" s="1" r="F87">
+      <c r="F87" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="88">
-      <c s="1" r="A88">
+    <row r="88" spans="1:16">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c s="1" r="B88">
+      <c r="B88" s="1">
         <v>18</v>
       </c>
-      <c t="s" s="1" r="C88">
+      <c r="C88" s="1" t="s">
         <v>367</v>
       </c>
-      <c t="s" s="1" r="D88">
+      <c r="D88" s="1" t="s">
         <v>368</v>
       </c>
-      <c t="s" s="1" r="E88">
+      <c r="E88" s="1" t="s">
         <v>369</v>
       </c>
-      <c t="s" s="1" r="F88">
+      <c r="F88" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="89">
-      <c s="1" r="A89">
+    <row r="89" spans="1:16">
+      <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c s="1" r="B89">
+      <c r="B89" s="1">
         <v>18</v>
       </c>
-      <c t="s" s="1" r="C89">
+      <c r="C89" s="1" t="s">
         <v>370</v>
       </c>
-      <c t="s" s="1" r="D89">
+      <c r="D89" s="1" t="s">
         <v>371</v>
       </c>
-      <c t="s" s="1" r="E89">
+      <c r="E89" s="1" t="s">
         <v>372</v>
       </c>
-      <c t="s" s="1" r="F89">
+      <c r="F89" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="90">
-      <c s="1" r="A90">
+    <row r="90" spans="1:16">
+      <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c s="1" r="B90">
+      <c r="B90" s="1">
         <v>18</v>
       </c>
-      <c t="s" s="1" r="C90">
+      <c r="C90" s="1" t="s">
         <v>373</v>
       </c>
-      <c t="s" s="1" r="D90">
+      <c r="D90" s="1" t="s">
         <v>374</v>
       </c>
-      <c t="s" s="1" r="E90">
+      <c r="E90" s="1" t="s">
         <v>375</v>
       </c>
-      <c t="s" s="1" r="F90">
+      <c r="F90" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="91">
-      <c s="1" r="A91">
+    <row r="91" spans="1:16">
+      <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c s="1" r="B91">
+      <c r="B91" s="1">
         <v>18</v>
       </c>
-      <c t="s" s="1" r="C91">
+      <c r="C91" s="1" t="s">
         <v>376</v>
       </c>
-      <c t="s" s="1" r="D91">
+      <c r="D91" s="1" t="s">
         <v>377</v>
       </c>
-      <c t="s" s="1" r="E91">
+      <c r="E91" s="1" t="s">
         <v>378</v>
       </c>
-      <c t="s" s="1" r="F91">
+      <c r="F91" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="92">
-      <c s="1" r="A92">
+    <row r="92" spans="1:16">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c s="1" r="B92">
+      <c r="B92" s="1">
         <v>19</v>
       </c>
-      <c t="s" s="1" r="C92">
+      <c r="C92" s="1" t="s">
         <v>379</v>
       </c>
-      <c t="s" s="1" r="D92">
+      <c r="D92" s="1" t="s">
         <v>380</v>
       </c>
-      <c t="s" s="1" r="E92">
+      <c r="E92" s="1" t="s">
         <v>381</v>
       </c>
-      <c t="s" s="1" r="F92">
+      <c r="F92" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="93">
-      <c s="1" r="A93">
+    <row r="93" spans="1:16">
+      <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c s="1" r="B93">
+      <c r="B93" s="1">
         <v>19</v>
       </c>
-      <c t="s" s="1" r="C93">
+      <c r="C93" s="1" t="s">
         <v>383</v>
       </c>
-      <c t="s" s="1" r="D93">
+      <c r="D93" s="1" t="s">
         <v>384</v>
       </c>
-      <c t="s" s="1" r="E93">
+      <c r="E93" s="1" t="s">
         <v>385</v>
       </c>
-      <c t="s" s="1" r="F93">
+      <c r="F93" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="94">
-      <c s="1" r="A94">
+    <row r="94" spans="1:16">
+      <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c s="1" r="B94">
+      <c r="B94" s="1">
         <v>19</v>
       </c>
-      <c t="s" s="1" r="C94">
+      <c r="C94" s="1" t="s">
         <v>386</v>
       </c>
-      <c t="s" s="1" r="D94">
+      <c r="D94" s="1" t="s">
         <v>387</v>
       </c>
-      <c t="s" s="1" r="E94">
+      <c r="E94" s="1" t="s">
         <v>388</v>
       </c>
-      <c t="s" s="1" r="F94">
+      <c r="F94" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="95">
-      <c s="1" r="A95">
+    <row r="95" spans="1:16">
+      <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c s="1" r="B95">
+      <c r="B95" s="1">
         <v>19</v>
       </c>
-      <c t="s" s="1" r="C95">
+      <c r="C95" s="1" t="s">
         <v>389</v>
       </c>
-      <c t="s" s="1" r="D95">
+      <c r="D95" s="1" t="s">
         <v>390</v>
       </c>
-      <c t="s" s="1" r="E95">
+      <c r="E95" s="1" t="s">
         <v>391</v>
       </c>
-      <c t="s" s="1" r="F95">
+      <c r="F95" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="96">
-      <c s="1" r="A96">
+    <row r="96" spans="1:16">
+      <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c s="1" r="B96">
+      <c r="B96" s="1">
         <v>19</v>
       </c>
-      <c t="s" s="1" r="C96">
+      <c r="C96" s="1" t="s">
         <v>392</v>
       </c>
-      <c t="s" s="1" r="D96">
+      <c r="D96" s="1" t="s">
         <v>393</v>
       </c>
-      <c t="s" s="1" r="E96">
+      <c r="E96" s="1" t="s">
         <v>394</v>
       </c>
-      <c t="s" s="1" r="F96">
+      <c r="F96" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="97">
-      <c s="1" r="A97">
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c s="1" r="B97">
+      <c r="B97" s="1">
         <v>20</v>
       </c>
-      <c t="s" s="1" r="C97">
+      <c r="C97" s="1" t="s">
         <v>395</v>
       </c>
-      <c t="s" s="1" r="D97">
+      <c r="D97" s="1" t="s">
         <v>396</v>
       </c>
-      <c t="s" s="1" r="E97">
+      <c r="E97" s="1" t="s">
         <v>397</v>
       </c>
-      <c t="s" s="1" r="F97">
+      <c r="F97" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="98">
-      <c s="1" r="A98">
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c s="1" r="B98">
+      <c r="B98" s="1">
         <v>20</v>
       </c>
-      <c t="s" s="1" r="C98">
+      <c r="C98" s="1" t="s">
         <v>399</v>
       </c>
-      <c t="s" s="1" r="D98">
+      <c r="D98" s="1" t="s">
         <v>400</v>
       </c>
-      <c t="s" s="1" r="E98">
+      <c r="E98" s="1" t="s">
         <v>401</v>
       </c>
-      <c t="s" s="1" r="F98">
+      <c r="F98" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="99">
-      <c s="1" r="A99">
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c s="1" r="B99">
+      <c r="B99" s="1">
         <v>20</v>
       </c>
-      <c t="s" s="1" r="C99">
+      <c r="C99" s="1" t="s">
         <v>402</v>
       </c>
-      <c t="s" s="1" r="D99">
+      <c r="D99" s="1" t="s">
         <v>403</v>
       </c>
-      <c t="s" s="1" r="E99">
+      <c r="E99" s="1" t="s">
         <v>404</v>
       </c>
-      <c t="s" s="1" r="F99">
+      <c r="F99" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="100">
-      <c s="1" r="A100">
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c s="1" r="B100">
+      <c r="B100" s="1">
         <v>20</v>
       </c>
-      <c t="s" s="1" r="C100">
+      <c r="C100" s="1" t="s">
         <v>405</v>
       </c>
-      <c t="s" s="1" r="D100">
+      <c r="D100" s="1" t="s">
         <v>406</v>
       </c>
-      <c t="s" s="1" r="E100">
+      <c r="E100" s="1" t="s">
         <v>407</v>
       </c>
-      <c t="s" s="1" r="F100">
+      <c r="F100" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="101">
-      <c s="1" r="A101">
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c s="1" r="B101">
+      <c r="B101" s="1">
         <v>20</v>
       </c>
-      <c t="s" s="1" r="C101">
+      <c r="C101" s="1" t="s">
         <v>408</v>
       </c>
-      <c t="s" s="1" r="D101">
+      <c r="D101" s="1" t="s">
         <v>409</v>
       </c>
-      <c t="s" s="1" r="E101">
+      <c r="E101" s="1" t="s">
         <v>410</v>
       </c>
-      <c t="s" s="1" r="F101">
+      <c r="F101" s="1" t="s">
         <v>398</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/data/comments.xlsx
+++ b/data/comments.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="912"/>
@@ -5435,29 +5435,6 @@
     <t>Connais-tu un dieu, une star qui donnerait sa vie pour toi ?</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>Qui a cru à la nouvelle que nous avons apprise ? Qui a reconnu la puissance du SEIGNEUR ?
-2 Devant le SEIGNEUR, le serviteur a grandi comme une petite plante, comme une racine qui sort d'une terre sèche. Il n'avait ni la beauté ni le prestige qui attirent les regards. Son apparence n'avait rien pour nous plaire.
-3 Tout le monde le méprisait et l'évitait. C'était un homme qui souffrait, habitué à la douleur. Il était comme quelqu'un que personne ne veut regarder. Nous le méprisions, nous le comptions pour rien.
-4 Pourtant, ce sont nos maladies qu'il supportait, c'est de notre souffrance qu'il s'était chargé. Et nous, nous pensions : c'est Dieu qui le punit de cette façon, c'est Dieu qui le frappe et l'abaisse.
-5 Mais il était blessé à cause de nos fautes, il était écrasé à cause de nos péchés. La punition qui nous donne la paix est tombée sur lui. Et c'est par ses blessures que nous sommes guéris.
-6 Nous étions tous comme des moutons perdus, chacun suivait son propre chemin. Et le SEIGNEUR a fait retomber sur lui nos fautes à nous tous.
-7 On l'a fait souffrir, mais lui, il a accepté cela, il a gardé le silence. Comme un agneau qu'on mène à l'abattoir, comme un mouton qui ne crie pas quand on lui coupe sa laine, il a gardé le silence.
-8 On l'a arrêté, jugé, puis supprimé. Mais qui a fait attention à ce qui lui arrivait ? Oui, on l'a enlevé du monde des vivants. Il a été frappé à mort à cause des fautes de son peuple.
-9 Il a été enterré avec les gens mauvais. Sa tombe est avec les riches. Pourtant, il n'avait rien fait de mal et il n'avait jamais trompé personne.
-10 Mais le SEIGNEUR donne raison à son serviteur écrasé. Et il a rétabli celui qui avait offert sa vie à la place des autres. Son serviteur aura des enfants et il vivra encore longtemps. Par lui, le SEIGNEUR réalisera son projet.
-11 À cause des souffrances qu'il a supportées, il verra la lumière, il sera rempli de bonheur. Mon serviteur, le vrai juste, rendra justes un grand nombre de gens, parce qu'il s'est chargé de leurs péchés.
-12 C'est pourquoi je le mets au rang des plus grands. Il partagera les richesses des ennemis avec les puissants.En effet, il a accepté librement de mourir et d'être mis avec les bandits. Oui, il a porté les péchés de beaucoup de gens et il est intervenu pour les coupables.</t>
-    </r>
-  </si>
-  <si>
     <t>Le prophète Esaïe annonce des siècles à l’avance la venue et le sacrifice de Jésus. La naissance, la vie et la mort de personne d’autre n’ont été annoncées aussi précisément que pour Jésus. Encore aujourd’hui, c’est un truc de fou ! 
 Ce texte nous parle de l’amour incroyable de Dieu pour chaque personne, donc pour toi. Nous rejetons si facilement Dieu, mais malgré cela, il nous prouve son amour en envoyant sur terre son Fils Jésus. Il a choisi de se sacrifier pour toi. Cet acte de souffrance nous permet d’être réconciliés avec Dieu, si nous sommes d’accord que Jésus devienne le « boss » de notre vie. 
 En venant en tant qu’Homme sur cette terre, il nous montre qu’il a vécu ce que nous vivons. Jésus te comprend et désire te rejoindre.</t>
@@ -6143,10 +6120,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Dans un livre de la Bible, l'épître aux Romains, il est dit que nous sommes tous pêcheurs ! (Romains 3,23). On peut traduire le mot péché dans un langage plus courant par  « manquer la cible ». Si la cible est une vie avec Dieu et que nous décidons de la vivre sans lui, alors nous ratons cette cible en beauté ! 
-Ici, Jésus nous invite à nous repentir uu travers d'une parabole. Le philosophe Pascal a dit : " Il y a dans le coeur de l'homme, un vide en forme de Dieu". Cette repantance signifie donc simplement de reconnaître que nous avons manqué la cible et que nous avons besoin de lui dans notre vie. Il n y à rien qui puisse plus faire la joie de Dieu que notre repentance.  </t>
-  </si>
-  <si>
     <t>http://www.youtube.com/watch?v=tyWZeOlaRo4</t>
   </si>
   <si>
@@ -6187,11 +6160,6 @@
     </r>
   </si>
   <si>
-    <t>Imaginez un instant cette scène incroyable. Des milliers de personnes, enfants, jeunes, moins jeunes, tous réunis pour écouter Jésus-Christ. La journée défie et les gens commencent à avoir un petit creux. La solution McDrive n’étant pas d’actualité, les gens parlent poissons grillés. Jésus, ayant 5 pains et 2 poissons fait quelque chose de simple, discret mais puissant : « Il leva les yeux au ciel » !
-Pensait-il qu’une pluie de frites pouvait faire le bonheur de tout le monde ? Ou peut-être regardait-il son Père en pensant : « Papa, rien ne t’es impossible. Merci d’être Celui qui pourvoit, qui donne en abondance du pain, de l’amour, de la patience. Tu connais parfaitement chacun de tes enfants, montre-leur qu’en toi et la Vie, et la Vie en abondance » 
-Amen,… et bon appétit !</t>
-  </si>
-  <si>
     <t>Si un jour tu es dans le besoin, lève les yeux au ciel. Je sais que notre Papa te verra, il t’entendra et il pourvoira selon ce qu’il a décidé. 
 Ce sera peut-être du poisson grillé au lieu d’un McDo ;-)</t>
   </si>
@@ -6304,28 +6272,10 @@
     </r>
   </si>
   <si>
-    <t>Même que les vagues et le vent étaient forts et menaçants, Pierre ne voyait que Jésus qui marchait sur l’eau. Il ne regarda pas aux circonstances, et il réagit par la foi en allant vers Jésus à pied, sur une mer tempétueuse !
-Ce n’est que lorsqu’il quitte Jésus des yeux, que lorsqu’il regarde à lui-même, et prend conscience de ce qu’il est en train de faire que Pierre commence à couler.
-Il est intéressant de voir que quand Pierre est en difficulté, il se tourne vers la seule personne qui peut l’aider, la seule personne sur qui il pourra toujours compter : Jésus.
-Rappelons-nous que Jésus est toujours là, à nos côtés, prêt à tendre sa main pour nous aider. Il n’a pas refusé de secourir Pierre, il fera la même chose pour toi. 
-Pour ça, il faut que tu lui demandes son aide !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N’oublions pas que quelles que soient les circonstances, regardons à Jésus et ne le quittons pas des yeux ! </t>
-  </si>
-  <si>
     <t>Un homme voit!</t>
   </si>
   <si>
     <t>Serais-je aveugle, moi aussi ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jésus a le désir que chacun d’entre nous puissions voir et connaître qui il y est. Jésus s’est arrêté vers cet aveugle pour poser ses  mains sur ses yeux et le guérir. 
-Jésus veut aussi s’arrêter dans nos vies, et veut que nous le laissions poser Ses mains sur nous. 
-Nos deux yeux sont certainement fonctionnels. Mais quand est-il des yeux de notre cœur ? Peut-on voir l’œuvre de Jésus-Christ dans nos vies ? Pouvons-nous voir sa présence au quotidien ?
-Jésus n’est pas là pour nous faire des reproches. Au contraire, il affirme que cette personne aveugle va pouvoir être l’occasion d’une manifestation de la puissance de Dieu. Jésus désir se révéler dans nos vies !
-Suis-je prêts à me laisser toucher par Jésus pour qu’il ouvre les yeux de mon cœur ?
-</t>
   </si>
   <si>
     <t>http://www.youtube.com/watch?v=wutmEjdbedE</t>
@@ -6509,11 +6459,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Cette histoire nous démontre que Jésus est à la fois complétement homme et à la fois complétement Dieu. En effet, Jésus aimait, pleurait et il était ému. En même temps, Jésus est celui qui a tout pouvoir et toute autorité, même sur la mort (et surtout sur la mort !). 
-Dans ce passage, Jésus pose une question « ne t’ai-je pas dit que si tu crois, tu verras la gloire de Dieu ? ». En d’autres termes, « ne crois tu pas que si tu me fais confiance, Dieu agira ?!».  
-Jésus affirme ensuite que Dieu nous écoute toujours. Il nous semble parfois qu’il tarde à répondre et à intervenir. Mais Jésus connaît notre situation, lui aussi, sait ce qu’est la souffrance, mais il est celui qui fait sortir les morts de la tombe. Il est celui qui fait des miracles. Jésus à ressusciter Lazare, Jésus a fait de nombreux miracles dans ma vie, il veut également en faire dans la tienne.  </t>
-  </si>
-  <si>
     <t>Totalement libre !</t>
   </si>
   <si>
@@ -6595,12 +6540,6 @@
     </r>
   </si>
   <si>
-    <t>Dans ce passage, un homme nous est présenté comme tourmenté et animé d’esprits impurs. Il est sous l’emprise de ceux-ci et n’est plus maître de lui-même. Il est décrit comme blessé et plein de douleurs.
-Lorsque Jésus arrive vers lui, les esprits du mal s’agitent et se soumettent à lui, tandis que Jésus reste calme.
-Jésus par son autorité, va complétement libéré l’homme par une seule phrase. Par sa souveraineté, il montre au monde qu’il a tout le pouvoir, que ni les hommes ni les démons ne peuvent s’opposer à lui, mais qu’au contraire ils lui sont entièrement soumis. Jésus veut rendre l’homme libre afin que plus rien de le retienne. 
-Cet homme a été témoin de la souveraineté, de l’autorité et du pouvoir libérateur de Jésus qui agit avec amour.</t>
-  </si>
-  <si>
     <t>Serge Enns</t>
   </si>
   <si>
@@ -6635,10 +6574,6 @@
   </si>
   <si>
     <t>Sais-tu que tout est accompli?</t>
-  </si>
-  <si>
-    <t>A sa mort, Jésus dit «Tout est accompli»... En disant ces mots, Jésus affirme non seulement que sa mission personnelle sur terre est accomplie, mais également qu’Il a tout accompli pour toi! Jésus s’est séparé de Dieu, afin que toi tu sois proche de Lui; 
-Jésus a été méprisé et rejeté, afin que toi tu sois accepté; Jésus a souffert toutes maladies, afin que toi tu sois guéri; Jésus a pris tes fautes, afin que toi tu sois pardonné; Jésus a porté ton péché, afin que toi tu sois justifié; Jésus est mort en tant qu’être humain, afin que toi tu vives! Tu n’as plus besoin de mériter quoi que ce soit... Jésus a tout accompli pour toi!</t>
   </si>
   <si>
     <r>
@@ -6744,11 +6679,6 @@
     <t>Qui cherches-tu?</t>
   </si>
   <si>
-    <t>Une chose étonnante dans cette histoire est la réaction de Marie quand elle voit les anges... Elle ne semble pas impressionnée devant ces êtres divins. Pourquoi? Parce que Marie cherchait quelqu’un de précis et non quelque chose! Les anges ne lui suffisaient pas, elle voulait plus! Elle cherchait, Jésus, son Seigneur. 
-Et toi, que cherches-tu? Une chose qui peut t’apporter de temps en temps du bonheur dans la vie? Qui cherches-tu? Une personne qui peut répondre à tes besoins d’amour? 
-Tout cela peut t’apporter une certaine satisfaction, mais généralement temporaire et, parfois, peut même te blesser. Si tu cherches un amour qui ne s’éteint pas, un bonheur qui dure, une relation qui te construit... Le mieux est de chercher Jésus, qui est le seul à pouvoir te combler parfaitement!</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">11 </t>
     </r>
@@ -6801,10 +6731,6 @@
     <t>As-tu ton propre avis sur Jésus ?</t>
   </si>
   <si>
-    <t>Sous la domination des romains, les Juifs ne pouvaient pas mettre à mort quelqu’un. Ils demandèrent donc à Pilate, le gouverneur romain, de condamner Jésus. Mais les seuls éléments que Pilate connaissait sur Jésus, étaient ceux qu’on lui avait rapportés... 
-Et toi, de quelle manière connais-tu Jésus? Es-tu comme Pilate, qui n’a aucun avis personnel et qui suit ce qu’on lui dit? Tes parents, ta famille, tes amis ou tes responsables d’église t’ont parlé de Jésus, mais maintenant, c’est à toi de prendre la décision de le connaître personnellement et de choisir qui Il est pour toi, afin de pouvoir répondre à Dieu « Oui Seigneur, je dis de moi-même que tu es Celui qui me sauve, Celui qui me libère, Celui qui me guérit, Celui qui pourvoit à mes besoins et Celui qui guide ma vie!»</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">28 </t>
     </r>
@@ -6917,11 +6843,6 @@
     <t>A quoi cela sert-il de prendre le pain et le vin ?</t>
   </si>
   <si>
-    <t xml:space="preserve">Les Juifs célèbrent une fête, appelée la Pâque, pour se rappeler de ce que Dieu a fait... En effet, longtemps auparavant, le peuple d’Israël était esclave en Egypte et appela Dieu à l’aide. Dieu demanda alors à chaque famille de prendre un agneau et de répandre son sang sur les poteaux de la porte de leur maison. Tous ceux dont la maison portait la marque du sang de l’agneau, furent sauvés et fuirent hors d’Egypte, libres (Exode 12). 
-Le dernier souper que Jésus partage avec ses disciples est justement celui de la Pâque, mais Il y apporte une nouvelle dimension... Cette fois-ci, c’est le sang de Jésus qui est répandu sur les poteaux d’une croix, afin que chacun de nous sois sauvé et rendu libre! La Cène est là, comme un souvenir de ce que Jésus a fait pour toi!
-</t>
-  </si>
-  <si>
     <t>Esprit enivrant</t>
   </si>
   <si>
@@ -6933,10 +6854,6 @@
 12 Ils sont tous très étonnés et ne savent pas quoi penser. Ils se disent entre eux : « Qu'est-ce que cela veut dire ? » 13 Mais d'autres se moquent des croyants en disant : « Ils sont complètement ivres ! » </t>
   </si>
   <si>
-    <t xml:space="preserve">Avant de remonter au Ciel,  Jésus a fait une promesse aux siens. 50 jours après la fête juive passah (notre Pâque), cette promesse s’est accomplie : Jésus envoie son représentant, le Saint Esprit, afin que ses disciples ne soient pas seuls. Pour les Juifs, le vent et les langues de feu sont un signe claire d’une manifestation divine. Ainsi ils expérimentent directement ce qu’ils connaissent d’anciens récits : Dieu se montre. 
-Avec la venue du Saint Esprit, Dieu confirme que la manifestation de Jésus n’est pas terminée. La foi en Jésus est rendue vivante par le Saint Esprit. Il pourvoit à ce que plus de personnes et de nations saisissent la foi (v. 7-10).Mais tous ne reconnaissent pas cette manifestation comme une œuvre de Dieu. Certains doutent (v. 13), d’autres s’étonnent (v.12). </t>
-  </si>
-  <si>
     <t>Katharina Haubold</t>
   </si>
   <si>
@@ -6948,10 +6865,6 @@
   <si>
     <t>1 Un jour, Pierre et Jean vont au temple pour la prière de trois heures de l'après-midi. 2 Près de la porte du temple appelée « la Belle Porte », il y a un homme infirme depuis sa naissance. Chaque jour, on l'apporte et on le dépose là. Il demande de l'argent à ceux qui entrent dans le temple. 3 L'infirme voit Pierre et Jean qui vont entrer, il leur demande de l'argent. 4 Pierre et Jean tournent les yeux vers lui et Pierre lui dit : « Regarde-nous ! » 5 L'homme les regarde avec attention. Il pense : « Ils vont me donner quelque chose. » 6 Pierre lui dit : « Je n'ai pas d'argent, je n'ai pas d'or, mais ce que j'ai, je te le donne : Au nom de Jésus-Christ de Nazareth, lève-toi et marche ! » 
 7 Pierre prend l'homme par la main droite pour l'aider à se lever. Aussitôt les pieds et les chevilles de l'infirme deviennent solides. 8 Il se lève d'un bond et se met à marcher. Il entre avec Pierre et Jean dans le temple, il marche, il saute, il chante la louange de Dieu. 9 Toute la foule le voit marcher et chanter la louange de Dieu. 10 Les gens le reconnaissent : c'est lui qui était assis à la Belle Porte du temple pour mendier. Alors ils sont effrayés et très étonnés à cause de ce qui est arrivé à l'infirme.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nous sommes maintenant dans la période qui succède à Jésus. Le Saint-Esprit est venu sur terre comme son représentant, qui accompagne ses disciples. Et il se montre. Beaucoup d’hommes et femmes reconnaissent par le Saint Esprit qui est Jésus Christ et viennent à la foi. Une communauté de chrétiens s’établit à Jérusalem – la première de l’histoire. Pierre et Jean, deux apôtres que Jésus avait appelé à son service durant son ministère terrestre, sont pleins de zèle pour amener des personnes à croire en Jésus. 
-Ils savent qu’une vie avec Jésus ne rendra certainement pas riche, mais rendra possible des choses que l’on ne peut pas acheter avec de l’argent. La guérison d’un paralytique ne sembles pas spécialement spectaculaire. Mais elle produit un grand effet. Les gens le comprennent : ce qui se passe ici est humainement impossible. De même, l’homme guéri reconnaît que ni Pierre ni Jean n’opéré sa guérison, mais Dieu (v. 8-9). </t>
   </si>
   <si>
     <r>
@@ -7018,10 +6931,6 @@
   </si>
   <si>
     <t>Ce que peut coûter la foi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Etienne va à contre-courant et démontre qu’il serait plus aisé de nager avec la majorité. Il se rend impopulaire. Et cela, non seulement du fait qu’il a une opinion différente, mais aussi, parce que les autres ne peuvent pas lui résister (8-10). Mais ils ne peuvent pas admettre qu’ils sont en tort. Il ne leur reste donc rien d’autre que d’user de méthodes sournoises (11-13). Les anciens, les docteurs de la loi et le sanhédrin étaient le tribunal et la police de l’époque. 
-Et le motif pour lequel Etienne était accusé (13-14) constituait un crime passible de la peine de mort. Les chrétiens ont été constamment blâmés. Jusqu’à ce jour, leurs opinions suscitent de la moquerie, et dans certains pays (p. ex. en Corée du Nord), cela peut aller jusqu’à la persécution ouverte ou la mort. De même, la foi d’Etienne va lui coûter cher (Actes 7, 54-59). </t>
   </si>
   <si>
     <t>La foi pour tous !</t>
@@ -7092,11 +7001,6 @@
     </r>
   </si>
   <si>
-    <t>Philippe est entièrement au service de Dieu. Partout où il prêche, des hommes embrassent la foi. Puis Dieu lui confie une mission très concrète…
-Un éthiopien a pris un écrit précieux pour son déplacement à Jérusalem (les rouleaux de textes étaient très chers). Malheureusement il n’arrive pas à en comprendre le sens, car il est limité. Philippe peut alors lui expliquer le passage d’Esaïe. L’Ethiopien apprend qui est Jésus (l’ « agneau ») et ce qu’il a fait. Pour cet eunuque, ce furent des nouvelles merveilleuses, car de par son statut, la foi juive ne lui permettait pas de contact direct avec Dieu (il fallait être circoncis, ce qui n’était plus possible dans son cas). 
-Avec la venue de Jésus, tout change ! Par lui la foi en Dieu est offerte à tous les hommes, sans distinction, quelles qu’elles soient. Ces nouvelles sont si bonnes qu’il demande de suite à être baptisé.</t>
-  </si>
-  <si>
     <t>Jésus ouvre les frontières</t>
   </si>
   <si>
@@ -7105,10 +7009,6 @@
   <si>
     <t>23 Le jour suivant, Pierre part tout de suite avec les trois hommes. Quelques croyants de la ville de Joppé l'accompagnent.
 24 Le lendemain, il arrive à Césarée. Corneille l'attend déjà, il a rassemblé les gens de sa famille et ses meilleurs amis. 25 Au moment où Pierre arrive, Corneille vient à sa rencontre. Il se jette à ses pieds pour le saluer avec grand respect. 26 Mais Pierre le relève en lui disant : « Lève-toi ! Je ne suis qu'un homme, moi aussi ! » 27 Et tout en parlant avec Corneille, il entre dans la maison. Là, Pierre voit beaucoup de gens rassemblés. 28 Il leur dit : « Vous le savez, un Juif n'a pas le droit d'être l'ami d'un étranger ni d'entrer dans sa maison. Mais Dieu vient de me montrer une chose : je ne dois pas penser qu'une personne est impure et qu'il faut l'éviter. 29 Je suis venu sans hésiter quand vous m'avez appelé. Je voudrais donc savoir pourquoi vous m'avez fait venir. » 30 Corneille répond : « Il y a trois jours, à cette heure-ci, à trois heures de l'après-midi, je priais dans ma maison. Tout à coup, un homme aux vêtements brillants s'est trouvé devant moi 31 et il m'a dit : “Corneille, Dieu a entendu ta prière. Il n'a pas oublié les dons que tu fais aux pauvres. 32 Envoie des gens à Joppé, pour faire venir Simon qu'on appelle aussi Pierre. Il habite au bord de la mer, dans la maison d'un autre Simon, un artisan qui travaille le cuir.” 33 J'ai immédiatement envoyé des gens chez toi, et tu as bien voulu venir. Maintenant, nous sommes tous ici devant Dieu, nous sommes prêts à écouter tout ce que le Seigneur t'a commandé de nous dire. »</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pour les disciples de Jésus, quelle surprise de réaliser que pour Dieu il n’y a pas de différence entre Juifs et non-Juifs. Autrefois, il était clair que seuls les Juifs pouvaient venir à Dieu. Et désormais cela change. Jésus a ouvert toutes les barrières qui séparent les hommes entre eux et d’avec Dieu. Pierre a compris cela, et peut donc parler de Dieu au romain Corneille. Autrefois, cela paraissait impossible. 
-De tous temps, des hommes en ont exclu d’autres pour des motifs de couleur de peau, de races ou de sexe. Pierre réalise que ce n’est pas la pensée de Dieu. Dans l’Ancien Testament, Dieu révèle qui il est par le moyen du peuple d’Israël. Depuis la venue de Jésus, tous les hommes peuvent Le connaître.   </t>
   </si>
   <si>
     <t>Annette Lapp</t>
@@ -7139,12 +7039,6 @@
 3 Saul est encore sur la route et il approche de Damas. Tout à coup, une lumière venue du ciel brille autour de lui. 4 Il tombe par terre et il entend une voix qui lui dit : « Saul, Saul, pourquoi est-ce que tu me fais souffrir ? » 5 Il demande : « Seigneur, qui es-tu ? » La voix répond : « Je suis Jésus, c'est moi que tu fais souffrir. 6 Mais relève-toi et entre dans la ville, là, on te dira ce que tu dois faire. » 
 7 Les gens qui voyagent avec Saul se sont arrêtés. Ils n'osent pas dire un mot. Ils entendent la voix, mais ils ne voient personne. 8 Saul se relève, il a les yeux ouverts, mais il est aveugle. On le prend par la main pour le conduire à Damas. 9 Et pendant trois jours, il reste aveugle, il ne mange rien et il ne boit rien. 
 10 À Damas, il y a un disciple appelé Ananias. Le Seigneur se montre à lui et lui dit : « Ananias ! » Ananias répond : « Oui, Seigneur, me voici ! » 11 Le Seigneur lui dit : « Va tout de suite dans la rue Droite, entre dans la maison de Judas, et demande un certain Saul de Tarse. Il est en train de prier, 12 et voici ce que je lui ai montré : un homme appelé Ananias est entré et il a posé les mains sur sa tête pour qu'il retrouve la vue. » </t>
-  </si>
-  <si>
-    <t>D'un seul coup, une vie entière est bouleversée: Juif très zélé, Paul veut exterminer les chrétiens (les disciples appelés par Jésus). A son avis, ces gens constituent une secte qui offense Dieu. N'affirment-ils pas que ce Jésus qui a été exécuté, est le Sauveur du monde?
-Et voilà que Dieu lui-même remet en question toute la vie de Saul! Il veut transformer cet homme très influent, afin que lui-même dise à d'autres que Jésus est le Sauveur du monde.
-Un jour, Saul deviendra très important pour le christianisme naissant. Mais d'abord, il va être arrêté et resté aveugle quelques temps. Puis, dans une vision, il voit un chrétien qui vient l'aider, ce qui aurait représenté un vrai cauchemar pour lui, il y a peu de temps encore ! 
-Mais maintenant, c'est ce qui peut lui arriver de mieux. Juste incroyable ce changement, non ?</t>
   </si>
   <si>
     <t>Transmettre la bonne nouvelle</t>
@@ -7217,12 +7111,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Notre homme ne s'appelle plus Saul, mais Paul. A l'inverse ce qu’il faisait avant, il met maintenant le paquet pour annoncer la Bonne Nouvelle de Dieu: Dieu souhaite offrir à chacun une vie renouvelée et, pour l'avenir, un monde nouveau. C'est pourquoi, avec son collègue Barnabas, il est en route comme apôtre, comme envoyé de Dieu, dans la Turquie actuelle, à Lystre.
-Les gens qu'ils rencontrent dans cette ville croient aux dieux grecs Zeus, Hermès etc. Ils pensent donc que ces dieux sont venus sur la terre dans la personne de Paul et Barnabas. Bizarre, mais ils sont sûrs de leur fait, car ces gens ne connaissent rien d'autre. Après s’être fait manipulé par quelques juifs, ils finissent par tabasser Paul, si bien qu’on pense qu’il est mort…
-Malgré la violence subie, Paul ne renonce pas, il tient bon ! Il passe à la ville voisine et convainc beaucoup de personnes de devenir disciples de Christ.
-</t>
-  </si>
-  <si>
     <t>Compte-rendu de voyage</t>
   </si>
   <si>
@@ -7244,17 +7132,6 @@
     <t>As-tu déjà reçu des choses que tu n'as en fait pas méritées?</t>
   </si>
   <si>
-    <t xml:space="preserve">Paul et Barnabas arrivent à Jérusalem, là où vivent les premiers chrétiens. Ils rencontrent les disciples de Jésus qui sont les dirigeants de cette communauté.
-Avant de connaître Jésus, tous ces chrétiens étaient Juifs. Donc, tous ont été circoncis quelques jours après leur naissance, et tous devaient s'en tenir aux lois juives. La circoncision était le signe voulu par Dieu pour déterminer qui était membre de son peuple (Voir Genèse 17). Les Pharisiens, (des Juifs particulièrement zélés), exigent donc maintenant que tous les nouveaux chrétiens non circoncis rattrapent ce « retard »: en effet, Jésus n'était-il pas un juif circoncis? N'a-t-il pas obéi à la Loi?
-Pierre, un des premiers disciples de Jésus leur rétorque que personne ne doit être parfait sur le plan religieux pour être accepté de Dieu. L’appartenance au peuple de Dieu ne se fait plus de la même manière !
-Être accepté de Dieu est simplement un cadeau de sa part que nous pouvons recevoir par la foi. </t>
-  </si>
-  <si>
-    <t>Quelles règles religieuses agacent quelquefois les chrétiens aujourd'hui?
-Quelles règles Dieu trouve-t-il bonnes? Lesquelles non?
-Faut-il d'ailleurs respecter certaines règles pour faire partie de la communauté chrétienne?</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">6 </t>
     </r>
@@ -7336,13 +7213,6 @@
   </si>
   <si>
     <t>Voyager et enseigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Même des chrétiens modèles, des exemples peuvent se disputer ! Eh oui, Paul et Barnabas se séparent pour un temps. Du coup, Paul prend la route avec le jeune Timothée.
-Ces deux hommes s'entendent super-bien avec Dieu. Le Saint-Esprit leur dit où ils doivent aller et où ils doivent éviter de se rendre, quelquefois même par des rêves.
-Lydie, une femme d'affaires qu'ils rencontrent n'est pas juive de naissance, mais croit au même Dieu. Et voilà qu'elle a l'occasion géniale d'entendre que Dieu veut la connaître personnellement et vivre avec elle. Elle répond positivement et se laisse baptiser, elle, toute sa famille et les employés de sa maison. Ouah!
-Cette rencontre est étonnante.  En effet, le fait que Paul et Timothée s'entretiennent avec des femmes au bord du fleuve n’était pas une pratique courante à l'époque! 
-En tant que disciples de Jésus nous sommes appelés à aller à la rencontre de tous, quitte à transgresser parfois certaines normes sociales. </t>
   </si>
   <si>
     <t>Face au danger</t>
@@ -7401,12 +7271,6 @@
     </r>
   </si>
   <si>
-    <t>Beaucoup de choses se sont passées. Entre temps, Paul a été accusé par des adversaires juifs et a été jeté dans une prison romaine, à Jérusalem. Comme cette décision est trop injuste, Paul fait appel devant le tribunal impérial, qui est situé dans la capitale de l’Empire, à Rome. 
-De Jérusalem à Rome, la traversée de la Méditerranée est longue et peut s'avérer dangereuse. Durant ce voyage, le bateau traverse une violente tempête d'hiver. Pourtant, Paul avait prévenu et conseillé d'attendre le printemps dans un port sûr.
-Mais Dieu est présent sur les routes et veille. De nuit, il envoie vers Paul un ange qui lui explique que Dieu l'amènera bien à Rome. Là-bas aussi, il devra affirmer que Jésus est le Sauveur du monde. 
-Finalement, tous les passagers du bateau ont la vie sauve et découvrent combien le Dieu de Paul est puissant.</t>
-  </si>
-  <si>
     <t>Dieu fait tout pour notre bien</t>
   </si>
   <si>
@@ -7488,17 +7352,7 @@
     <t>As-tu déjà cueilli des pommes toi-même ? Sur un arbre donc, pas au supermarché ;-)</t>
   </si>
   <si>
-    <t>Comment te décrirais-tu? Comment te décrivent tes amis?
-Parmi les qualités présentées par le texte (versets 22-23) laquelle est manifeste chez toi? Laquelle l'est moins?
-Quels seraient les avantages si tu n'enviais personne?</t>
-  </si>
-  <si>
     <t>L'Esprit de Dieu</t>
-  </si>
-  <si>
-    <t>Chaque pommier naît d'un pépin. Pourtant, même dans d'excellentes conditions, certains pépins donneront de magnifiques arbres et des fruits succulents, alors que d'autres donneront des fruits vraiment pas terribles.
-Solution: La greffe. Sur un tronc de pommier moyen, on greffe des branches d'un pommier de première classe. Il en résulte, avec le temps, des fruits excellents.
-Il en est de même lorsque tu vis avec Dieu. Tu laisses tomber ton égoïsme et tu ne suis plus toutes les pulsions que tu ressens. Pour prendre une image, tu cloues ton égoïsme à la croix où Jésus est mort. En échange, le Saint-Esprit, troisième personne de Dieu, vient en toi. Tu es transformé en un bon arbre qui porte de bons fruits. Autrement dit: les autres apprécient qui tu es et ce que tu fais.</t>
   </si>
   <si>
     <r>
@@ -7566,14 +7420,6 @@
   </si>
   <si>
     <t>Les armes de Dieu</t>
-  </si>
-  <si>
-    <t>Si Dieu est ton Seigneur, en d'autres termes, celui qui dirige ta vie, tu es bien protégé. Entre le ciel et la terre en effet, le combat est bien plus violent que ce que nous voyons et percevons. Et ce combat nous affecte aussi, mais finalement peu importe... Ce qui compte c’est d’être bien équipé, car dans ce cas-là on est vainqueur à 100%.
-Lorsqu’il écrit cette lettre, Paul a à l'esprit l’image d’un soldat romain avec son équipement pour le combat.
-1) La ceinture représente le signe de notre engagement au service de la vérité, à la suite du Christ qui l’a incarnée. 
-2) Les bottes indiquent que je suis prêt à partir. 
-3) L’épée fait allusion aux promesses de Dieu et à toutes les choses qu’il dit de toi, les bonnes et parfois aussi les moins bonnes. Dieu nous parle de plusieurs façons différentes : par la Bible, par d'autres personnes, ou encore directement à tes pensées.
-Les trois autres éléments  mettent en évidence le fait que Dieu offre sa protection au croyant.</t>
   </si>
   <si>
     <t>Quel est le cadeau qui t'a le plus réjoui au cours de l'année dernière? Qui te l'a offert?</t>
@@ -7596,10 +7442,6 @@
     </r>
   </si>
   <si>
-    <t>Paul en est pleinement convaincu: Tous ceux qui vivent avec Dieu ont toutes les raisons de se réjouir. Car avec Dieu, ils se trouvent dans l'équipe gagnante. Ils peuvent développer une personnalité estimée, et sont bien équipés pour les combats de la vie. De plus, ils peuvent se réjouir car il est hors de question de causer des tracas à d'autres. Ceux qui vivent chaque jour avec Dieu peuvent discuter de tout avec Lui. 
-Et Dieu n'est pas n'importe qui, mais le Seigneur des possibilités illimitées. Si tu en es pleinement conscient, tu as vraiment "la paix" en toi. Tu es en sécurité parce que Jésus est tout proche de toi. Tous les autres chrétiens sont tes frères et sœurs. Tu peux penser plus positivement et faire mieux que la masse de tes collègues qui ne s'occupent que d'eux-mêmes.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">21 </t>
     </r>
@@ -7649,10 +7491,6 @@
   </si>
   <si>
     <t>Ne renonce pas!</t>
-  </si>
-  <si>
-    <t>Être réconcilié avec Dieu! Voilà la Bonne Nouvelle que transmet Paul dans cette lettre. Paul explique qu'à Colosses (aujourd'hui en Turquie), des personnes ont été transformées: leur style de vie sans Dieu, excentrique, s'est transformé en une vie qui plaît à Dieu. Une vie sainte, imparfaite certes, mais pure et sans faute aux yeux de Dieu. parce que ces gens sont devenus des amis de Dieu. 
-Ce qui s'est produit au premier siècle après Jésus-Christ s'est produit ensuite à beaucoup d'autres endroits dans le monde, et cela se passe encore aujourd'hui, parce que Jésus est comme un pont par-dessus le fossé qui séparait Dieu et l'homme. Celui qui traverse ce pont peut se réjouir d'une vie avec Dieu, et plus tard, d'un avenir génial dans son nouveau monde.</t>
   </si>
   <si>
     <t>Est-ce que tu connais Hövding?</t>
@@ -8797,10 +8635,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-Cherche à connaître Jésus plus que tout autre chose!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 Demande au Saint-Esprit de te donner la force de relever tes défis!</t>
   </si>
   <si>
@@ -8823,11 +8657,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-Dieu aime tous les hommes autant, quelle que soit leur provenance. Crois-tu cela ?
-Oserais-tu parler de Dieu à des personnes d’autres religions ? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 Passe en revue avec Dieu les choses qui te passionnent et soumets-les à Dieu. Qu’est-ce qu’Il en pense ? Où veut-Il te mener ? A quel point est-Il convaincu par tes passions ? </t>
   </si>
   <si>
@@ -8837,17 +8666,8 @@
   </si>
   <si>
     <t xml:space="preserve">
-Y a-t-il des gens avec qui tu n'as ou ne souhaites avoir aucun contact? Pourquoi?
-Quelles sont les choses que tu as en commun avec ces personnes?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 As-tu déjà été en grand danger?
 Quelle a été la part de Dieu dans ces circonstances?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Es-tu prêt à faire partie de l'équipe? Réfléchis bien. E100 t'apprend à mieux connaître Jésus.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -8873,11 +8693,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-Comment te sens-tu, quand tu entends que tu appartiens à Dieu ? 
-Qu'est-ce qui pourrait t’aider à devenir plus assuré dans ta croyance à Dieu ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 Si tu es vraiment sérieux/sérieuse par rapport à cette question de l’amour, comment est-ce que ton comportement devrait changer ?</t>
   </si>
   <si>
@@ -8913,14 +8728,6 @@
 Le péché n’est pas une petite gaffe, mais un problème de taille. Ainsi, Dieu décide de recommencer avec un seul homme fidèle, Noé et toute sa famille. Dieu aurait pu dire : j’arrête tout. Et bien, non! Il veut que l’homme vive et soit sauvé, malgré toutes ses fautes, malgré son péché. </t>
   </si>
   <si>
-    <t xml:space="preserve">Beaucoup ont perdu la vie dans le Déluge. Cela a été un événement terrible, bien loin des histoires pour enfants que l’on nous raconte parfois. Du coup, cette promesse qu’il n’y aurait plus jamais de destruction de ce genre sonne presque un peu trop bien pour être vraie, non ?
-Dieu aurait-il eu des remords ? Après un premier sentiment de vengeance, Dieu serait-il parvenu à la raison ? Se dit-il que même si l’homme ne s’améliorera pas énormément, il n’est pas si mauvais pour autant ? Bonnes questions ! 
-Dieu savait dès le début ce qui allait arriver. Sa manière sévère d’intervenir nous montre que le péché a des conséquences dramatiques et n’est pas une réalité à prendre à la légère. On l’oublie peut-être un peu parfois. 
-Mais avant tout, Dieu ne veut pas en rester là. Il a un plan de salut pour les hommes qui va aboutir dans une alliance encore plus forte que l’arc-en-ciel,avec  la venue de son Fils parmi nous. 
-Pour en savoir plus sur ce plan tu peux lire comment Paul le présente dans une de ses lettres (Colossiens 1,15-20).
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">C'est le moment des présentations: Dieu veut montrer aux êtres humains qui il est, quel est son caractère. Il veut leur communiquer que c'est Lui seul qui est vraiment Dieu. Il commence donc avec Abram, un homme de Mésopotamie. Dans cette région et à cette époque, il était tout à fait habituel d'adorer un grand nombre de divinités. Abram vivait dans cette culture, mais au moment où Dieu l'appelle, il décide d'en sortir! Je ne sais pas si on se rend compte de ce que ça veut dire?. Ensuite, Dieu révèle à Abram ce qu'il a l'intention de réaliser. Il lui promet qu'il va devenir l'ancêtre d'un peuple entier qui n'existe pas encore: Israël. 
 C'est avec ce peuple, dans la relation avec lui que Dieu va montrer quelle est son attitude envers les humains. Dieu exige en premier lieu de devenir le seul Dieu d'Abram – et donc, le seul maître de une nation en devenir. Il désigne déjà un nouveau territoire dans lequel le peuple pourra habiter plus tard. Pour Dieu comme pour l'être humain, c'est un nouveau départ. </t>
   </si>
@@ -8934,14 +8741,6 @@
 Il réalise ce qui semble impossible à nos yeux et accorde à Sara un bébé malgré son âge avancé. Non seulement elle est par là témoin d'un miracle, mais elle devient aussi la mère d'une grande nation que Dieu va appeler son peuple (Israël). Avec l'arrivée d'Isaac, Sara vit le début d'une histoire que Dieu écrit avec l'humanité. Il y est question de l'amour que Dieu va manifester aux hommes de différentes manières. </t>
   </si>
   <si>
-    <t xml:space="preserve">Jacob est en fuite. La raison? À son époque, la coutume était qu'un père donne sa bénédiction à son fils aîné. Il lui transmettait ainsi l'autorité du chef de famille et le plaçait à la tête de tous ses biens. Or Jacob avait volé par ruse cette bénédiction à son frère Esaü (Genèse 27). Du coup, il est obligé de prendre précipitamment la fuite pour ne pas tomber entre les mains de son frère. 
-Mais au cours de sa fuite, Jacob voit s'ouvriri une nouvelle perspective. Dieu le rencontre et lui dévoile ses plans pour les êtres humains. Comme son grand-père Abraham, Jacob reçoit lui aussi la promesse d'une descendance innombrable. Dans cette promesse spécifique, il y a déjà une dimension qui concerne tous les êtres humains sur terre: à travers l'histoire du peuple d'Israël qui descend de Jacob, toute l'humanité pourra découvrir l'amour de Dieu envers les hommes. </t>
-  </si>
-  <si>
-    <t>Jacob n'ést pas très à l'aise à l'idée de retrouver son frère Esaü. Longtemps auparavant, il lui avait quant volé un truc plutôt important! (Genèse 27). Du coup, il est dans ses petits souliers. Il ignore quelle sera la réaction de son frère, il est donc prêt à tout envisager. Il entreprend quantité de démarches qui lui paraissent susceptibles de gagner la faveur de son frère, quelque soit le prix.
-A posteriori, on se rend compte que ça n'aurait même pas été nécessaire: Esaü ne manifeste aucune mauvaise intention à l'égard de Jacob. Contre toute attente, ce sont des retrouvailles touchantes qui ont lieu. Dieu avait d'avance veillé à cela. Il n'aurait pas permis à Esaü de faire du mal à Jacob – et cela, Jacob aurait même pu le savoir. Jacob assure ses arrières et cherche à se protéger par lui-même plutôt que de faire entièrement confiance à Dieu.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Joseph est un enfant gâté par son père. En plus de cela, il raconte à ses frères le rêve qu'il a fait dans lequel il se voit être leur chef à tous. Pas étonnant qu'il s'attire leur haine ! Dans cet épisode, Joseph est bien loin de la protection que lui offre son père, et cela va lui être préjudiciable. Au moment où ses frères le voient, ils savent tout de suite ce qu'ils veulent : l'éliminer. Ruben tente pourtant de le sauver, peut-être par acquis de conscience, peut-être par un sens des responsabilités, on ne sait pas. En tous cas, son idée prévaut et dans un premier temps et Joseph est simplement jeté dans un puits. Mais quand un groupe de marchands passe près d'eux, Juda y voit une bonne opportunité d'épargner la vie de Joseph et de se faire de l'argent. Il convainc donc ses frères de le vendre. À première vue, cela semble être un bon compromis : les frères évitent  de commettre un meurtre tout en se débarrassant quand même de Joseph. Il reste quelqu'un qui continue malgré tout de veiller sur Joseph : Dieu. Il a un plan pour lui qui aura un grand impact sur toute sa famille et leurs descendants (le futur peuple d'Israël). </t>
   </si>
   <si>
@@ -8961,10 +8760,6 @@
   <si>
     <t xml:space="preserve">Les frères ont peur d'être arrêtés comme espions. Mais à ce moment, il y a quelque chose d'incroyable qui se produit: Joseph leur montre son vrai visage ! Les frères sont si stupéfaits qu'ils en restent bouche bée. Si on se met dans leur peau, c'est une réaction qui se comprend bien! Joseph vit! Il essaie de les rassurer, eux qui sont complètement abasourdis: Venez près de moi (v. 4), ne soyez pas remplis de tristesse, ne vous faites pas de reproches (v. 5). 
 Joseph a beaucoup souffert avant de devenir le deuxième homme le plus puissant d'Égypte, mais il considère sa souffrance de manière positive – il reconnaît que Dieu en a fait sortir quelque chose de bien. Le tort que ses frères lui ont causé à l'époque, il le réinterprète comme une étape nécessaire pour que toute sa famille puisse être sauvée de la famine. Quelle attitude généreuse! Joseph accorde avec joie le pardon à ses frères. Un exemple à suivre! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tu viens de faire la connaissance de Moïse. Son nom revient 750 fois dans la Bible. C'est donc un personnage plutôt important. Avec lui, Dieu écrit une partie importante de l'histoire d'Israël. Bon, nous n'en sommes pas encore là... Tu as lu que Moïse est un bébé qui n'aurait pas eu, à vrai dire, le droit d’exister. Les circonstances de sa naissance n'auraient pas pu être pires : il est du mauvais sexe et il possède les mauvaises origines. Le Pharaon, roi d’Egypte, a en effet ordonné de tuer tous les jeunes Hébreux mâles directement après leur naissance car il a peur que le peuple hébreu, éxilé en Egypte, ne devienne trop puissant. Il se sent menacé. 
-Le courage et l’audace de la sœur de Moïse va lui sauver la vie ! Pour cela elle n’hésite pas à aller à l’encontre de l’autorité du roi d’Egypte et de ses lois. Cette action va s’avérer décisive car Moïse devient plus tard le chef du peuple hébreu et c’est lui qui va le guider hors d’Egypte. Sans lui, sans sa sœur et sans la fille du Pharaon ( !), pas de libération pour le peuple de Dieu. </t>
   </si>
   <si>
     <t>Moïse garde les moutons et les chèvres de son beau-père Jéthro. Ah oui, entre temps, il s’est marié ! Moïse vaque à ses occupations journalières : à la recherche de nourriture, il va d’un endroit à un autre avec ses troupeaux. 
@@ -9046,12 +8841,6 @@
 Dans l'évangile de Jean (12,12) il est dit que Jésus est la lumière . Ce que je fais en cachette, Dieu veut le révéler en plein jour. Non pas pour m'accuser mais pour permettre de prendre conscience de mes actes, d'exprimer ma culpabilité et de recevoir le pardon ! </t>
   </si>
   <si>
-    <t>Le coach de l’église, Paul, donne un conseil important à Timothée, le jeune talent: Opte pour des directeurs d’église doués. Et que les diacres soient des spécialistes du travail avec les autres. Ce discernement n’est pas facile mais très important étant donné que c’est la première phase de construction d'une église après sa fondation. Avec de mauvaises personnes tout pourrait s’arrêter et mourir.
-C’est pourquoi Timothée doit choisir ses collaborateurs prudemment: il met la priorité sur le caractère de la personne ! Si un collaborateur vit conformément à Jésus, c’est évident que Dieu vit en lui. C’est ce que Paul appelle « le secret de la croyance ».
-Vivre conformément à Jésus, ça peut signifier beaucoup de choses : être convivial, s’engager pour la paix ou encore partager des choses positives et pas uniquement des jugements négatifs. 
-Bref, lorsque ton cœur est près de Dieu, ta foi est plus attractive pour les autres et le boulot dans l’église sera fait d’une bonne manière !</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sois franc, est-ce important pour toi de « chasser » cette vie éternelle? Quelle est ta réaction lorsque Paul décrit la vie chrétienne comme un combat ? </t>
   </si>
   <si>
@@ -9064,11 +8853,6 @@
     <t>Qui est un exemple pour toi dans ta vie de foi ? Peut-il encore t’aider? Quels sont tes espoirs quand tu lis la Bible? Quand est-ce qu’elle t’a déjà aidé à prendre une bonne décision?</t>
   </si>
   <si>
-    <t>On vit dans un temps où il y a beaucoup d’opinions différentes et on ne sait pas vraiment ce qu’est important dans la vie. A l’époque de Paul, c’était la même chose et heureusement qu’il est là pour Timothée pour lui donner trois conseils précieux qui vont l’aider à s’orienter.
-Premièrement, Timothée peut compter sur Paul lui-même, qui a été un vrai exemple pour lui et qui a été persécuté pour sa croyance. Deuxièmement il peut se fier aux valeurs et aux choses qu’il a apprises depuis son enfance. Et troisièmement il peut s’appuyer sur les Saintes Écritures. À l’époque c’étaient les livres de la première partie de la Bible. Aujourd’hui pour les Chrétiens, c’est la totalité de la Bible.
-La Bible nous montre comment nous pouvons vivre pour Dieu, ce qui veut dire : comment le servir. De plus elle nous montre ce qu’est important pour nous dans nos vies. Elle nous montre encore comment Dieu veut mettre de l’ordre dans notre passé et nous sauver de tout ce que nous pensons et faisons de mal. Et ce n’est pas tout ! A toi de découvrir d'autres choses encore!</t>
-  </si>
-  <si>
     <t>As-tu déjà vécu une mauvaise surprise?</t>
   </si>
   <si>
@@ -9090,12 +8874,6 @@
       </rPr>
       <t xml:space="preserve">soient chrétiens ? Est-ce que Dieu peut faire peur ? Qu’est ce qui est juste et qu’est-ce qui est faux dans cette image de Dieu ? </t>
     </r>
-  </si>
-  <si>
-    <t>La serrure est fracturée, la porte est grand ouverte, ta chambre ressemble à un vrai chaos. Voilà, une mauvaise surprise !
-Tout aussi choqués seront celles et ceux qui vivent sans Dieu au moment où Jésus, le Fils de Dieu, reviendra sur la terre. Au jour dit « du Seigneur », quand Dieu, le chef du monde jugera la vie de chaque homme. Il décidera entre deux destins : « mort éternelle » ou « vie éternelle ».
-Seul celui qui vivait déjà avec Dieu avant recevra la vie éternelle, car Jésus va pouvoir dire : « Je le connais. Je lui ai pardonné tous se péchés, parce qu’il me l’a demandé. J’ai été exécuté à la croix pour ses péchés. C’est pourquoi il peut recevoir la vie éternelle. »
-Alors Paul écrit à ces Chrétiens : « Continuez à vivre avec Dieu ! Soyez bien réveillés et ne vivez pas seulement au jour le jour. Fixez les yeux sur cette rencontre future avec Jésus. »</t>
   </si>
   <si>
     <t xml:space="preserve">Quel beau texte ! Ou bien… ? Hmmm…. En fait, il est assez radical. Rien à voir avec la phrase creuse « Nous nous aimons tous et nous vivons dans le meilleur des mondes ! » 
@@ -9119,13 +8897,6 @@
 Quand Jésus porte l’église, qu’Il la maintient et qu’Il la rend belle, elle devient sainte. Être saint veut dire : tellement différent de ce monde que chacune et chacun reste bouche-bée. Si tu appartiens à Dieu et à l’Eglise, tu participes à la construction de cette maison fascinante en tant que pierre individuelle.  </t>
   </si>
   <si>
-    <t xml:space="preserve">On dit toujours qu’il faut uniquement croire en Jésus pour appartenir à Dieu. C’est vrai ! Mais Jacques qui est responsable d’église écrit : « Si tu ne fais rien, ta foi ne vaut rien ! » C’est vrai aussi ! Et ce n’est pas une contradiction. 
-Est-ce que tu as déjà été amoureux ou amoureuse pour de vrai une fois ? Alors tu sais qu’on ferait presque tout pour celui ou celle qu’on aime. C’est exactement la même chose avec la foi et l’amour envers Dieu. On a envie de montrer par des actes que l’on aime Dieu et/ou son amoureux (-euse).  
-Jacques présente des exemples très forts qui mêlent foi et action : Abraham, le père d’Israël, était prêt à sacrifier son fils lorsque Dieu le lui a demandé comme test. Tellement il aimait Dieu. La prostituée Rahab a protégé dans sa maison deux Israélites qui étaient ses ennemis, car elle a cru en Dieu plus qu’aux dieux de son pays. 
-L’amour envers Dieu est vrai seulement s’il devient visible dans des actes. 
-</t>
-  </si>
-  <si>
     <t>Qui est-ce que tu connais dans ton entourage qui aime Dieu et qui le vit d’une manière exemplaire ? Qu’est-ce que tu aimerais et pourrais imiter de cette personne ?</t>
   </si>
   <si>
@@ -9568,36 +9339,8 @@
     <t>Comment te sens-tu dans de nouvelles situations (nouvelle école, nouveau domicile) ? Dans quelle situation apprécies-tu qu’un jour, Dieu renouvellera toute chose ? Qu’est-ce qui te manquerait sur terre et qu’est-ce qui ne te manquerait pas ?</t>
   </si>
   <si>
-    <t>Avoir de bons amis ; bénéficier de relations harmonieuses avec les personnes qui te sont proches ; faire des expériences avec Dieu de manière si intime que tu en restes ébahi. Est-ce que tu vis de tels moments où tout marche et où Dieu est tout pour toi ? Dans ces moments-là, c’est un avant-goût du ciel sur terre et Dieu nous promet réellement de vivre parfois ce genre de moments. Mais d’abord, nous devons nous battre. Pour Jésus. 
-Contre les passions et les fausses dépendances de ce monde. Dans ce combat, nous sommes souvent mis en difficulté et éclaboussés par le Mal. Nous avons donc un grand besoin de pardon. C’est pourquoi nous trouvons dans ce texte l’image du lavement des vêtements. A la fin, celui et celle qui a réussi louera Dieu, en compagnie de tous les anges. Cela aura lieu dans le nouveau monde de Dieu qui viendra quand tout sera pleinement accompli.</t>
-  </si>
-  <si>
-    <t>Le film de Jean se poursuit et nous voici dans le dernier épisode de l’histoire de l’univers. La question se pose : est-ce que ces événements se passent déjà maintenant dans la dimension invisible de Dieu ou seulement dans le futur. Ou l’un et l’autre : ces choses se passent déjà partiellement maintenant et elles seront pleinement vécues dans le futur. En tout cas, une voix venant du trône crée de une bonne atmosphère pour Dieu, une atmosphère de louange où tous jubilent pour Dieu. 
-En effet, Il a vaincu tous les ennemis humains ainsi que tous les esprits méchants et les puissances. Il règne ! Tout se déroule comme il l’avait prévu pour nous depuis toujours : du travail sans stress, des relations respectueuses, des activités sans blessures et une pleine communion avec Dieu. En même temps, Dieu se marie (au sens figuré) : sa fiancée est l’Eglise universelle. Sont invités tous ceux qui ont partagé la vie avec Dieu et Jésus sur terre. Dès aujourd’hui, Jésus t’invite à vivre désormais avec lui et à prendre part à la fête.</t>
-  </si>
-  <si>
-    <t>Le film de Jean serait un « happy end » ? Non, pas du tout ; il s’agit d’un « happy beginning » !  C’est vrai qu’il y aura une fin, mais seulement pour notre monde d’ici-bas. Ce qui compte, c’est le recommencement : Dieu crée un monde nouveau. Nous avons l’habitude de parler du « ciel », mais il s’agit en fait d’un monde nouveau où Dieu est présent. C’est pourquoi il est question d’une « nouvelle Jérusalem ». 
-En effet, à Jérusalem, au temple, Dieu a habité au milieu de son peuple. Dans la nouvelle Jérusalem, la mort n’existera plus, personne ne tombera plus malade ; il n’y aura plus de cris suite à des malheurs et on  ne sera plus méprisé par des personnes de son entourage. C’est comme Noël : nous recevrons un cadeau attendu depuis longtemps.</t>
-  </si>
-  <si>
-    <t>Le film continue. Dans cette scène, Dieu donne un ordre à Jean. Il doit écrire une lettre à deux églises différentes, l’une est méprisable et l’autre a de la « classe », du moins en apparence ! La première Eglise (celle de Philadelphie en Asie mineure) souffre parce qu’elle est attaquée par des prétendus juifs. Mais cette communauté reste attachée à Jésus (v.10). Jésus est fier de cette Eglise. L’autre Eglise établie dans la riche ville de Laodicée est plus cool. Même trop cool ! 
-Celui qui vit dans l’abondance est guetté par l’orgueil. Et Dieu réagit : « ça me fait vomir ! » (v.16). Dans le genre direct et radical, Dieu est plutôt pas mal ! Et pourtant il est toujours rempli d’amour (v.19). Il aimerait bien discuter entre quatre yeux avec des chrétiens qui sont cool. Peut-être autour d’un bon repas (v.20). Ose lui ouvrir la porte quand il frappe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> « Moi, je ne crois pas en Dieu si je ne le vois pas ! » C'est une phrase qu'on entend assez souvent. Il faut savoir que Dieu agit souvent de manière cachée. Il se manifeste dans nos pensées et nos sentiments. Ou au travers d’autres personnes. Parfois aussi au travers de rêves ou de visions intérieures. Jean, un ami proche de Jésus lorsque ce dernier vivait sur terre, a eu une telle vision. 
-Se trouvant dans l’île grecque de Patmos, Jean revoit Jésus dans une vision. Jean serait-il en transe ? Peut-être expérimente-t-il une sorte de rêve, en plein jour ! Il voit Jésus dans des habits somptueux, le visage qui brille et les pieds en or. Tout cela est renversant pour Jean,…et pour nous ! Jésus lui confie un message important. Et là, le film démarre vraiment. Et nous y prenons part, ici, dans le livre de l’Apocalypse.</t>
-  </si>
-  <si>
-    <t>Dieu habite en celui et en celle qui croit que Jésus le Fils de Dieu et qu’il marche avec Lui, dans Ses pas. Comme Dieu est amour, cela veut dire que l’amour vit en toi ! L’amour vrai et véritable, qui est patient, jamais égoïste et qui n’abandonne personne. Cet amour-là est en toi. Tu y crois ? « Oui, mais moi je ne sens rien ! » te diras-tu peut-être. Peu importe ! L’amour véritable est plus qu’un sentiment. L’amour est un style de vie qui veut le meilleur pour Dieu, pour les autres et pour soi-même. 
-Ce style a été inscrit dans ton cœur.  Il y a encore plus : cet amour tue toutes les peurs. La peur que nous devons avoir lorsque nous réfléchissons au fait que Dieu jugera nos vies à la fin et que chaque faute sera mise à la lumière. Cette peur s’envole lorsque nous saisissons de plus en plus que Dieu nous aime. Cet amour nous motive à aimer également les autres. Love-Style !</t>
-  </si>
-  <si>
     <t>Quand un félin est en chasse, il pourchasse sa proie jusqu’à ce qu’il la prend. Abandonner la chasse parce qu’elle est trop fatiguant ? Jamais! Il garde les yeux fixés sur l’objectif à atteindre, sans se laisser distraire par autre chose. Toute son énergie est consacrée à attraper sa proie. Paul encourage Timothée à avoir les mêmes attitudes, mais en vue d’un objectif tout à fait différent. Il l’encourage à chasse la vie éternelle. 
 La vie éternelle est une vie, que plaît à Dieu, que fait du bien aux autres et à toi, et qui t’enflamme. Une vie pleine de justice, d’amour, de gentillesse et avec beaucoup de respect pour Dieu. Cette vie existe déjà en partie ici sur la terre et entièrement dans le nouveau monde de Dieu dans l’avenir. Dieu nous donne cette vie et ensemble nous battons pour la garder !</t>
-  </si>
-  <si>
-    <t>Certains parlent sur Dieu d’une mauvaise façon en disant notamment que la résurrection finale a déjà eu lieu. On a un peu de la peine à le croir; pourtant avec astuces de langage, avec leur rhétorique, ils arrivent à ébranler la foi de personnes pas très sûres d'elles et peu affermies. On pourrait vraiment avoir peur de ces gens qui bourlinguent dans les églises et flouent beaucoup de croyants. Mais n’ayons pas peur, Dieu a donné une fondation stable à chaque Chrétien: il/elle appartient à Dieu, Seigneur du monde. C’est écrit sur un sceau par lequel les croyants sont – d’une façon figurative – marqués. Wow ! 
-Pour Paul, la foi est également quelque chose qu’il faut construire, patiemment, jour après jour. Il y a plusieurs manières de procéder ; ce qui compte c’est de passer du temps avec Dieu, pour se laisser façonner par lui. Pour Paul, la méditation de la Bible et la prière est également prioritaire (2 Timothée 3,16). Dieu donne donc des moyens à son peuple pour qu’il évite de se laisser embarquer dans des arguments tendancieux et autres provocations.</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -9709,6 +9452,270 @@
     <t xml:space="preserve">A 47 reprises, Jésus s'adresse à nous par des paraboles. Ce sont sont des histoires qui nous aident à faire un parallèle avec ce que nous vivons au quotidien pour comprendre certaines vérités. Même si c'est vrai que ce n'est pas toujours évident de les comprendre ! 
 Ici, Jésus essaie de nous pousser à réfléchir à la notion d'éternité et du royaume des cieux. Et sur le fait que d'appartenir à ce Royaume n'a pas de prix. 
 Depuis toujours, certaines personnes ont essayé d'attribuer une valeur, un prix au paradis. Mais la réalité est différente. La vie éternelle que Dieu nous propose est gratuite ! Il nous suffit de dire « OUI » à ce cadeau inestimable !!! C'est fou non ? Et toi, as-tu déjà dis «  OUI  » à ce cadeau ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans un livre de la Bible, l'épître aux Romains, il est dit que nous sommes tous pêcheurs ! (Romains 3,23). On peut traduire le mot péché dans un langage plus courant par  « manquer la cible ». Si la cible est une vie avec Dieu et que nous décidons de la vivre sans lui, alors nous ratons cette cible en beauté ! 
+Ici, Jésus nous invite à nous repentir au travers d'une parabole. Le philosophe Pascal a dit : " Il y a dans le coeur de l'homme, un vide en forme de Dieu". Cette repentance signifie donc simplement de reconnaître que nous avons manqué la cible et que nous avons besoin de lui dans notre vie. Il n y a rien qui puisse plus faire la joie de Dieu que notre repentance.  </t>
+  </si>
+  <si>
+    <t>Imaginez un instant cette scène incroyable. Des milliers de personnes, enfants, jeunes, moins jeunes, tous réunis pour écouter Jésus-Christ. La journée défile et les gens commencent à avoir un petit creux. La solution McDrive n’étant pas d’actualité, les gens parlent poissons grillés. Jésus, ayant 5 pains et 2 poissons fait quelque chose de simple, discret mais puissant : « Il leva les yeux au ciel » !
+Pensait-il qu’une pluie de frites pouvait faire le bonheur de tout le monde ? Ou peut-être regardait-il son Père en pensant : « Papa, rien ne t’est impossible. Merci d’être Celui qui pourvoit, qui donne en abondance du pain, de l’amour, de la patience. Tu connais parfaitement chacun de tes enfants, montre-leur qu’en toi se trouve  la Vie en abondance » 
+Amen,… et bon appétit !</t>
+  </si>
+  <si>
+    <t>Même que les vagues et le vent étaient forts et menaçants, Pierre ne voyait que Jésus qui marchait sur l’eau. Il ne regarda pas aux circonstances, et il réagit par la foi en allant vers Jésus à pied, sur une mer déchaînée!
+Ce n’est que lorsqu’il quitte Jésus des yeux, que lorsqu’il regarde à lui-même et qu'il prend conscience de ce qu’il est en train de faire que Pierre commence à couler.
+Il est intéressant de voir que quand Pierre est en difficulté, il se tourne vers la seule personne qui peut l’aider, la seule personne sur qui il pourra toujours compter : Jésus.
+Rappelons-nous que Jésus est toujours là, à nos côtés, prêt à tendre sa main pour nous aider. Il n’a pas refusé de secourir Pierre, il fera la même chose pour toi. 
+Pour ça, il faut que tu lui demandes son aide !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N’oublions pas que, quelles que soient les circonstances, nous pouvons regarder à Jésus. Essayons de ne jamais le quitter des yeux ! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jésus a le désir que chacun d’entre nous puissions voir et connaître qui il y est. Jésus s’est arrêté vers cet aveugle pour poser ses  mains sur ses yeux et le guérir. 
+Jésus veut aussi s’arrêter dans nos vies, et veut que nous le laissions poser Ses mains sur nous. 
+Nos deux yeux sont certainement fonctionnels. Mais quand est-il des yeux de notre cœur ? Peut-on voir l’œuvre de Jésus-Christ dans nos vies ? Pouvons-nous voir sa présence au quotidien ?
+Jésus n’est pas là pour nous faire des reproches. Au contraire, il affirme que cette personne aveugle va pouvoir être l’occasion d’une manifestation de la puissance de Dieu. Jésus désire se révéler dans nos vies !
+Suis-je prêts à me laisser toucher par Jésus pour qu’il ouvre les yeux de mon cœur ?
+</t>
+  </si>
+  <si>
+    <t>Dans ce passage, un homme nous est présenté comme tourmenté et animé d’esprits impurs. Il est sous l’emprise de ceux-ci et n’est plus maître de lui-même. Il est décrit comme blessé et plein de douleurs.
+Lorsque Jésus arrive vers lui, les esprits du mal s’agitent et se soumettent à lui, tandis que Jésus reste calme.
+Jésus par son autorité, va complétement libérer l’homme par une seule phrase. Par sa souveraineté, il montre au monde qu’il a tout le pouvoir. Ni les hommes ni les démons ne peuvent s’opposer à lui. Au contraire, ils lui sont entièrement soumis. Jésus veut rendre l’homme libre afin que plus rien ne le retienne. 
+Cet homme a été témoin de la souveraineté, de l’autorité et du pouvoir libérateur de Jésus qui agit avec amour.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cette histoire nous démontre que Jésus est à la fois complétement Homme et à la fois complétement Dieu. En effet, Jésus aimait, pleurait et il était ému. En même temps, Jésus est celui qui a tout pouvoir et toute autorité, même sur la mort (et surtout sur la mort !). 
+Dans ce passage, Jésus pose une question « ne t’ai-je pas dit que si tu crois, tu verras la gloire de Dieu ? ». En d’autres termes, « ne crois-tu pas que Dieu agira si tu me fais confiance ?!».  
+Jésus affirme ensuite que Dieu nous écoute toujours. Il nous semble parfois qu’il tarde à répondre et à intervenir. Mais Jésus connaît notre situation et lui aussi sait ce qu’est la souffrance. Mais il ne s'arrête pas là, car il est également celui qui fait sortir les morts de la tombe: Jésus a ressuscité Lazare! Jésus a fait de nombreux miracles dans ma vie, il veut également en faire dans la tienne.  </t>
+  </si>
+  <si>
+    <r>
+      <t>Les Juifs célèbrent une fête, appelée la Pâque, pour se rappeler de ce que Dieu a fait... En effet, longtemps auparavant, le peuple d’Israël était esclave en Egypte et appela Dieu à l’aide. Dieu demanda alors à chaque famille de prendre un agneau et de répandre son sang sur les poteaux de la porte de leur maison. Tous ceux dont la maison portait la marque du sang de l’agneau, furent sauvés et ils purent fuir hors d’Egypte, libres (Exode 12). 
+Le dernier souper que Jésus partage avec ses disciples est justement celui de la Pâque, mais Il y apporte une nouvelle dimension... Cette fois-ci, c’est le sang de Jésus qui est répandu sur les poteaux d’une croix, afin que chacun de nous sois sauvé et rendu libre! La Cène est là, comme un souvenir de ce que Jésus a fait pour toi! La Pâque devient Pâque</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Sous la domination des Romains, les Juifs ne pouvaient pas mettre à mort quelqu’un. Ils demandèrent donc à Pilate, le gouverneur romain, de condamner Jésus. Mais les seuls éléments que Pilate connait sur Jésus, sont ceux qu’on lui avait rapporté... 
+Et toi, de quelle manière connais-tu Jésus? Es-tu comme Pilate, qui n’a aucun avis personnel et qui suit ce qu’on lui dit? Tes parents, ta famille, tes amis ou tes responsables d’église t’ont parlé de Jésus, mais maintenant, c’est à toi de prendre la décision de le connaître personnellement et de choisir qui Il est pour toi, afin de pouvoir répondre à Dieu « Oui Seigneur, je confesse que tu es Celui qui me sauve, Celui qui me libère, Celui qui me guérit, Celui qui pourvoit à mes besoins et Celui qui guide ma vie!»</t>
+  </si>
+  <si>
+    <t>A sa mort, Jésus dit «Tout est accompli»... En disant ces mots, Jésus affirme non seulement que sa mission personnelle sur terre est accomplie, mais également qu’Il a tout accompli pour toi! Jésus s’est séparé de Dieu, afin que toi, tu sois proche de Lui; 
+Jésus a été méprisé et rejeté, afin que toi, tu sois accepté; Jésus a souffert toutes maladies, afin que toi, tu sois guéri; Jésus a pris tes fautes, afin que toi, tu sois pardonné; Jésus a porté ton péché, afin que toi, tu sois justifié; Jésus est mort en tant qu’être humain, afin que toi, tu vives! Tu n’as plus besoin de mériter quoi que ce soit... Jésus a tout accompli pour toi!</t>
+  </si>
+  <si>
+    <t>Une chose étonnante dans cette histoire est la réaction de Marie quand elle voit les anges... Elle ne semble pas impressionnée devant ces êtres divins. Pourquoi? Parce que Marie cherchait quelqu’un de précis! Les anges ne lui suffisaient pas, elle voulait plus! Elle cherchait, Jésus, son Seigneur. 
+Et toi, que cherches-tu? Une chose qui peut t’apporter de temps en temps du bonheur dans la vie? Qui cherches-tu? Une personne qui peut répondre à tes besoins d’amour? 
+Tout cela peut t’apporter une certaine satisfaction, mais elle sera généralement temporaire et, parfois, peut même elle pourra te blesser. Si tu cherches un amour qui ne s’éteint pas, un bonheur qui dure, une relation qui te construit... le mieux est de chercher Jésus, qui est le seul à pouvoir te combler parfaitement!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Cherche à connaître Jésus plus que toute autre chose!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avant de remonter au Ciel,  Jésus a fait une promesse aux siens. 50 jours après la fête juive passah (notre Pâque), cette promesse s’est accomplie : Jésus envoie son représentant, le Saint-Esprit, afin que ses disciples ne soient pas seuls. Pour les Juifs, le vent et les langues de feu sont un signe clair d’une manifestation divine. Ainsi ils expérimentent directement ce qu’ils connaissent d’anciens récits : Dieu se montre. 
+Avec la venue du Saint-Esprit, Dieu confirme que la présence de Jésus sur Terre n’est pas terminée. La foi en Jésus est rendue vivante par le Saint Esprit. Il pourvoit pour que plus de personnes et de nations saisissent la foi (v. 7-10). Mais, même à la Pentecôte, tous ne reconnaissent pas cette manifestation comme une œuvre de Dieu! Certains doutent avec une petite pointe de moquerie (v. 13), d’autres s’étonnent (v.12), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nous sommes maintenant dans la période qui succède à Jésus. Le Saint-Esprit est venu sur terre comme son représentant, comme la présence de Jésus qui accompagne ses disciples. Et il se montre. Beaucoup d’hommes et femmes reconnaissent par le Saint-Esprit qui est Jésus Christ et embrassent la foi. Une communauté de chrétiens s’établit à Jérusalem – la première de l’histoire. Pierre et Jean, deux apôtres que Jésus avait appelé à son service durant son ministère terrestre, sont plein de zèle pour amener des personnes à croire en Jésus. 
+Ils savent qu’une vie avec Jésus ne les rendra certainement pas riches, mais elle rendra possible des choses que l’on ne peut pas acheter avec de l’argent. La guérison d’un paralytique ne semble pas spécialement spectaculaire. Mais elle produit un grand effet. Les gens le comprennent bien : ce qui se passe ici est humainement impossible. De même, l’homme guéri reconnaît que ni Pierre ni Jean n'ont opéré sa guérison, mais Dieu par le nom de Jésus (v. 8-9). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etienne va à contre-courant et il illustre bien qu’il est toujours plus aisé de nager avec la majorité. Par ses paroles et ses actes, il se rend impopulaire. Et cela, non seulement du fait qu’il a une opinion différente, mais aussi, parce que les autres ne peuvent pas lui résister (v. 8-10). Mais ils ne peuvent pas admettre qu’ils sont en tort. Il ne leur reste donc rien d’autre que d’user de méthodes sournoises (v. 11-13) pour garder la face. A cette époque, les anciens, les docteurs de la loi et le sanhédrin constituaient le tribunal et la police de l’époque. 
+Le motif pour lequel Etienne était accusé (v. 13-14) constituait un crime passible de la peine de mort. C'est pourquoi, les Chrétiens ont été constamment blâmés. Jusqu’à ce jour, leurs opinions suscitent de la moquerie, et dans certains pays (p. ex. en Corée du Nord), cela peut aller jusqu’à la persécution ouverte, voir la mort. De même, la foi d’Etienne va lui coûter le prix de sa vie (Actes 7, 54-59). </t>
+  </si>
+  <si>
+    <t>Philippe est entièrement au service de Dieu. Partout où il prêche, des hommes embrassent la foi. Puis Dieu lui confie une mission très concrète…
+Un Ethiopien a pris un écrit précieux pour son déplacement à Jérusalem (les rouleaux de textes étaient très chers), mais malheureusement il n’arrive pas à en comprendre le sens, car il est limité. Philippe peut alors lui expliquer le passage qui cite le prophète Esaïe. L’Ethiopien apprend qui est Jésus (l’ « agneau ») et ce qu’il a fait. Pour cet eunuque, ce sont des nouvelles merveilleuses, car de par son statut, la foi juive ne lui permettait pas de contact direct avec Dieu (il fallait être circoncis, ce qui n’était plus possible dans son cas). 
+Avec la venue de Jésus, tout change ! Par lui la foi en Dieu est offerte à tous les hommes, sans distinction, quelles qu’elles soient. Ces nouvelles sont si bonnes qu’il demande à être baptisé sur-le-champ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pour les disciples de Jésus, quelle surprise de réaliser que pour Dieu il n’y a pas de différence entre Juifs et non-Juifs. Autrefois, il était clair que seuls les Juifs pouvaient venir à Dieu. Et désormais cela change. Jésus a renversé toutes les barrières qui séparent les hommes entre eux et d’avec Dieu. Pierre a compris cela, et il peut donc parler de Dieu au romain Corneille. Autrefois, cela paraissait impossible. 
+De tous temps, des hommes en ont exclu d’autres pour des motifs de couleur de peau, de races ou de sexe. Pierre réalise que ce n’est pas la pensée de Dieu. Dans l’Ancien Testament, Dieu révèle qui Il est par l'intermédiaire du peuple d’Israël. Avec la venue de Jésus, cet intermédiaire a changé et tous les hommes peuvent Le connaître.   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Dieu aime tous les hommes de la même manière, quelle que soit leur provenance. Crois-tu cela ?
+Oserais-tu parler de Dieu à des personnes d’autres religions ? </t>
+  </si>
+  <si>
+    <t>D'un seul coup, une vie entière est bouleversée: Juif très zélé, Paul veut exterminer les Chrétiens (les disciples appelés par Jésus). A son avis, ces gens constituent une secte qui offense Dieu. N'affirment-ils pas que ce Jésus qui a été exécuté, est le Sauveur du monde (et le roi des Juifs) ?
+Et voilà que Dieu lui-même remet en question toute la vie de Saul! Il veut transformer cet homme très influent, afin que lui-même proclame à d'autres que Jésus est le Sauveur du monde.
+Un jour, Saul deviendra très important pour le christianisme naissant. Mais d'abord, il va être arrêté et resté aveugle quelques temps. Puis, dans une vision, il voit un chrétien qui vient l'aider, ce qui aurait représenté un vrai cauchemar pour lui, il y a peu de temps encore ! 
+Mais maintenant, c'est ce qui peut lui arriver de mieux. Juste incroyable ce changement, non ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notre homme ne s'appelle plus Saul, mais Paul.  A l'inverse de ce qu’il faisait avant, il met maintenant le paquet pour annoncer la Bonne Nouvelle de Dieu: Dieu souhaite offrir à chacun une vie renouvelée et, pour l'avenir, un monde nouveau. C'est pourquoi, avec son collègue Barnabas, il est en route comme apôtre, comme envoyé de Dieu, dans la Turquie actuelle, à Lystre.
+Les gens qu'ils rencontrent dans cette ville croient aux dieux grecs Zeus, Hermès etc. Ils pensent donc que ces dieux sont venus sur la terre dans la personne de Paul et Barnabas. Bizarre, mais ils sont sûrs de leur fait, car en fait ils ne connaissent rien d'autre. Après s’être fait manipulé par quelques Juifs, ils finissent par tabasser Paul, si bien qu’on pense qu’il est mort…
+Malgré la violence subie, Paul ne renonce pas, il tient bon ! Il passe à la ville voisine et convainc beaucoup de personnes de devenir disciples de Christ.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul et Barnabas arrivent à Jérusalem, là où vivent les premiers Chrétiens. Ils rencontrent les disciples de Jésus qui sont les dirigeants de cette communauté.
+Avant de connaître Jésus, tous ces Chrétiens étaient Juifs. Donc, tous ont été circoncis quelques jours après leur naissance, et tous devaient s'en tenir aux lois juives. La circoncision était le signe voulu par Dieu pour déterminer qui était membre de son peuple (Voir Genèse 17). Les Pharisiens, (des Juifs particulièrement zélés), exigent donc maintenant que tous les nouveaux chrétiens non circoncis rattrapent ce « retard »: en effet, Jésus n'était-il pas un Juif circoncis? N'a-t-il pas obéi à la Loi?
+Pierre, un des premiers disciples de Jésus leur rétorque que personne ne doit être parfait sur le plan religieux pour être accepté de Dieu. L’appartenance au peuple de Dieu ne se fait plus de la même manière !
+Être accepté de Dieu est simplement un cadeau de sa part que nous pouvons recevoir par la foi. </t>
+  </si>
+  <si>
+    <t>Quelles sont les règles religieuses qui t'agacent?
+Quelles règles Dieu trouve-t-il bonnes? Lesquelles non?
+Faut-il d'ailleurs respecter certaines règles pour faire partie de la communauté chrétienne?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Même des chrétiens modèles, des exemples peuvent se disputer ! Eh oui, Paul et Barnabas se séparent pour un temps. Du coup, Paul prend la route avec le jeune Timothée.
+Ces deux hommes s'entendent super bien avec Dieu. Le Saint-Esprit leur dit où ils doivent aller et où ils doivent éviter de se rendre, quelquefois même par des rêves.
+Lydie, une femme d'affaires qu'ils rencontrent, n'est pas juive de naissance, mais croit au même Dieu qu'eux. Et voilà qu'elle a l'occasion géniale d'entendre que Dieu veut la connaître personnellement et vivre avec elle. Elle répond positivement et se fait baptiser, elle, toute sa famille et les employés de sa maison. Ouah!
+Cette rencontre est étonnante.  En effet, le fait que Paul et Timothée s'entretiennent avec des femmes au bord du fleuve n’était pas une pratique courante à l'époque.
+En tant que disciples de Jésus nous sommes appelés à aller à la rencontre de tous, quitte à transgresser parfois certaines normes sociales. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Y a-t-il des gens avec qui tu n'as aucun contact? Pourquoi?
+Quelles sont les choses que tu as en commun avec ces personnes?</t>
+  </si>
+  <si>
+    <t>Beaucoup de choses se sont passées par rapport au dernier épisode (Actes 16). Entre temps, Paul a été accusé par des adversaires juifs et a été jeté dans une prison romaine, à Jérusalem. Comme cette décision est considérée comme injuste, Paul fait appel devant le tribunal impérial, qui est situé dans la capitale de l’Empire, à Rome. 
+De Jérusalem à Rome, la traversée de la Méditerranée est longue et peut s'avérer dangereuse. Durant ce voyage, le bateau subit une violente tempête d'hiver. Et pourtant, Paul avait prévenu et conseillé d'attendre le printemps dans un port sûr avant d'entamer ce voyage!
+Malgré tout, Dieu est présent sur les routes et Il veille. De nuit, Il envoie vers Paul un ange qui lui explique que Dieu l'amènera bien à Rome. Là-bas aussi, il pourra affirmer que Jésus est le Sauveur du monde. 
+Finalement, tous les passagers du bateau ont la vie sauve et découvrent combien le Dieu de Paul est puissant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Es-tu prêt à faire partie de l'équipe? Réfléchis bien, car ça peut être un choix risqué. Profite de E100 pour apprendre à mieux connaître Jésus.</t>
+  </si>
+  <si>
+    <t>Chaque pommier naît d'un pépin. Pourtant, même dans d'excellentes conditions, certains pépins donneront de magnifiques arbres et des fruits succulents, alors que d'autres donneront des fruits vraiment pas terribles.
+Il y a pourtant une solution: La greffe. Sur un tronc de pommier moyen, on greffe des branches d'un pommier de première catégorie. Il en résulte, avec le temps, des fruits excellents.
+Il en est de même lorsque tu vis avec Dieu. Tu laisses tomber ton égoïsme et tu ne suis plus toutes les pulsions que tu ressens. Pour prendre une image, tu cloues ton égoïsme à la croix où Jésus est mort. En échange, le Saint-Esprit, troisième personne de Dieu, vient en toi. Tu es transformé en un bon arbre qui porte de bons fruits. Autrement dit: les autres apprécient qui tu es et ce que tu fais.</t>
+  </si>
+  <si>
+    <t>Comment te décrirais-tu? Comment te décrivent tes amis?
+Parmi les qualités présentées par le texte (v. 22-23) laquelle est le plus manifeste chez toi? Laquelle l'est moins?
+Quels seraient les avantages si tu n'enviais personne?</t>
+  </si>
+  <si>
+    <t>Si Dieu est ton Seigneur, en d'autres termes, celui qui dirige ta vie, tu es bien protégé. Entre le ciel et la terre en effet, le combat est bien plus violent que ce que nous voyons et percevons. Et ce combat nous affecte aussi, mais finalement peu importe... Ce qui compte c’est d’être bien équipé, car dans ce cas-là on est vainqueur à 100%.
+Lorsqu’il écrit cette lettre, Paul a à l'esprit l’image d’un soldat romain avec son équipement pour le combat.
+1) La ceinture représente le signe de notre engagement au service de la vérité, à la suite du Christ qui l’a incarnée. 
+2) Les bottes indiquent que je suis prêt à partir. 
+3) L’épée fait allusion aux promesses de Dieu et à toutes les choses qu’il dit de toi, les bonnes et parfois aussi les moins bonnes. Dieu nous parle de plusieurs façons différentes : par la Bible, par d'autres personnes, ou encore directement à tes pensées.
+Les trois autres éléments mettent en évidence le fait que Dieu offre sa protection au croyant.</t>
+  </si>
+  <si>
+    <t>Paul en est pleinement convaincu: Tous ceux qui vivent avec Dieu ont beaucoup de raisons de se réjouir. Car avec Dieu, ils se trouvent dans l'équipe gagnante. Ils peuvent développer une personnalité reconnue et ils sont bien équipés pour les combats de la vie. De plus, ils peuvent se réjouir ils  vivent chaque jour avec Dieu et peuvent discuter de tout avec Lui. 
+Et Dieu n'est pas n'importe qui! C'est le Seigneur des possibilités illimitées. Si tu en es pleinement conscient, tu as vraiment "la paix" en toi. Tu es en sécurité parce que Jésus est tout proche de toi. Tous les autres chrétiens sont tes frères et sœurs. Tu peux penser plus positivement et faire mieux que la masse de tes collègues qui ne s'occupent que d'eux-mêmes.</t>
+  </si>
+  <si>
+    <t>Être réconcilié avec Dieu! Voilà la Bonne Nouvelle que transmet Paul dans cette lettre. Paul explique qu'à Colosses (aujourd'hui en Turquie), des personnes ont été transformées: leur style de vie sans Dieu, excentrique, s'est transformé en une vie qui plaît à Dieu.Ils ont comme objectif de vivre ne vie sainte et sans faute aux yeux de Dieu. Ceci est possible parce que ces gens sont devenus des amis de Dieu. 
+Ce qui s'est produit au premier siècle après Jésus-Christ s'est produit ensuite à beaucoup d'autres endroits dans le monde, et cela se passe encore aujourd'hui, parce que Jésus est comme un pont par-dessus le fossé qui séparait Dieu et l'Homme. Celui qui traverse ce pont peut se réjouir d'une vie avec Dieu, et plus tard, d'un avenir génial dans son nouveau monde.</t>
+  </si>
+  <si>
+    <t>Le coach de l’église, Paul, donne un conseil important à Timothée, le jeune talent: Opte pour des directeurs d’église doués. Et que les diacres soient des spécialistes du travail avec les autres. Ce discernement n’est pas facile mais très important étant donné que c’est la première phase de construction d'une église après sa fondation. Etre entouré de mauvaises personnes pourrait mettre en péril le développement de cette église naissante.
+C’est pourquoi Timothée doit choisir ses collaborateurs prudemment: il met la priorité sur le caractère de la personne ! Si un collaborateur vit conformément à Jésus, c’est évident que Dieu vit en lui. C’est ce que Paul appelle « le secret de la croyance ».
+Vivre conformément à Jésus, ça peut signifier beaucoup de choses : être convivial, s’engager pour la paix ou encore partager des choses positives et pas uniquement des jugements négatifs. 
+Bref, lorsque ton cœur est près de Dieu, ta foi est plus attractive pour les autres et le boulot dans l’église sera fait d’une bonne manière !</t>
+  </si>
+  <si>
+    <t>Certains parlent de Dieu d’une mauvaise façon en disant notamment que la résurrection finale a déjà eu lieu. On a un peu de la peine à le croire; pourtant grâce à des astuces de langage, grâce à leur art rhétorique, ils arrivent à ébranler la foi de personnes pas très sûres d'elles et peu affermies. On pourrait vraiment avoir peur de ces gens qui bourlinguent dans les églises et flouent beaucoup de croyants. Mais, en fait, n’ayons pas peur! Dieu a donné une fondation stable à chaque Chrétien: il/elle appartient à Dieu, Seigneur du monde. C’est écrit sur un sceau par lequel les croyants sont – d’une façon figurative – marqués. Wow ! 
+Pour Paul, la foi est également quelque chose qu’il faut construire, patiemment, jour après jour. Il y a plusieurs manières de procéder ; ce qui compte c’est de passer du temps avec Dieu, pour se laisser façonner par lui. Pour Paul, la méditation de la Bible et la prière est également prioritaire (2 Timothée 3,16). Dieu donne donc des moyens à son peuple pour qu’il évite de se laisser embarquer dans des arguments tendancieux et autres provocations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Comment te sens-tu, quand tu entends que tu appartiens à Dieu ? 
+Qu'est-ce qui pourrait t’aider à devenir plus assuré dans ta foi en Dieu ?</t>
+  </si>
+  <si>
+    <t>On vit dans un temps où il y a beaucoup d’opinions différentes et on ne sait pas vraiment ce qui est important dans la vie. A l’époque de Paul, c’était la même chose et heureusement qu’il est là pour Timothée. Il peut lui donner trois conseils précieux qui vont l’aider à s’orienter.
+Premièrement, Timothée peut compter sur Paul lui-même, qui a été un vrai exemple pour lui et qui a été persécuté pour sa croyance. Deuxièmement il peut se fier aux valeurs et aux choses qu’il a apprises depuis son enfance. Et troisièmement il peut s’appuyer sur les Saintes Écritures. À l’époque c’étaient les livres de la première partie de la Bible. Aujourd’hui pour les Chrétiens, c’est la totalité de la Bible.
+La Bible nous montre comment nous pouvons vivre pour Dieu, ce qui veut dire : comment le servir. De plus elle nous montre ce qui est important pour nous dans nos vies. Elle nous montre encore comment Dieu veut mettre de l’ordre dans notre passé et nous sauver de tout ce que nous pensons et faisons de mal. Et ce n’est pas tout ! A toi de découvrir d'autres choses encore!</t>
+  </si>
+  <si>
+    <t>La serrure est fracturée, la porte est grand ouverte, ta chambre ressemble à un vrai chaos. Voilà, une mauvaise surprise !
+Tout aussi choqués seront celles et ceux qui vivent sans Dieu au moment où Jésus, le Fils de Dieu, reviendra sur la Terre. Au jour dit « du Seigneur », quand Dieu, le chef du monde jugera la vie de chaque homme. Il décidera entre deux destins : « mort éternelle » ou « vie éternelle ».
+Seul celui qui vivait déjà avec Dieu auparavant recevra la vie éternelle, car Jésus va pouvoir dire : « Je le connais. Je lui ai pardonné tous se péchés, parce qu’il me l’a demandé. J’ai été exécuté à la croix pour ses péchés. C’est pourquoi il peut recevoir la vie éternelle. »
+Alors Paul écrit à ces Chrétiens : « Continuez à vivre avec Dieu ! Soyez bien réveillés et ne vivez pas seulement au jour le jour. Fixez les yeux sur cette rencontre future avec Jésus. »</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beaucoup ont perdu la vie dans le Déluge. Cela a été un événement terrible, bien loin des histoires pour enfants que l’on nous raconte parfois. Du coup, cette promesse qu’il n’y aurait plus jamais de destruction de ce genre sonne presque un peu trop bien pour être vraie, non ?
+Dieu aurait-il eu des remords ? Après un premier sentiment de vengeance, Dieu serait-il parvenu à la raison ? Se dit-il que même si l’homme ne s’améliorera pas énormément, il n’est pas si mauvais pour autant ? Bonnes questions ! 
+Dieu savait dès le début ce qui allait arriver. Sa manière sévère d’intervenir nous montre que le péché a des conséquences dramatiques et n’est pas une réalité à prendre à la légère. On l’oublie peut-être un peu parfois. 
+Mais avant tout, Dieu ne veut pas en rester là. Il a un plan de salut pour les hommes qui va aboutir dans une alliance encore plus forte que l’arc-en-ciel, avec  la venue de son Fils parmi nous. 
+Pour en savoir plus sur ce plan tu peux lire comment Paul le présente dans une de ses lettres (Colossiens 1,15-20).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacob est en fuite. La raison? À son époque, la coutume était qu'un père donne sa bénédiction à son fils aîné. Il lui transmettait ainsi l'autorité du chef de famille et le plaçait à la tête de tous ses biens. Or Jacob avait volé par ruse cette bénédiction à son frère Esaü (Genèse 27). Du coup, il est obligé de prendre précipitamment la fuite pour ne pas tomber entre les mains de son frère. 
+Mais au cours de sa fuite, Jacob voit s'ouvrir une nouvelle perspective. Dieu le rencontre et lui dévoile ses plans pour les êtres humains. Comme son grand-père Abraham, Jacob reçoit lui aussi la promesse d'une descendance innombrable. Dans cette promesse spécifique, il y a déjà une dimension qui concerne tous les êtres humains sur terre: à travers l'histoire du peuple d'Israël qui descend de Jacob, toute l'humanité pourra découvrir l'amour de Dieu envers les hommes. </t>
+  </si>
+  <si>
+    <t>Jacob n'est pas très à l'aise à l'idée de retrouver son frère Esaü. Longtemps auparavant, il lui avait quant volé un truc plutôt important! (Genèse 27). Du coup, il est dans ses petits souliers. Il ignore quelle sera la réaction de son frère, il est donc prêt à tout envisager. Il entreprend quantité de démarches qui lui paraissent susceptibles de gagner la faveur de son frère, quelque soit le prix.
+A posteriori, on se rend compte que ça n'aurait même pas été nécessaire: Esaü ne manifeste aucune mauvaise intention à l'égard de Jacob. Contre toute attente, ce sont des retrouvailles touchantes qui ont lieu. Dieu avait d'avance veillé à cela. Il n'aurait pas permis à Esaü de faire du mal à Jacob – et cela, Jacob aurait même pu le savoir. Jacob assure ses arrières et cherche à se protéger par lui-même plutôt que de faire entièrement confiance à Dieu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tu viens de faire la connaissance de Moïse. Son nom revient 750 fois dans la Bible. C'est donc un personnage plutôt important. Avec lui, Dieu écrit une partie importante de l'histoire d'Israël. Bon, nous n'en sommes pas encore là... Tu as lu que Moïse est un bébé qui n'aurait pas eu, à vrai dire, le droit d’exister. Les circonstances de sa naissance n'auraient pas pu être pires : il est du mauvais sexe et il possède les mauvaises origines. Le Pharaon, roi d’Egypte, a en effet ordonné de tuer tous les jeunes Hébreux mâles directement après leur naissance car il a peur que le peuple hébreu, exilé en Egypte, ne devienne trop puissant. Il se sent menacé. 
+Le courage et l’audace de la sœur de Moïse va lui sauver la vie ! Pour cela elle n’hésite pas à aller à l’encontre de l’autorité du roi d’Egypte et de ses lois. Cette action va s’avérer décisive car Moïse devient plus tard le chef du peuple hébreu et c’est lui qui va le guider hors d’Egypte. Sans lui, sans sa sœur et sans la fille du Pharaon ( !), pas de libération pour le peuple de Dieu. </t>
+  </si>
+  <si>
+    <t>1 Qui a cru à la nouvelle que nous avons apprise ? Qui a reconnu la puissance du SEIGNEUR ?
+2 Devant le SEIGNEUR, le serviteur a grandi comme une petite plante, comme une racine qui sort d'une terre sèche. Il n'avait ni la beauté ni le prestige qui attirent les regards. Son apparence n'avait rien pour nous plaire.
+3 Tout le monde le méprisait et l'évitait. C'était un homme qui souffrait, habitué à la douleur. Il était comme quelqu'un que personne ne veut regarder. Nous le méprisions, nous le comptions pour rien.
+4 Pourtant, ce sont nos maladies qu'il supportait, c'est de notre souffrance qu'il s'était chargé. Et nous, nous pensions : c'est Dieu qui le punit de cette façon, c'est Dieu qui le frappe et l'abaisse.
+5 Mais il était blessé à cause de nos fautes, il était écrasé à cause de nos péchés. La punition qui nous donne la paix est tombée sur lui. Et c'est par ses blessures que nous sommes guéris.
+6 Nous étions tous comme des moutons perdus, chacun suivait son propre chemin. Et le SEIGNEUR a fait retomber sur lui nos fautes à nous tous.
+7 On l'a fait souffrir, mais lui, il a accepté cela, il a gardé le silence. Comme un agneau qu'on mène à l'abattoir, comme un mouton qui ne crie pas quand on lui coupe sa laine, il a gardé le silence.
+8 On l'a arrêté, jugé, puis supprimé. Mais qui a fait attention à ce qui lui arrivait ? Oui, on l'a enlevé du monde des vivants. Il a été frappé à mort à cause des fautes de son peuple.
+9 Il a été enterré avec les gens mauvais. Sa tombe est avec les riches. Pourtant, il n'avait rien fait de mal et il n'avait jamais trompé personne.
+10 Mais le SEIGNEUR donne raison à son serviteur écrasé. Et il a rétabli celui qui avait offert sa vie à la place des autres. Son serviteur aura des enfants et il vivra encore longtemps. Par lui, le SEIGNEUR réalisera son projet.
+11 À cause des souffrances qu'il a supportées, il verra la lumière, il sera rempli de bonheur. Mon serviteur, le vrai juste, rendra justes un grand nombre de gens, parce qu'il s'est chargé de leurs péchés.
+12 C'est pourquoi je le mets au rang des plus grands. Il partagera les richesses des ennemis avec les puissants. En effet, il a accepté librement de mourir et d'être mis avec les bandits. Oui, il a porté les péchés de beaucoup de gens et il est intervenu pour les coupables</t>
+  </si>
+  <si>
+    <t>Le film de Jean serait-il un « happy end » ? Non, pas du tout ; il s’agit d’un « happy beginning » !  C’est vrai qu’il y aura une fin, mais seulement pour notre monde d’ici-bas. Ce qui compte, c’est le recommencement : Dieu va créer un monde nouveau. Nous avons l’habitude de parler du « ciel », mais il s’agit en fait d’un monde nouveau où Dieu est présent. C’est pourquoi il est question d’une « nouvelle Jérusalem ». 
+En effet, à Jérusalem, au temple, Dieu a habité au milieu de son peuple. Dans la nouvelle Jérusalem, la mort n’existera plus, personne ne tombera plus malade ; il n’y aura plus de cris suite à des malheurs et on ne sera plus méprisé par des personnes de son entourage. C’est comme Noël : nous recevrons un cadeau attendu depuis longtemps.</t>
+  </si>
+  <si>
+    <t>Le film de Jean se poursuit et nous voici dans le dernier épisode de l’histoire de l’univers. La question se pose : est-ce que ces événements se passent déjà maintenant dans la dimension invisible de Dieu ou seulement dans le futur. Ou l’un et l’autre? Ces choses se passent déjà partiellement maintenant et elles seront pleinement vécues dans le futur. En tout les cas, dans ce texte il y a la présence d'une voix venant du trône qui crée une bonne atmosphère pour Dieu, une atmosphère de louange où tous jubilent en Son honneur. 
+En effet, Il a vaincu tous les ennemis humains ainsi que tous les esprits méchants et les puissances. Il règne ! Tout se déroule comme il l’avait prévu pour nous depuis toujours : du travail sans stress, des relations respectueuses, des activités sans blessures et une pleine communion avec Dieu. En même temps, Dieu se marie (au sens figuré) : sa fiancée est l’Eglise universelle. Sont invités tous ceux qui ont partagé la vie avec Dieu et Jésus sur terre. Dès aujourd’hui, Jésus t’invite à vivre désormais avec lui et à prendre part à la fête.</t>
+  </si>
+  <si>
+    <t>Avoir de bons amis ; bénéficier de relations harmonieuses avec les personnes qui te sont proches ; faire des expériences avec Dieu de manière si intime que tu en restes ébahi. Est-ce que tu vis de tels moments où tout marche et où Dieu est tout pour toi ? Dans ces moments-là, c’est comme un avant-goût du ciel sur la terre et Dieu nous promet réellement de vivre parfois ce genre de moments. Mais d’abord, nous devons nous battre. Pour Jésus et  contre les passions et autres fausses dépendances de ce monde. Dans ce combat, nous sommes souvent mis en difficulté et éclaboussés par le Mal. Nous avons donc un grand besoin de pardon. C’est pourquoi nous trouvons également dans ce texte l’image du lavement des vêtements. A la fin, celui et celle qui a réussi louera Dieu, en compagnie de tous les anges. Cela aura lieu dans le nouveau monde de Dieu qui viendra lorsqu'Il l'aura décidé.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le film continue. Dans cette scène, Dieu donne un ordre à Jean. Il doit écrire une lettre à deux églises différentes, l’une paraît méprisable et l’autre a de la « classe », du moins en apparence ! La première Eglise (celle de Philadelphie en Asie mineure) souffre parce qu’elle est attaquée par des prétendus juifs. Mais cette communauté reste attachée à Jésus (v.10). Jésus est fier de cette Eglise. L’autre Eglise établie dans la riche ville de Laodicée est plus cool. Même trop cool ! 
+Celui qui vit dans l’abondance est guetté par l’orgueil. Et Dieu réagit : « ça me fait vomir ! » (v.16). Dans le genre direct et radical, Dieu est plutôt pas mal ! Et pourtant il est toujours rempli d’amour (v.19). Il aimerait bien discuter entre quatre yeux avec des chrétiens qui sont "cool". Peut-être autour d’un bon repas (v.20). Ose lui ouvrir la porte quand il frappe pour pouvoir prendre le temps de te laisser examiner par Lui. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> « Moi, je ne crois pas en Dieu si je ne le vois pas ! » C'est une phrase qu'on entend assez souvent. Il faut savoir que Dieu agit souvent de manière cachée. Il se manifeste dans nos pensées et nos sentiments. Ou au travers d’autres personnes. Parfois aussi au travers de rêves ou de visions intérieures. Jean, un ami proche de Jésus lorsque ce dernier vivait sur terre, a eu une telle vision. 
+Alors qu'il se trouve  sur l’île grecque de Patmos, Jean revoit Jésus dans une vision. Jean serait-il en transe ? Peut-être expérimente-t-il une sorte de rêve, en plein jour ! Il voit Jésus dans des habits somptueux, le visage qui brille et les pieds en or. Tout cela est renversant pour Jean,…et pour nous ! Jésus lui confie un message important. Et là, le film démarre vraiment. Nous pouvons y prendre part, ici, dans le livre de l’Apocalypse.</t>
+  </si>
+  <si>
+    <t>Dieu habite en celui et en celle qui croit que Jésus est le Fils de Dieu et qui marche avec Lui, dans Ses pas. Comme Dieu est amour, cela veut dire que l’amour vit dans cette personne. L’amour vrai et véritable, est patient, jamais égoïste. Il n’abandonne personne. Cet amour-là est en toi. Tu y crois ? « Oui, mais moi je ne sens rien ! » te diras-tu peut-être. Peu importe ! L’amour véritable est plus qu’un sentiment. L’amour est un style de vie qui veut le meilleur pour Dieu, pour les autres et pour soi-même. 
+Ce style a été inscrit dans ton cœur.  Il y a encore plus : cet amour tue toutes les peurs. La peur que nous devons avoir lorsque nous refléchissons au fait que Dieu jugera nos vies à la fin et que chaque faute sera mise à la lumière. Cette peur s’envole lorsque nous saisissons de plus en plus que Dieu nous aime. Cet amour nous motive à aimer également les autres. Love-Style !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On dit toujours qu’il faut uniquement croire en Jésus pour appartenir à Dieu. C’est vrai ! Mais Jacques qui est responsable d’église écrit la chose suivante : « Si tu ne fais rien, ta foi ne vaut rien ! » C’est vrai aussi ! Et ce n’est pas une contradiction!
+Est-ce que tu as déjà été amoureux ou amoureuse une fois ? Dans ce cas-là, tu sais que tu ferais presque tout pour celui ou celle que tu aimes. C’est exactement la même chose avec la foi et l’amour envers Dieu. On a envie de montrer par des actes que l’on aime Dieu. Un peu de la même manière que tu montres que tu aimes ton amoureux (-euse).  
+Jacques présente des exemples très forts qui mêlent foi et action : Abraham, le père d’Israël, était prêt à sacrifier son fils lorsque Dieu le lui a demandé, tellement il aimait Dieu. La prostituée Rahab a protégé dans sa maison deux Israélites qui étaient ses ennemis, car elle a cru en Dieu plus qu’aux dieux de son pays. 
+L’amour envers Dieu est vrai seulement s’il devient visible dans des actes. 
+</t>
   </si>
 </sst>
 </file>
@@ -10680,8 +10687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" topLeftCell="M96" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="N96" sqref="N96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -10705,10 +10712,10 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15">
       <c r="A1" s="55" t="s">
-        <v>630</v>
+        <v>602</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>631</v>
+        <v>603</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>121</v>
@@ -10726,7 +10733,7 @@
         <v>115</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>629</v>
+        <v>601</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>117</v>
@@ -10775,10 +10782,10 @@
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>343</v>
@@ -10790,10 +10797,10 @@
         <v>351</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="O2" s="45" t="s">
-        <v>592</v>
+        <v>564</v>
       </c>
       <c r="P2" s="20"/>
     </row>
@@ -10819,10 +10826,10 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>345</v>
@@ -10834,10 +10841,10 @@
         <v>352</v>
       </c>
       <c r="N3" s="45" t="s">
-        <v>684</v>
+        <v>651</v>
       </c>
       <c r="O3" s="45" t="s">
-        <v>593</v>
+        <v>565</v>
       </c>
       <c r="P3" s="18"/>
     </row>
@@ -10863,10 +10870,10 @@
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K4" s="24" t="s">
         <v>347</v>
@@ -10878,10 +10885,10 @@
         <v>349</v>
       </c>
       <c r="N4" s="45" t="s">
-        <v>685</v>
+        <v>652</v>
       </c>
       <c r="O4" s="34" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="P4" s="18"/>
     </row>
@@ -10896,7 +10903,7 @@
         <v>67</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>633</v>
+        <v>605</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>216</v>
@@ -10907,25 +10914,25 @@
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
       <c r="I5" s="23" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>633</v>
+        <v>605</v>
       </c>
       <c r="L5" s="44" t="s">
-        <v>632</v>
+        <v>604</v>
       </c>
       <c r="M5" s="34" t="s">
         <v>350</v>
       </c>
       <c r="N5" s="56" t="s">
-        <v>686</v>
+        <v>769</v>
       </c>
       <c r="O5" s="56" t="s">
-        <v>634</v>
+        <v>606</v>
       </c>
       <c r="P5" s="18"/>
     </row>
@@ -10940,7 +10947,7 @@
         <v>68</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>635</v>
+        <v>607</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>217</v>
@@ -10951,25 +10958,25 @@
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>635</v>
+        <v>607</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>636</v>
+        <v>608</v>
       </c>
       <c r="M6" s="37" t="s">
         <v>353</v>
       </c>
       <c r="N6" s="57" t="s">
-        <v>680</v>
+        <v>647</v>
       </c>
       <c r="O6" s="57" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="P6" s="18"/>
     </row>
@@ -10995,10 +11002,10 @@
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="23" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K7" s="22" t="s">
         <v>354</v>
@@ -11010,10 +11017,10 @@
         <v>355</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>687</v>
+        <v>653</v>
       </c>
       <c r="O7" s="43" t="s">
-        <v>595</v>
+        <v>567</v>
       </c>
       <c r="P7" s="18"/>
     </row>
@@ -11039,10 +11046,10 @@
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>357</v>
@@ -11054,10 +11061,10 @@
         <v>359</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>596</v>
+        <v>568</v>
       </c>
       <c r="P8" s="18"/>
     </row>
@@ -11083,10 +11090,10 @@
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>360</v>
@@ -11098,10 +11105,10 @@
         <v>361</v>
       </c>
       <c r="N9" s="43" t="s">
-        <v>689</v>
+        <v>655</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>597</v>
+        <v>569</v>
       </c>
       <c r="P9" s="18"/>
     </row>
@@ -11127,10 +11134,10 @@
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K10" s="24" t="s">
         <v>365</v>
@@ -11142,10 +11149,10 @@
         <v>364</v>
       </c>
       <c r="N10" s="43" t="s">
-        <v>690</v>
+        <v>770</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="P10" s="18"/>
     </row>
@@ -11171,10 +11178,10 @@
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>366</v>
@@ -11186,10 +11193,10 @@
         <v>368</v>
       </c>
       <c r="N11" s="32" t="s">
-        <v>691</v>
+        <v>771</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="P11" s="18"/>
     </row>
@@ -11215,10 +11222,10 @@
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
       <c r="I12" s="23" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>369</v>
@@ -11230,10 +11237,10 @@
         <v>371</v>
       </c>
       <c r="N12" s="32" t="s">
-        <v>692</v>
+        <v>656</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>600</v>
+        <v>572</v>
       </c>
       <c r="P12" s="18"/>
     </row>
@@ -11259,10 +11266,10 @@
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>373</v>
@@ -11274,10 +11281,10 @@
         <v>372</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>693</v>
+        <v>657</v>
       </c>
       <c r="O13" s="32" t="s">
-        <v>601</v>
+        <v>573</v>
       </c>
       <c r="P13" s="18"/>
     </row>
@@ -11303,10 +11310,10 @@
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>377</v>
@@ -11318,10 +11325,10 @@
         <v>375</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>694</v>
+        <v>658</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>602</v>
+        <v>574</v>
       </c>
       <c r="P14" s="18"/>
     </row>
@@ -11347,10 +11354,10 @@
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K15" s="22" t="s">
         <v>379</v>
@@ -11362,10 +11369,10 @@
         <v>378</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>695</v>
+        <v>659</v>
       </c>
       <c r="O15" s="32" t="s">
-        <v>603</v>
+        <v>575</v>
       </c>
       <c r="P15" s="18"/>
     </row>
@@ -11391,10 +11398,10 @@
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K16" s="12" t="s">
         <v>382</v>
@@ -11406,10 +11413,10 @@
         <v>381</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>696</v>
+        <v>660</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>604</v>
+        <v>576</v>
       </c>
       <c r="P16" s="18"/>
     </row>
@@ -11435,10 +11442,10 @@
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K17" s="22" t="s">
         <v>297</v>
@@ -11450,10 +11457,10 @@
         <v>315</v>
       </c>
       <c r="N17" s="39" t="s">
-        <v>697</v>
+        <v>772</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>605</v>
+        <v>577</v>
       </c>
       <c r="P17" s="18"/>
     </row>
@@ -11479,10 +11486,10 @@
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K18" s="40" t="s">
         <v>299</v>
@@ -11494,10 +11501,10 @@
         <v>314</v>
       </c>
       <c r="N18" s="39" t="s">
-        <v>698</v>
+        <v>661</v>
       </c>
       <c r="O18" s="39" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="P18" s="18"/>
     </row>
@@ -11523,10 +11530,10 @@
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K19" s="40" t="s">
         <v>316</v>
@@ -11538,10 +11545,10 @@
         <v>321</v>
       </c>
       <c r="N19" s="40" t="s">
-        <v>699</v>
+        <v>662</v>
       </c>
       <c r="O19" s="39" t="s">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="P19" s="18"/>
     </row>
@@ -11567,10 +11574,10 @@
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K20" s="40" t="s">
         <v>318</v>
@@ -11582,10 +11589,10 @@
         <v>320</v>
       </c>
       <c r="N20" s="39" t="s">
-        <v>700</v>
+        <v>663</v>
       </c>
       <c r="O20" s="39" t="s">
-        <v>608</v>
+        <v>580</v>
       </c>
       <c r="P20" s="18"/>
     </row>
@@ -11611,10 +11618,10 @@
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K21" s="40" t="s">
         <v>322</v>
@@ -11626,10 +11633,10 @@
         <v>324</v>
       </c>
       <c r="N21" s="39" t="s">
-        <v>701</v>
+        <v>664</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>609</v>
+        <v>581</v>
       </c>
       <c r="P21" s="18"/>
     </row>
@@ -11655,10 +11662,10 @@
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K22" s="22" t="s">
         <v>325</v>
@@ -11670,10 +11677,10 @@
         <v>328</v>
       </c>
       <c r="N22" s="39" t="s">
-        <v>702</v>
+        <v>665</v>
       </c>
       <c r="O22" s="39" t="s">
-        <v>610</v>
+        <v>582</v>
       </c>
       <c r="P22" s="18"/>
     </row>
@@ -11699,10 +11706,10 @@
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K23" s="22" t="s">
         <v>329</v>
@@ -11714,10 +11721,10 @@
         <v>331</v>
       </c>
       <c r="N23" s="40" t="s">
-        <v>703</v>
+        <v>666</v>
       </c>
       <c r="O23" s="39" t="s">
-        <v>611</v>
+        <v>583</v>
       </c>
       <c r="P23" s="18"/>
     </row>
@@ -11743,10 +11750,10 @@
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K24" s="22" t="s">
         <v>332</v>
@@ -11758,10 +11765,10 @@
         <v>334</v>
       </c>
       <c r="N24" s="40" t="s">
-        <v>704</v>
+        <v>667</v>
       </c>
       <c r="O24" s="39" t="s">
-        <v>612</v>
+        <v>584</v>
       </c>
       <c r="P24" s="18"/>
     </row>
@@ -11787,10 +11794,10 @@
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K25" s="40" t="s">
         <v>335</v>
@@ -11802,10 +11809,10 @@
         <v>336</v>
       </c>
       <c r="N25" s="39" t="s">
-        <v>705</v>
+        <v>668</v>
       </c>
       <c r="O25" s="39" t="s">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="P25" s="18"/>
     </row>
@@ -11831,10 +11838,10 @@
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="K26" s="24" t="s">
         <v>339</v>
@@ -11846,10 +11853,10 @@
         <v>341</v>
       </c>
       <c r="N26" s="39" t="s">
-        <v>706</v>
+        <v>669</v>
       </c>
       <c r="O26" s="39" t="s">
-        <v>614</v>
+        <v>586</v>
       </c>
       <c r="P26" s="18"/>
     </row>
@@ -11875,10 +11882,10 @@
       <c r="G27" s="52"/>
       <c r="H27" s="52"/>
       <c r="I27" s="23" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="K27" s="24" t="s">
         <v>264</v>
@@ -11890,10 +11897,10 @@
         <v>266</v>
       </c>
       <c r="N27" s="32" t="s">
-        <v>707</v>
+        <v>670</v>
       </c>
       <c r="O27" s="32" t="s">
-        <v>615</v>
+        <v>587</v>
       </c>
       <c r="P27" s="18"/>
     </row>
@@ -11919,10 +11926,10 @@
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
       <c r="I28" s="23" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="K28" s="24" t="s">
         <v>267</v>
@@ -11934,10 +11941,10 @@
         <v>269</v>
       </c>
       <c r="N28" s="32" t="s">
-        <v>708</v>
+        <v>671</v>
       </c>
       <c r="O28" s="32" t="s">
-        <v>616</v>
+        <v>588</v>
       </c>
       <c r="P28" s="18"/>
     </row>
@@ -11963,10 +11970,10 @@
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>270</v>
@@ -11978,10 +11985,10 @@
         <v>272</v>
       </c>
       <c r="N29" s="32" t="s">
-        <v>709</v>
+        <v>672</v>
       </c>
       <c r="O29" s="32" t="s">
-        <v>617</v>
+        <v>589</v>
       </c>
       <c r="P29" s="18"/>
     </row>
@@ -12007,10 +12014,10 @@
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
       <c r="I30" s="23" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>273</v>
@@ -12022,10 +12029,10 @@
         <v>275</v>
       </c>
       <c r="N30" s="32" t="s">
-        <v>710</v>
+        <v>673</v>
       </c>
       <c r="O30" s="34" t="s">
-        <v>618</v>
+        <v>590</v>
       </c>
       <c r="P30" s="18"/>
     </row>
@@ -12051,10 +12058,10 @@
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>276</v>
@@ -12066,7 +12073,7 @@
         <v>278</v>
       </c>
       <c r="N31" s="32" t="s">
-        <v>711</v>
+        <v>674</v>
       </c>
       <c r="O31" s="32" t="s">
         <v>279</v>
@@ -12098,7 +12105,7 @@
         <v>251</v>
       </c>
       <c r="J32" s="25" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>252</v>
@@ -12110,10 +12117,10 @@
         <v>255</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>712</v>
+        <v>675</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>619</v>
+        <v>591</v>
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="27"/>
@@ -12154,13 +12161,13 @@
         <v>251</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>262</v>
       </c>
       <c r="L33" s="58" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="M33" s="26" t="s">
         <v>256</v>
@@ -12169,7 +12176,7 @@
         <v>257</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>620</v>
+        <v>592</v>
       </c>
       <c r="P33" s="6"/>
       <c r="Q33" s="27"/>
@@ -12210,7 +12217,7 @@
         <v>251</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K34" s="5" t="s">
         <v>254</v>
@@ -12222,10 +12229,10 @@
         <v>259</v>
       </c>
       <c r="N34" s="32" t="s">
-        <v>713</v>
+        <v>676</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>621</v>
+        <v>593</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>261</v>
@@ -12268,7 +12275,7 @@
         <v>251</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>280</v>
@@ -12280,10 +12287,10 @@
         <v>306</v>
       </c>
       <c r="N35" s="32" t="s">
-        <v>714</v>
+        <v>677</v>
       </c>
       <c r="O35" s="26" t="s">
-        <v>622</v>
+        <v>594</v>
       </c>
       <c r="P35" s="6"/>
       <c r="Q35" s="27"/>
@@ -12324,7 +12331,7 @@
         <v>251</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K36" s="12" t="s">
         <v>282</v>
@@ -12336,10 +12343,10 @@
         <v>305</v>
       </c>
       <c r="N36" s="32" t="s">
-        <v>715</v>
+        <v>678</v>
       </c>
       <c r="O36" s="26" t="s">
-        <v>623</v>
+        <v>595</v>
       </c>
       <c r="P36" s="6"/>
       <c r="Q36" s="27"/>
@@ -12380,7 +12387,7 @@
         <v>250</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>284</v>
@@ -12392,10 +12399,10 @@
         <v>304</v>
       </c>
       <c r="N37" s="32" t="s">
-        <v>716</v>
+        <v>679</v>
       </c>
       <c r="O37" s="32" t="s">
-        <v>624</v>
+        <v>596</v>
       </c>
       <c r="P37" s="6"/>
       <c r="Q37" s="27"/>
@@ -12436,7 +12443,7 @@
         <v>250</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>286</v>
@@ -12451,7 +12458,7 @@
         <v>288</v>
       </c>
       <c r="O38" s="32" t="s">
-        <v>625</v>
+        <v>597</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>289</v>
@@ -12494,7 +12501,7 @@
         <v>250</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K39" s="9" t="s">
         <v>290</v>
@@ -12509,7 +12516,7 @@
         <v>292</v>
       </c>
       <c r="O39" s="26" t="s">
-        <v>626</v>
+        <v>598</v>
       </c>
       <c r="P39" s="6"/>
       <c r="Q39" s="27"/>
@@ -12550,7 +12557,7 @@
         <v>250</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>293</v>
@@ -12562,10 +12569,10 @@
         <v>301</v>
       </c>
       <c r="N40" s="32" t="s">
-        <v>762</v>
+        <v>714</v>
       </c>
       <c r="O40" s="32" t="s">
-        <v>761</v>
+        <v>713</v>
       </c>
       <c r="P40" s="6"/>
       <c r="Q40" s="27"/>
@@ -12606,7 +12613,7 @@
         <v>250</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>295</v>
@@ -12618,10 +12625,10 @@
         <v>308</v>
       </c>
       <c r="N41" s="32" t="s">
-        <v>763</v>
+        <v>715</v>
       </c>
       <c r="O41" s="32" t="s">
-        <v>627</v>
+        <v>599</v>
       </c>
       <c r="P41" s="6"/>
       <c r="Q41" s="27"/>
@@ -12662,7 +12669,7 @@
         <v>116</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K42" s="5" t="s">
         <v>124</v>
@@ -12674,10 +12681,10 @@
         <v>309</v>
       </c>
       <c r="N42" s="26" t="s">
-        <v>764</v>
+        <v>716</v>
       </c>
       <c r="O42" s="26" t="s">
-        <v>628</v>
+        <v>600</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>138</v>
@@ -12708,7 +12715,7 @@
         <v>116</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>140</v>
@@ -12720,10 +12727,10 @@
         <v>307</v>
       </c>
       <c r="N43" s="26" t="s">
-        <v>765</v>
+        <v>717</v>
       </c>
       <c r="O43" s="26" t="s">
-        <v>637</v>
+        <v>609</v>
       </c>
       <c r="P43" s="6"/>
     </row>
@@ -12752,7 +12759,7 @@
         <v>116</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K44" s="9" t="s">
         <v>142</v>
@@ -12764,10 +12771,10 @@
         <v>310</v>
       </c>
       <c r="N44" s="26" t="s">
-        <v>766</v>
+        <v>718</v>
       </c>
       <c r="O44" s="26" t="s">
-        <v>638</v>
+        <v>610</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>145</v>
@@ -12798,7 +12805,7 @@
         <v>116</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K45" s="5" t="s">
         <v>125</v>
@@ -12810,10 +12817,10 @@
         <v>312</v>
       </c>
       <c r="N45" s="26" t="s">
-        <v>767</v>
+        <v>719</v>
       </c>
       <c r="O45" s="26" t="s">
-        <v>639</v>
+        <v>611</v>
       </c>
       <c r="P45" s="4" t="s">
         <v>128</v>
@@ -12844,7 +12851,7 @@
         <v>116</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>131</v>
@@ -12859,7 +12866,7 @@
         <v>134</v>
       </c>
       <c r="O46" s="26" t="s">
-        <v>640</v>
+        <v>612</v>
       </c>
       <c r="P46" s="4" t="s">
         <v>135</v>
@@ -12899,16 +12906,16 @@
         <v>384</v>
       </c>
       <c r="M47" s="36" t="s">
+        <v>773</v>
+      </c>
+      <c r="N47" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="N47" s="32" t="s">
-        <v>386</v>
-      </c>
       <c r="O47" s="32" t="s">
-        <v>768</v>
+        <v>720</v>
       </c>
       <c r="P47" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q47" s="27"/>
       <c r="R47" s="27"/>
@@ -12934,7 +12941,7 @@
         <v>107</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>154</v>
@@ -12951,19 +12958,19 @@
         <v>146</v>
       </c>
       <c r="K48" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="L48" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="L48" s="12" t="s">
-        <v>388</v>
-      </c>
       <c r="M48" s="33" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N48" s="32" t="s">
-        <v>769</v>
+        <v>721</v>
       </c>
       <c r="O48" s="32" t="s">
-        <v>641</v>
+        <v>613</v>
       </c>
       <c r="P48" s="6"/>
       <c r="Q48" s="27"/>
@@ -13010,19 +13017,19 @@
         <v>109</v>
       </c>
       <c r="L49" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="M49" s="37" t="s">
+        <v>392</v>
+      </c>
+      <c r="N49" s="32" t="s">
+        <v>722</v>
+      </c>
+      <c r="O49" s="32" t="s">
+        <v>614</v>
+      </c>
+      <c r="P49" s="12" t="s">
         <v>391</v>
-      </c>
-      <c r="M49" s="37" t="s">
-        <v>393</v>
-      </c>
-      <c r="N49" s="32" t="s">
-        <v>770</v>
-      </c>
-      <c r="O49" s="32" t="s">
-        <v>642</v>
-      </c>
-      <c r="P49" s="12" t="s">
-        <v>392</v>
       </c>
       <c r="Q49" s="27"/>
       <c r="R49" s="27"/>
@@ -13068,19 +13075,19 @@
         <v>151</v>
       </c>
       <c r="L50" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="M50" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="N50" s="32" t="s">
+        <v>723</v>
+      </c>
+      <c r="O50" s="32" t="s">
+        <v>615</v>
+      </c>
+      <c r="P50" s="12" t="s">
         <v>395</v>
-      </c>
-      <c r="M50" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="N50" s="32" t="s">
-        <v>771</v>
-      </c>
-      <c r="O50" s="32" t="s">
-        <v>643</v>
-      </c>
-      <c r="P50" s="12" t="s">
-        <v>396</v>
       </c>
       <c r="Q50" s="27"/>
       <c r="R50" s="27"/>
@@ -13109,7 +13116,7 @@
         <v>152</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>202</v>
@@ -13126,16 +13133,16 @@
         <v>152</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M51" s="35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N51" s="32" t="s">
-        <v>772</v>
+        <v>724</v>
       </c>
       <c r="O51" s="32" t="s">
-        <v>644</v>
+        <v>616</v>
       </c>
       <c r="P51" s="6"/>
       <c r="Q51" s="27"/>
@@ -13162,7 +13169,7 @@
         <v>36</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>155</v>
@@ -13176,25 +13183,25 @@
         <v>37</v>
       </c>
       <c r="J52" s="25" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K52" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="L52" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="L52" s="12" t="s">
+      <c r="M52" s="41" t="s">
         <v>414</v>
       </c>
-      <c r="M52" s="41" t="s">
+      <c r="N52" s="39" t="s">
+        <v>725</v>
+      </c>
+      <c r="O52" s="40" t="s">
+        <v>617</v>
+      </c>
+      <c r="P52" s="40" t="s">
         <v>415</v>
-      </c>
-      <c r="N52" s="39" t="s">
-        <v>773</v>
-      </c>
-      <c r="O52" s="40" t="s">
-        <v>645</v>
-      </c>
-      <c r="P52" s="40" t="s">
-        <v>416</v>
       </c>
       <c r="Q52" s="27"/>
       <c r="R52" s="27"/>
@@ -13220,7 +13227,7 @@
         <v>38</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>156</v>
@@ -13234,22 +13241,22 @@
         <v>37</v>
       </c>
       <c r="J53" s="25" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K53" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="L53" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="L53" s="12" t="s">
+      <c r="M53" s="41" t="s">
         <v>411</v>
       </c>
-      <c r="M53" s="41" t="s">
-        <v>412</v>
-      </c>
       <c r="N53" s="39" t="s">
-        <v>774</v>
+        <v>726</v>
       </c>
       <c r="O53" s="32" t="s">
-        <v>646</v>
+        <v>618</v>
       </c>
       <c r="P53" s="6"/>
       <c r="Q53" s="27"/>
@@ -13276,7 +13283,7 @@
         <v>39</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E54" s="9" t="s">
         <v>157</v>
@@ -13290,25 +13297,25 @@
         <v>37</v>
       </c>
       <c r="J54" s="25" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K54" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="L54" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="M54" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="L54" s="12" t="s">
+      <c r="N54" s="39" t="s">
+        <v>727</v>
+      </c>
+      <c r="O54" s="39" t="s">
+        <v>619</v>
+      </c>
+      <c r="P54" s="12" t="s">
         <v>408</v>
-      </c>
-      <c r="M54" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="N54" s="39" t="s">
-        <v>775</v>
-      </c>
-      <c r="O54" s="39" t="s">
-        <v>647</v>
-      </c>
-      <c r="P54" s="12" t="s">
-        <v>409</v>
       </c>
       <c r="Q54" s="27"/>
       <c r="R54" s="27"/>
@@ -13334,7 +13341,7 @@
         <v>40</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E55" s="9" t="s">
         <v>158</v>
@@ -13348,22 +13355,22 @@
         <v>37</v>
       </c>
       <c r="J55" s="25" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K55" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="L55" s="40" t="s">
         <v>403</v>
       </c>
-      <c r="L55" s="40" t="s">
+      <c r="M55" s="49" t="s">
         <v>404</v>
       </c>
-      <c r="M55" s="49" t="s">
-        <v>405</v>
-      </c>
       <c r="N55" s="39" t="s">
-        <v>776</v>
+        <v>728</v>
       </c>
       <c r="O55" s="39" t="s">
-        <v>648</v>
+        <v>620</v>
       </c>
       <c r="P55" s="6"/>
       <c r="Q55" s="27"/>
@@ -13390,7 +13397,7 @@
         <v>41</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E56" s="9" t="s">
         <v>159</v>
@@ -13404,22 +13411,22 @@
         <v>37</v>
       </c>
       <c r="J56" s="25" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K56" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="L56" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="L56" s="12" t="s">
+      <c r="M56" s="37" t="s">
         <v>401</v>
       </c>
-      <c r="M56" s="37" t="s">
-        <v>402</v>
-      </c>
       <c r="N56" s="39" t="s">
-        <v>777</v>
+        <v>729</v>
       </c>
       <c r="O56" s="39" t="s">
-        <v>649</v>
+        <v>621</v>
       </c>
       <c r="P56" s="6"/>
       <c r="Q56" s="27"/>
@@ -13446,7 +13453,7 @@
         <v>42</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>160</v>
@@ -13460,22 +13467,22 @@
         <v>148</v>
       </c>
       <c r="J57" s="25" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M57" s="41" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="N57" s="39" t="s">
-        <v>778</v>
+        <v>730</v>
       </c>
       <c r="O57" s="39" t="s">
-        <v>650</v>
+        <v>622</v>
       </c>
       <c r="P57" s="6"/>
       <c r="Q57" s="27"/>
@@ -13502,7 +13509,7 @@
         <v>43</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>161</v>
@@ -13516,25 +13523,25 @@
         <v>148</v>
       </c>
       <c r="J58" s="25" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K58" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="L58" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="L58" s="12" t="s">
+      <c r="M58" s="42" t="s">
         <v>421</v>
       </c>
-      <c r="M58" s="42" t="s">
+      <c r="N58" s="39" t="s">
+        <v>731</v>
+      </c>
+      <c r="O58" s="39" t="s">
+        <v>623</v>
+      </c>
+      <c r="P58" s="12" t="s">
         <v>422</v>
-      </c>
-      <c r="N58" s="39" t="s">
-        <v>779</v>
-      </c>
-      <c r="O58" s="39" t="s">
-        <v>651</v>
-      </c>
-      <c r="P58" s="12" t="s">
-        <v>423</v>
       </c>
       <c r="Q58" s="27"/>
       <c r="R58" s="27"/>
@@ -13560,10 +13567,10 @@
         <v>44</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>204</v>
@@ -13574,22 +13581,22 @@
         <v>148</v>
       </c>
       <c r="J59" s="25" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K59" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="L59" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="L59" s="12" t="s">
-        <v>425</v>
-      </c>
       <c r="M59" s="50" t="s">
+        <v>426</v>
+      </c>
+      <c r="N59" s="39" t="s">
+        <v>732</v>
+      </c>
+      <c r="O59" s="40" t="s">
         <v>427</v>
-      </c>
-      <c r="N59" s="39" t="s">
-        <v>780</v>
-      </c>
-      <c r="O59" s="40" t="s">
-        <v>428</v>
       </c>
       <c r="P59" s="6"/>
       <c r="Q59" s="27"/>
@@ -13616,7 +13623,7 @@
         <v>45</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E60" s="9" t="s">
         <v>162</v>
@@ -13630,22 +13637,22 @@
         <v>148</v>
       </c>
       <c r="J60" s="25" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K60" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="L60" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="M60" s="50" t="s">
         <v>429</v>
       </c>
-      <c r="L60" s="6" t="s">
+      <c r="N60" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="M60" s="50" t="s">
-        <v>430</v>
-      </c>
-      <c r="N60" s="39" t="s">
-        <v>432</v>
-      </c>
       <c r="O60" s="39" t="s">
-        <v>652</v>
+        <v>624</v>
       </c>
       <c r="P60" s="6"/>
       <c r="Q60" s="27"/>
@@ -13672,7 +13679,7 @@
         <v>46</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>163</v>
@@ -13686,25 +13693,25 @@
         <v>148</v>
       </c>
       <c r="J61" s="25" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K61" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="L61" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="L61" s="12" t="s">
+      <c r="M61" s="38" t="s">
         <v>434</v>
       </c>
-      <c r="M61" s="38" t="s">
+      <c r="N61" s="39" t="s">
+        <v>733</v>
+      </c>
+      <c r="O61" s="39" t="s">
+        <v>625</v>
+      </c>
+      <c r="P61" s="40" t="s">
         <v>435</v>
-      </c>
-      <c r="N61" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="O61" s="39" t="s">
-        <v>653</v>
-      </c>
-      <c r="P61" s="40" t="s">
-        <v>437</v>
       </c>
       <c r="Q61" s="27"/>
       <c r="R61" s="27"/>
@@ -13730,7 +13737,7 @@
         <v>47</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E62" s="9" t="s">
         <v>164</v>
@@ -13744,22 +13751,22 @@
         <v>48</v>
       </c>
       <c r="J62" s="25" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K62" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="M62" s="37" t="s">
         <v>438</v>
       </c>
-      <c r="L62" s="6" t="s">
+      <c r="N62" s="32" t="s">
+        <v>734</v>
+      </c>
+      <c r="O62" s="32" t="s">
         <v>439</v>
-      </c>
-      <c r="M62" s="37" t="s">
-        <v>440</v>
-      </c>
-      <c r="N62" s="32" t="s">
-        <v>441</v>
-      </c>
-      <c r="O62" s="32" t="s">
-        <v>442</v>
       </c>
       <c r="P62" s="6"/>
       <c r="Q62" s="27"/>
@@ -13786,7 +13793,7 @@
         <v>49</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>165</v>
@@ -13800,22 +13807,22 @@
         <v>48</v>
       </c>
       <c r="J63" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="L63" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="K63" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="L63" s="12" t="s">
-        <v>446</v>
-      </c>
       <c r="M63" s="36" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="N63" s="39" t="s">
-        <v>449</v>
+        <v>735</v>
       </c>
       <c r="O63" s="40" t="s">
-        <v>450</v>
+        <v>736</v>
       </c>
       <c r="P63" s="6"/>
       <c r="Q63" s="27"/>
@@ -13842,7 +13849,7 @@
         <v>50</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E64" s="9" t="s">
         <v>166</v>
@@ -13856,25 +13863,25 @@
         <v>48</v>
       </c>
       <c r="J64" s="25" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L64" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="M64" s="37" t="s">
         <v>452</v>
       </c>
-      <c r="M64" s="37" t="s">
-        <v>458</v>
-      </c>
       <c r="N64" s="32" t="s">
-        <v>453</v>
+        <v>737</v>
       </c>
       <c r="O64" s="32" t="s">
-        <v>654</v>
+        <v>626</v>
       </c>
       <c r="P64" s="12" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="Q64" s="27"/>
       <c r="R64" s="27"/>
@@ -13900,7 +13907,7 @@
         <v>51</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>167</v>
@@ -13914,22 +13921,22 @@
         <v>48</v>
       </c>
       <c r="J65" s="25" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="M65" s="36" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="N65" s="32" t="s">
-        <v>462</v>
+        <v>738</v>
       </c>
       <c r="O65" s="32" t="s">
-        <v>655</v>
+        <v>627</v>
       </c>
       <c r="P65" s="6"/>
       <c r="Q65" s="27"/>
@@ -13956,7 +13963,7 @@
         <v>52</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E66" s="9" t="s">
         <v>168</v>
@@ -13970,22 +13977,22 @@
         <v>48</v>
       </c>
       <c r="J66" s="25" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="M66" s="37" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="N66" s="32" t="s">
-        <v>459</v>
+        <v>739</v>
       </c>
       <c r="O66" s="32" t="s">
-        <v>656</v>
+        <v>628</v>
       </c>
       <c r="P66" s="6"/>
       <c r="Q66" s="27"/>
@@ -14012,7 +14019,7 @@
         <v>53</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>169</v>
@@ -14029,19 +14036,19 @@
         <v>147</v>
       </c>
       <c r="K67" s="5" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="M67" s="36" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="N67" s="26" t="s">
-        <v>492</v>
+        <v>740</v>
       </c>
       <c r="O67" s="26" t="s">
-        <v>657</v>
+        <v>629</v>
       </c>
       <c r="P67" s="6"/>
       <c r="Q67" s="27"/>
@@ -14068,7 +14075,7 @@
         <v>54</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="E68" s="9" t="s">
         <v>170</v>
@@ -14085,19 +14092,19 @@
         <v>147</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="M68" s="36" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="N68" s="26" t="s">
-        <v>488</v>
+        <v>741</v>
       </c>
       <c r="O68" s="26" t="s">
-        <v>658</v>
+        <v>630</v>
       </c>
       <c r="P68" s="6"/>
       <c r="Q68" s="27"/>
@@ -14124,7 +14131,7 @@
         <v>55</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E69" s="9" t="s">
         <v>171</v>
@@ -14141,19 +14148,19 @@
         <v>147</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="M69" s="36" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="N69" s="26" t="s">
-        <v>475</v>
+        <v>742</v>
       </c>
       <c r="O69" s="26" t="s">
-        <v>659</v>
+        <v>631</v>
       </c>
       <c r="P69" s="6"/>
       <c r="Q69" s="27"/>
@@ -14180,7 +14187,7 @@
         <v>56</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="E70" s="9" t="s">
         <v>172</v>
@@ -14197,19 +14204,19 @@
         <v>147</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="M70" s="36" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="N70" s="26" t="s">
-        <v>485</v>
+        <v>743</v>
       </c>
       <c r="O70" s="26" t="s">
-        <v>660</v>
+        <v>744</v>
       </c>
       <c r="P70" s="6"/>
       <c r="Q70" s="27"/>
@@ -14236,7 +14243,7 @@
         <v>57</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="E71" s="9" t="s">
         <v>173</v>
@@ -14253,19 +14260,19 @@
         <v>147</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="M71" s="36" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="N71" s="26" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="O71" s="26" t="s">
-        <v>661</v>
+        <v>632</v>
       </c>
       <c r="P71" s="6"/>
       <c r="Q71" s="27"/>
@@ -14292,7 +14299,7 @@
         <v>58</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="E72" s="22" t="s">
         <v>174</v>
@@ -14303,29 +14310,29 @@
       <c r="G72" s="23"/>
       <c r="H72" s="23"/>
       <c r="I72" s="23" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="J72" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="M72" s="43" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="N72" s="32" t="s">
-        <v>496</v>
+        <v>745</v>
       </c>
       <c r="O72" s="32" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
       <c r="P72" s="18"/>
     </row>
-    <row r="73" spans="1:28" ht="192">
+    <row r="73" spans="1:28" ht="204">
       <c r="A73" s="55">
         <v>72</v>
       </c>
@@ -14336,7 +14343,7 @@
         <v>59</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="E73" s="22" t="s">
         <v>175</v>
@@ -14347,29 +14354,29 @@
       <c r="G73" s="23"/>
       <c r="H73" s="23"/>
       <c r="I73" s="23" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="J73" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K73" s="24" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="M73" s="32" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="N73" s="43" t="s">
-        <v>501</v>
+        <v>746</v>
       </c>
       <c r="O73" s="34" t="s">
-        <v>663</v>
+        <v>634</v>
       </c>
       <c r="P73" s="18"/>
     </row>
-    <row r="74" spans="1:28" ht="180">
+    <row r="74" spans="1:28" ht="192">
       <c r="A74" s="55">
         <v>73</v>
       </c>
@@ -14380,7 +14387,7 @@
         <v>60</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="E74" s="22" t="s">
         <v>176</v>
@@ -14391,25 +14398,25 @@
       <c r="G74" s="23"/>
       <c r="H74" s="23"/>
       <c r="I74" s="23" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="J74" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="M74" s="35" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="N74" s="32" t="s">
-        <v>505</v>
+        <v>747</v>
       </c>
       <c r="O74" s="32" t="s">
-        <v>664</v>
+        <v>635</v>
       </c>
       <c r="P74" s="18"/>
     </row>
@@ -14424,7 +14431,7 @@
         <v>61</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="E75" s="22" t="s">
         <v>177</v>
@@ -14435,25 +14442,25 @@
       <c r="G75" s="23"/>
       <c r="H75" s="23"/>
       <c r="I75" s="23" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M75" s="36" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="N75" s="32" t="s">
-        <v>508</v>
+        <v>748</v>
       </c>
       <c r="O75" s="32" t="s">
-        <v>665</v>
+        <v>636</v>
       </c>
       <c r="P75" s="18"/>
     </row>
@@ -14468,7 +14475,7 @@
         <v>62</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="E76" s="22" t="s">
         <v>178</v>
@@ -14479,25 +14486,25 @@
       <c r="G76" s="23"/>
       <c r="H76" s="23"/>
       <c r="I76" s="23" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="M76" s="43" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="N76" s="32" t="s">
-        <v>512</v>
+        <v>749</v>
       </c>
       <c r="O76" s="32" t="s">
-        <v>666</v>
+        <v>750</v>
       </c>
       <c r="P76" s="18"/>
     </row>
@@ -14512,7 +14519,7 @@
         <v>63</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="E77" s="22" t="s">
         <v>179</v>
@@ -14523,25 +14530,25 @@
       <c r="G77" s="23"/>
       <c r="H77" s="23"/>
       <c r="I77" s="23" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="J77" s="18" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="K77" s="24" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="M77" s="53" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="N77" s="32" t="s">
-        <v>522</v>
+        <v>751</v>
       </c>
       <c r="O77" s="32" t="s">
-        <v>667</v>
+        <v>637</v>
       </c>
       <c r="P77" s="18"/>
     </row>
@@ -14556,7 +14563,7 @@
         <v>74</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="E78" s="22" t="s">
         <v>180</v>
@@ -14567,25 +14574,25 @@
       <c r="G78" s="23"/>
       <c r="H78" s="23"/>
       <c r="I78" s="23" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="M78" s="36" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="N78" s="32" t="s">
-        <v>526</v>
+        <v>752</v>
       </c>
       <c r="O78" s="32" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
       <c r="P78" s="18"/>
     </row>
@@ -14600,7 +14607,7 @@
         <v>75</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="E79" s="22" t="s">
         <v>181</v>
@@ -14611,25 +14618,25 @@
       <c r="G79" s="23"/>
       <c r="H79" s="23"/>
       <c r="I79" s="23" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="J79" s="18" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="M79" s="36" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="N79" s="32" t="s">
-        <v>530</v>
+        <v>753</v>
       </c>
       <c r="O79" s="32" t="s">
-        <v>531</v>
+        <v>754</v>
       </c>
       <c r="P79" s="18"/>
     </row>
@@ -14644,7 +14651,7 @@
         <v>76</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
       <c r="E80" s="22" t="s">
         <v>182</v>
@@ -14655,25 +14662,25 @@
       <c r="G80" s="23"/>
       <c r="H80" s="23"/>
       <c r="I80" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="J80" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="K80" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="J80" s="18" t="s">
-        <v>518</v>
-      </c>
-      <c r="K80" s="12" t="s">
-        <v>534</v>
-      </c>
       <c r="L80" s="12" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="M80" s="37" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="N80" s="32" t="s">
-        <v>535</v>
+        <v>755</v>
       </c>
       <c r="O80" s="32" t="s">
-        <v>669</v>
+        <v>756</v>
       </c>
       <c r="P80" s="18"/>
     </row>
@@ -14688,10 +14695,10 @@
         <v>77</v>
       </c>
       <c r="D81" s="51" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
       <c r="F81" s="22" t="s">
         <v>208</v>
@@ -14699,25 +14706,25 @@
       <c r="G81" s="23"/>
       <c r="H81" s="23"/>
       <c r="I81" s="23" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="J81" s="18" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="M81" s="36" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="N81" s="32" t="s">
-        <v>540</v>
+        <v>757</v>
       </c>
       <c r="O81" s="32" t="s">
-        <v>670</v>
+        <v>639</v>
       </c>
       <c r="P81" s="18"/>
     </row>
@@ -14732,7 +14739,7 @@
         <v>78</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="E82" s="22" t="s">
         <v>183</v>
@@ -14743,25 +14750,25 @@
       <c r="G82" s="23"/>
       <c r="H82" s="23"/>
       <c r="I82" s="23" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="J82" s="18" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="M82" s="34" t="s">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="N82" s="32" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="O82" s="32" t="s">
-        <v>671</v>
+        <v>758</v>
       </c>
       <c r="P82" s="18"/>
     </row>
@@ -14776,7 +14783,7 @@
         <v>79</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="E83" s="22" t="s">
         <v>184</v>
@@ -14787,25 +14794,25 @@
       <c r="G83" s="23"/>
       <c r="H83" s="23"/>
       <c r="I83" s="23" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="J83" s="18" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>546</v>
+        <v>523</v>
       </c>
       <c r="M83" s="37" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
       <c r="N83" s="43" t="s">
-        <v>549</v>
+        <v>759</v>
       </c>
       <c r="O83" s="32" t="s">
-        <v>547</v>
+        <v>760</v>
       </c>
       <c r="P83" s="18"/>
     </row>
@@ -14820,10 +14827,10 @@
         <v>80</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="F84" s="22" t="s">
         <v>247</v>
@@ -14831,31 +14838,31 @@
       <c r="G84" s="23"/>
       <c r="H84" s="23"/>
       <c r="I84" s="23" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="J84" s="18" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="L84" s="18" t="s">
-        <v>562</v>
+        <v>534</v>
       </c>
       <c r="M84" s="37" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="N84" s="32" t="s">
-        <v>553</v>
+        <v>761</v>
       </c>
       <c r="O84" s="32" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="P84" s="18" t="s">
-        <v>563</v>
+        <v>535</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="156">
+    <row r="85" spans="1:16" ht="144">
       <c r="A85" s="55">
         <v>84</v>
       </c>
@@ -14866,7 +14873,7 @@
         <v>81</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="E85" s="22" t="s">
         <v>185</v>
@@ -14877,29 +14884,29 @@
       <c r="G85" s="23"/>
       <c r="H85" s="23"/>
       <c r="I85" s="23" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="J85" s="18" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>555</v>
+        <v>529</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>554</v>
+        <v>528</v>
       </c>
       <c r="M85" s="37" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="N85" s="32" t="s">
-        <v>557</v>
+        <v>762</v>
       </c>
       <c r="O85" s="32" t="s">
-        <v>673</v>
+        <v>641</v>
       </c>
       <c r="P85" s="18"/>
     </row>
-    <row r="86" spans="1:16" ht="144">
+    <row r="86" spans="1:16" ht="156">
       <c r="A86" s="55">
         <v>85</v>
       </c>
@@ -14910,7 +14917,7 @@
         <v>82</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="E86" s="22" t="s">
         <v>186</v>
@@ -14921,25 +14928,25 @@
       <c r="G86" s="23"/>
       <c r="H86" s="23"/>
       <c r="I86" s="23" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="J86" s="18" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="K86" s="24" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>559</v>
+        <v>532</v>
       </c>
       <c r="M86" s="37" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
       <c r="N86" s="43" t="s">
-        <v>561</v>
+        <v>763</v>
       </c>
       <c r="O86" s="32" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="P86" s="18"/>
     </row>
@@ -14954,7 +14961,7 @@
         <v>83</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>566</v>
+        <v>538</v>
       </c>
       <c r="E87" s="22" t="s">
         <v>187</v>
@@ -14965,28 +14972,28 @@
       <c r="G87" s="23"/>
       <c r="H87" s="23"/>
       <c r="I87" s="23" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="J87" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K87" s="22" t="s">
-        <v>566</v>
+        <v>538</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>565</v>
+        <v>537</v>
       </c>
       <c r="M87" s="36" t="s">
-        <v>564</v>
+        <v>536</v>
       </c>
       <c r="N87" s="32" t="s">
-        <v>717</v>
+        <v>764</v>
       </c>
       <c r="O87" s="32" t="s">
-        <v>675</v>
+        <v>643</v>
       </c>
       <c r="P87" s="18" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="216">
@@ -15000,7 +15007,7 @@
         <v>84</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="E88" s="61" t="s">
         <v>188</v>
@@ -15011,28 +15018,28 @@
       <c r="G88" s="62"/>
       <c r="H88" s="62"/>
       <c r="I88" s="62" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>570</v>
+        <v>542</v>
       </c>
       <c r="L88" s="27" t="s">
-        <v>569</v>
+        <v>541</v>
       </c>
       <c r="M88" s="63" t="s">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="N88" s="68" t="s">
-        <v>759</v>
+        <v>712</v>
       </c>
       <c r="O88" s="64" t="s">
-        <v>718</v>
+        <v>680</v>
       </c>
       <c r="P88" s="65" t="s">
-        <v>571</v>
+        <v>543</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="276">
@@ -15046,7 +15053,7 @@
         <v>85</v>
       </c>
       <c r="D89" s="61" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="E89" s="61" t="s">
         <v>189</v>
@@ -15057,25 +15064,25 @@
       <c r="G89" s="62"/>
       <c r="H89" s="62"/>
       <c r="I89" s="62" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K89" s="61" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="L89" s="64" t="s">
-        <v>719</v>
+        <v>681</v>
       </c>
       <c r="M89" s="63" t="s">
-        <v>572</v>
+        <v>544</v>
       </c>
       <c r="N89" s="68" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="O89" s="65" t="s">
-        <v>676</v>
+        <v>766</v>
       </c>
       <c r="P89" s="6"/>
     </row>
@@ -15090,7 +15097,7 @@
         <v>86</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="E90" s="22" t="s">
         <v>190</v>
@@ -15101,25 +15108,25 @@
       <c r="G90" s="23"/>
       <c r="H90" s="23"/>
       <c r="I90" s="23" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="J90" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="L90" s="18" t="s">
-        <v>720</v>
+        <v>682</v>
       </c>
       <c r="M90" s="36" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="N90" s="43" t="s">
-        <v>722</v>
+        <v>767</v>
       </c>
       <c r="O90" s="51" t="s">
-        <v>721</v>
+        <v>683</v>
       </c>
       <c r="P90" s="18"/>
     </row>
@@ -15134,7 +15141,7 @@
         <v>87</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="E91" s="22" t="s">
         <v>191</v>
@@ -15145,25 +15152,25 @@
       <c r="G91" s="23"/>
       <c r="H91" s="23"/>
       <c r="I91" s="23" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="J91" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K91" s="24" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="L91" s="51" t="s">
-        <v>723</v>
+        <v>684</v>
       </c>
       <c r="M91" s="36" t="s">
-        <v>577</v>
+        <v>549</v>
       </c>
       <c r="N91" s="43" t="s">
-        <v>725</v>
+        <v>768</v>
       </c>
       <c r="O91" s="51" t="s">
-        <v>724</v>
+        <v>685</v>
       </c>
       <c r="P91" s="18"/>
     </row>
@@ -15178,7 +15185,7 @@
         <v>88</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>578</v>
+        <v>550</v>
       </c>
       <c r="E92" s="22" t="s">
         <v>192</v>
@@ -15189,25 +15196,25 @@
       <c r="G92" s="43"/>
       <c r="H92" s="43"/>
       <c r="I92" s="23" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="J92" s="18" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="K92" s="24" t="s">
-        <v>578</v>
+        <v>550</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>583</v>
+        <v>555</v>
       </c>
       <c r="M92" s="36" t="s">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="N92" s="32" t="s">
-        <v>726</v>
+        <v>686</v>
       </c>
       <c r="O92" s="32" t="s">
-        <v>677</v>
+        <v>644</v>
       </c>
       <c r="P92" s="18"/>
     </row>
@@ -15222,7 +15229,7 @@
         <v>89</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
       <c r="E93" s="22" t="s">
         <v>193</v>
@@ -15233,25 +15240,25 @@
       <c r="G93" s="23"/>
       <c r="H93" s="23"/>
       <c r="I93" s="23" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="J93" s="18" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="K93" s="24" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>586</v>
+        <v>558</v>
       </c>
       <c r="M93" s="37" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
       <c r="N93" s="43" t="s">
-        <v>727</v>
+        <v>687</v>
       </c>
       <c r="O93" s="32" t="s">
-        <v>678</v>
+        <v>645</v>
       </c>
       <c r="P93" s="18"/>
     </row>
@@ -15266,7 +15273,7 @@
         <v>90</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>579</v>
+        <v>551</v>
       </c>
       <c r="E94" s="22" t="s">
         <v>194</v>
@@ -15277,25 +15284,25 @@
       <c r="G94" s="23"/>
       <c r="H94" s="23"/>
       <c r="I94" s="23" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="J94" s="18" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="K94" s="24" t="s">
-        <v>579</v>
+        <v>551</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>589</v>
+        <v>561</v>
       </c>
       <c r="M94" s="36" t="s">
-        <v>588</v>
+        <v>560</v>
       </c>
       <c r="N94" s="32" t="s">
-        <v>728</v>
+        <v>688</v>
       </c>
       <c r="O94" s="32" t="s">
-        <v>679</v>
+        <v>646</v>
       </c>
       <c r="P94" s="18"/>
     </row>
@@ -15310,7 +15317,7 @@
         <v>91</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>580</v>
+        <v>552</v>
       </c>
       <c r="E95" s="22" t="s">
         <v>195</v>
@@ -15321,25 +15328,25 @@
       <c r="G95" s="23"/>
       <c r="H95" s="23"/>
       <c r="I95" s="23" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="J95" s="18" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="K95" s="24" t="s">
-        <v>580</v>
+        <v>552</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>591</v>
+        <v>563</v>
       </c>
       <c r="M95" s="36" t="s">
-        <v>590</v>
+        <v>562</v>
       </c>
       <c r="N95" s="43" t="s">
-        <v>729</v>
+        <v>780</v>
       </c>
       <c r="O95" s="51" t="s">
-        <v>730</v>
+        <v>689</v>
       </c>
       <c r="P95" s="18"/>
     </row>
@@ -15354,7 +15361,7 @@
         <v>92</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>581</v>
+        <v>553</v>
       </c>
       <c r="E96" s="22" t="s">
         <v>196</v>
@@ -15365,25 +15372,25 @@
       <c r="G96" s="23"/>
       <c r="H96" s="23"/>
       <c r="I96" s="23" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="J96" s="18" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="K96" s="24" t="s">
-        <v>581</v>
+        <v>553</v>
       </c>
       <c r="L96" s="51" t="s">
-        <v>731</v>
+        <v>690</v>
       </c>
       <c r="M96" s="36" t="s">
-        <v>732</v>
+        <v>691</v>
       </c>
       <c r="N96" s="43" t="s">
-        <v>758</v>
+        <v>779</v>
       </c>
       <c r="O96" s="51" t="s">
-        <v>747</v>
+        <v>706</v>
       </c>
       <c r="P96" s="18"/>
     </row>
@@ -15398,7 +15405,7 @@
         <v>93</v>
       </c>
       <c r="D97" s="51" t="s">
-        <v>735</v>
+        <v>694</v>
       </c>
       <c r="E97" s="22" t="s">
         <v>197</v>
@@ -15409,25 +15416,25 @@
       <c r="G97" s="23"/>
       <c r="H97" s="23"/>
       <c r="I97" s="23" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="J97" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K97" s="51" t="s">
-        <v>735</v>
+        <v>694</v>
       </c>
       <c r="L97" s="51" t="s">
-        <v>734</v>
+        <v>693</v>
       </c>
       <c r="M97" s="67" t="s">
-        <v>733</v>
+        <v>692</v>
       </c>
       <c r="N97" s="43" t="s">
-        <v>757</v>
+        <v>778</v>
       </c>
       <c r="O97" s="51" t="s">
-        <v>748</v>
+        <v>707</v>
       </c>
       <c r="P97" s="18"/>
     </row>
@@ -15442,7 +15449,7 @@
         <v>94</v>
       </c>
       <c r="D98" s="51" t="s">
-        <v>736</v>
+        <v>695</v>
       </c>
       <c r="E98" s="22" t="s">
         <v>198</v>
@@ -15453,25 +15460,25 @@
       <c r="G98" s="23"/>
       <c r="H98" s="23"/>
       <c r="I98" s="23" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="J98" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K98" s="51" t="s">
-        <v>736</v>
+        <v>695</v>
       </c>
       <c r="L98" s="51" t="s">
-        <v>737</v>
+        <v>696</v>
       </c>
       <c r="M98" s="36" t="s">
-        <v>743</v>
+        <v>702</v>
       </c>
       <c r="N98" s="43" t="s">
-        <v>756</v>
+        <v>777</v>
       </c>
       <c r="O98" s="51" t="s">
-        <v>749</v>
+        <v>708</v>
       </c>
       <c r="P98" s="18"/>
     </row>
@@ -15486,7 +15493,7 @@
         <v>95</v>
       </c>
       <c r="D99" s="51" t="s">
-        <v>738</v>
+        <v>697</v>
       </c>
       <c r="E99" s="22" t="s">
         <v>199</v>
@@ -15497,29 +15504,29 @@
       <c r="G99" s="23"/>
       <c r="H99" s="23"/>
       <c r="I99" s="23" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="J99" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K99" s="51" t="s">
-        <v>738</v>
+        <v>697</v>
       </c>
       <c r="L99" s="51" t="s">
-        <v>739</v>
+        <v>698</v>
       </c>
       <c r="M99" s="36" t="s">
-        <v>744</v>
+        <v>703</v>
       </c>
       <c r="N99" s="43" t="s">
-        <v>753</v>
+        <v>776</v>
       </c>
       <c r="O99" s="51" t="s">
-        <v>750</v>
+        <v>709</v>
       </c>
       <c r="P99" s="18"/>
     </row>
-    <row r="100" spans="1:16" ht="204">
+    <row r="100" spans="1:16" ht="216">
       <c r="A100" s="55">
         <v>99</v>
       </c>
@@ -15530,7 +15537,7 @@
         <v>96</v>
       </c>
       <c r="D100" s="51" t="s">
-        <v>740</v>
+        <v>699</v>
       </c>
       <c r="E100" s="22" t="s">
         <v>200</v>
@@ -15541,25 +15548,25 @@
       <c r="G100" s="23"/>
       <c r="H100" s="23"/>
       <c r="I100" s="23" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="J100" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K100" s="51" t="s">
-        <v>740</v>
+        <v>699</v>
       </c>
       <c r="L100" s="51" t="s">
-        <v>741</v>
+        <v>700</v>
       </c>
       <c r="M100" s="66" t="s">
-        <v>745</v>
+        <v>704</v>
       </c>
       <c r="N100" s="43" t="s">
-        <v>754</v>
+        <v>775</v>
       </c>
       <c r="O100" s="51" t="s">
-        <v>751</v>
+        <v>710</v>
       </c>
       <c r="P100" s="18"/>
     </row>
@@ -15574,7 +15581,7 @@
         <v>97</v>
       </c>
       <c r="D101" s="51" t="s">
-        <v>582</v>
+        <v>554</v>
       </c>
       <c r="E101" s="29" t="s">
         <v>201</v>
@@ -15585,25 +15592,25 @@
       <c r="G101" s="30"/>
       <c r="H101" s="54"/>
       <c r="I101" s="23" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="J101" s="18" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="K101" s="51" t="s">
-        <v>582</v>
+        <v>554</v>
       </c>
       <c r="L101" s="51" t="s">
-        <v>742</v>
+        <v>701</v>
       </c>
       <c r="M101" s="36" t="s">
-        <v>746</v>
+        <v>705</v>
       </c>
       <c r="N101" s="43" t="s">
-        <v>755</v>
+        <v>774</v>
       </c>
       <c r="O101" s="51" t="s">
-        <v>752</v>
+        <v>711</v>
       </c>
       <c r="P101" s="31"/>
     </row>

--- a/data/comments.xlsx
+++ b/data/comments.xlsx
@@ -125,9 +125,6 @@
     <t>AT37</t>
   </si>
   <si>
-    <t>Jonah 1,15-17;3,1-10</t>
-  </si>
-  <si>
     <t>AT50</t>
   </si>
   <si>
@@ -818,9 +815,6 @@
   </si>
   <si>
     <t>Si ton Dieu est pour toi, qui sera contre toi?</t>
-  </si>
-  <si>
-    <t>Link : En lien, la vidéo de Chris Tomlin: «Our God»</t>
   </si>
   <si>
     <t>Le Roi Saül</t>
@@ -5446,9 +5440,6 @@
     <t>Qui es-tu ? Quel est le sens de ta vie ?</t>
   </si>
   <si>
-    <t>Vidéo film Jésus (crucifixion) : http://www.youtube.com/watch?v=w3dKQOBDdg8</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">4 </t>
     </r>
@@ -5470,9 +5461,6 @@
     <t>Fidélité et confiance : comment faire ?</t>
   </si>
   <si>
-    <t>Un exemple de foi visible : http://topchretien.jesus.net/toptv/view/17826/vos-videos_flashmob-tbilissi-jesus-loves-you.html</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">11 </t>
     </r>
@@ -5567,9 +5555,6 @@
   </si>
   <si>
     <t>As-tu besoin d’une deuxième chance ?</t>
-  </si>
-  <si>
-    <t>Un morceau de musique : http://topchretien.jesus.net/topmusic/view/mp3/search/Seconde%20Chance%20feat%20Phoenix</t>
   </si>
   <si>
     <t>De qui aimerais-tu être le messager-serviteur ?</t>
@@ -5764,9 +5749,6 @@
     <t>Comment imagines-tu l’arrivée d’un héros sur terre ?</t>
   </si>
   <si>
-    <t>Jésus est venu sur terre humblement, et pas comme un superhéros, et c’est tant mieux ! http://keithrchapman.files.wordpress.com/2008/11/superjesus_mark_poutenis.gif</t>
-  </si>
-  <si>
     <t>Croire à l'impossible</t>
   </si>
   <si>
@@ -5901,9 +5883,6 @@
 10 La Parole était dans le monde, et Dieu a fait le monde par elle, mais le monde ne l'a pas reconnue. 11 La Parole est venue dans son peuple, mais les gens de son peuple ne l'ont pas reçue. 12 Pourtant certains l'ont reçue et ils croient en elle. À ceux-là, la Parole a donné le pouvoir de devenir enfants de Dieu. 13 Et ils sont devenus enfants de Dieu en naissant non par la volonté d'un homme et d'une femme, mais de Dieu.
 14 La Parole est devenue un homme, et il a habité parmi nous. Nous avons vu sa gloire. Cette gloire, il la reçoit du Père. C'est la gloire du Fils unique, plein d'amour et de vérité.</t>
     </r>
-  </si>
-  <si>
-    <t>ce que nous offre Jésus : http://www.auderset.com/wp-content/uploads/Jesus-family-Auderset.jpg</t>
   </si>
   <si>
     <r>
@@ -7496,9 +7475,6 @@
     <t>Est-ce que tu connais Hövding?</t>
   </si>
   <si>
-    <t>Pour en savoir plus sur Hövding: http://www.hovding.com/en/how</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">1 </t>
     </r>
@@ -7614,9 +7590,6 @@
     <t>Diriger l'Eglise</t>
   </si>
   <si>
-    <t>Compare l'annonce de Paul avec celle-ci: http://www.jobscout24.ch/fr/job/maroquinière-qualifiée/2493367/</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">11 </t>
     </r>
@@ -7714,10 +7687,6 @@
   </si>
   <si>
     <t>Appartenir à Dieu</t>
-  </si>
-  <si>
-    <t>Réveille la fièvre de la chasse en toi…
-http://natgeotv.com/de/planet-der-raubtiere/videos/loewen-auf-der-jagd</t>
   </si>
   <si>
     <r>
@@ -8508,14 +8477,6 @@
     <t xml:space="preserve">
 Seigneur, nous ouvrons nos mains pour t'accueillir, nous t'offrons nos corps pour que tu y fasses ta demeure. Merci de t'approcher de nous. Sois le bienvenu. Amen
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Seigneur, quand la vie me fait peur, avec son cortège de changements, de bouleversements, d'inconnu, tu me dis: confiance. Amen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Tu vis un temps difficile en famille ou ailleurs? Fais confiance à Jésus : Il connaît le chemin.</t>
   </si>
   <si>
     <t>image</t>
@@ -9377,10 +9338,6 @@
     <t xml:space="preserve">L’auteur principal de ce livre est Salomon, roi d’Israël. Il donne des conseils pour bien vivre. Il observe qu’obéir à Dieu prolonge la vie. Parfois je n’ai pas envie de faire ce que Dieu me demande, j’ai aussi peur que si je lui obéit, je serai triste… Pourtant Il dit que Son plan me rendra heureuse ! 
 Bizarre, non ? Pourtant nous appelés à croire en Dieu et non en nos propres pensées. L’obéissance garantit le bonheur ; la pratique du bien préserve du mal. 
 Salomon sait se confier en Dieu et s’appuyer sur lui. Il le prie de lui donner sagesse et intelligence pour bien diriger le peuple. Dieu, en plus de les lui donner, lui offre des richesses et une longue vie. Il est aussi écrit dans la lettre de Jacques que celui qui demande la sagesse à Dieu la recevra, car Dieu donne à tous généreusement et sans reproche (Jacques 1,5). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Ce passage implique un choix : la vie avec ou sans Jésus qu’Esaïe, messager de Dieu, a annoncé.</t>
   </si>
   <si>
     <t>Aujourd’hui tout change très vite et il n’est pas facile de répondre à aux questions ci-dessus. Ce texte par contre nous donne des réponses précieuses pour nos vies. Nous y voyons que Dieu nous connaît intimement, qu’Il nous aime et que notre venue sur terre n’est pas un hasard. Dieu révèle tout cela au prophète Jérémie, mais nous pouvons aussi le prendre pour nous. Il est incroyable de penser que ce Dieu si grand et si puissant, s’intéresse personnellement à chacun et à chacune d'entre nous. 
@@ -9716,6 +9673,47 @@
 Jacques présente des exemples très forts qui mêlent foi et action : Abraham, le père d’Israël, était prêt à sacrifier son fils lorsque Dieu le lui a demandé, tellement il aimait Dieu. La prostituée Rahab a protégé dans sa maison deux Israélites qui étaient ses ennemis, car elle a cru en Dieu plus qu’aux dieux de son pays. 
 L’amour envers Dieu est vrai seulement s’il devient visible dans des actes. 
 </t>
+  </si>
+  <si>
+    <t>Jonas 1,15-17;3,1-10</t>
+  </si>
+  <si>
+    <t>http://keithrchapman.files.wordpress.com/2008/11/superjesus_mark_poutenis.gif</t>
+  </si>
+  <si>
+    <t>http://www.auderset.com/wp-content/uploads/Jesus-family-Auderset.jpg</t>
+  </si>
+  <si>
+    <t>http://topchretien.jesus.net/topmusic/view/mp3/search/Seconde%20Chance%20feat%20Phoenix</t>
+  </si>
+  <si>
+    <t>http://topchretien.jesus.net/toptv/view/17826/vos-videos_flashmob-tbilissi-jesus-loves-you.html</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=w3dKQOBDdg8</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=zlA5IDnpGhc</t>
+  </si>
+  <si>
+    <t>http://www.hovding.com/en/how</t>
+  </si>
+  <si>
+    <t>http://www.jobscout24.ch/fr/job/maroquinière-qualifiée/2493367/</t>
+  </si>
+  <si>
+    <t>http://natgeotv.com/de/planet-der-raubtiere/videos/loewen-auf-der-jagd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Seigneur, quand la vie me fait peur, avec son cortège de changements, de bouleversements, d'inconnu, tu me dis: "fais-moi confiance." Amen</t>
+  </si>
+  <si>
+    <t>Tu vis un temps difficile en famille ou ailleurs? N'oublie pas que Jésus connaît le chemin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Ce passage implique un choix : la vie avec ou sans Jésus. C'est ce qu’Esaïe, messager de Dieu, a annoncé.</t>
   </si>
 </sst>
 </file>
@@ -10029,7 +10027,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -10059,8 +10057,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -10258,8 +10257,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="30">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
@@ -10288,6 +10296,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10687,8 +10696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M96" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="N96" sqref="N96"/>
+    <sheetView tabSelected="1" topLeftCell="N50" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -10712,52 +10721,52 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15">
       <c r="A1" s="55" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>589</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>601</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="L1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="M1" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>113</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="339" customHeight="1">
@@ -10768,39 +10777,39 @@
         <v>1</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="17" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M2" s="46" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N2" s="45" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="O2" s="45" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="P2" s="20"/>
     </row>
@@ -10812,39 +10821,39 @@
         <v>1</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M3" s="47" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N3" s="45" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="O3" s="45" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="P3" s="18"/>
     </row>
@@ -10856,39 +10865,39 @@
         <v>1</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
       <c r="I4" s="23" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K4" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="L4" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="M4" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="L4" s="44" t="s">
-        <v>348</v>
-      </c>
-      <c r="M4" s="46" t="s">
-        <v>349</v>
-      </c>
       <c r="N4" s="45" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="O4" s="34" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="P4" s="18"/>
     </row>
@@ -10900,39 +10909,39 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
       <c r="I5" s="23" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="L5" s="44" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="M5" s="34" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N5" s="56" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="O5" s="56" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="P5" s="18"/>
     </row>
@@ -10944,39 +10953,39 @@
         <v>1</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
       <c r="I6" s="23" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="M6" s="37" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="N6" s="57" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="O6" s="57" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="P6" s="18"/>
     </row>
@@ -10988,39 +10997,39 @@
         <v>2</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="32"/>
       <c r="I7" s="23" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="K7" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="L7" s="12" t="s">
-        <v>356</v>
-      </c>
       <c r="M7" s="37" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="O7" s="43" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="P7" s="18"/>
     </row>
@@ -11032,39 +11041,39 @@
         <v>2</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
       <c r="I8" s="23" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="K8" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="M8" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="L8" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="M8" s="37" t="s">
-        <v>359</v>
-      </c>
       <c r="N8" s="32" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="P8" s="18"/>
     </row>
@@ -11076,39 +11085,39 @@
         <v>2</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="23"/>
       <c r="I9" s="23" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="K9" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="L9" s="12" t="s">
-        <v>362</v>
-      </c>
       <c r="M9" s="37" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="N9" s="43" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="P9" s="18"/>
     </row>
@@ -11120,39 +11129,39 @@
         <v>2</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
       <c r="I10" s="23" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="K10" s="24" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M10" s="37" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="N10" s="43" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
       <c r="O10" s="34" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="P10" s="18"/>
     </row>
@@ -11164,39 +11173,39 @@
         <v>2</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="K11" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="M11" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="L11" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="M11" s="34" t="s">
-        <v>368</v>
-      </c>
       <c r="N11" s="32" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="P11" s="18"/>
     </row>
@@ -11211,36 +11220,36 @@
         <v>0</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G12" s="32"/>
       <c r="H12" s="32"/>
       <c r="I12" s="23" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K12" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="M12" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="L12" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="M12" s="32" t="s">
-        <v>371</v>
-      </c>
       <c r="N12" s="32" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="P12" s="18"/>
     </row>
@@ -11255,36 +11264,36 @@
         <v>1</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
       <c r="I13" s="23" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M13" s="33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="N13" s="32" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="O13" s="32" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="P13" s="18"/>
     </row>
@@ -11299,36 +11308,36 @@
         <v>2</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
       <c r="I14" s="23" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M14" s="37" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N14" s="32" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="P14" s="18"/>
     </row>
@@ -11343,36 +11352,36 @@
         <v>3</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K15" s="22" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M15" s="37" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N15" s="32" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="O15" s="32" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="P15" s="18"/>
     </row>
@@ -11387,36 +11396,36 @@
         <v>4</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="23"/>
       <c r="I16" s="23" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M16" s="37" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="N16" s="32" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="P16" s="18"/>
     </row>
@@ -11431,36 +11440,36 @@
         <v>5</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="23"/>
       <c r="I17" s="23" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M17" s="42" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N17" s="39" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="O17" s="34" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="P17" s="18"/>
     </row>
@@ -11475,36 +11484,36 @@
         <v>6</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="23"/>
       <c r="I18" s="23" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K18" s="40" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L18" s="40" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M18" s="42" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="N18" s="39" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="O18" s="39" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="P18" s="18"/>
     </row>
@@ -11519,36 +11528,36 @@
         <v>7</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="23"/>
       <c r="I19" s="23" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K19" s="40" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M19" s="42" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N19" s="40" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="O19" s="39" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="P19" s="18"/>
     </row>
@@ -11563,36 +11572,36 @@
         <v>8</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="23"/>
       <c r="I20" s="23" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K20" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="M20" s="42" t="s">
         <v>318</v>
       </c>
-      <c r="L20" s="40" t="s">
-        <v>319</v>
-      </c>
-      <c r="M20" s="42" t="s">
-        <v>320</v>
-      </c>
       <c r="N20" s="39" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="O20" s="39" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="P20" s="18"/>
     </row>
@@ -11607,36 +11616,36 @@
         <v>9</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G21" s="23"/>
       <c r="H21" s="23"/>
       <c r="I21" s="23" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K21" s="40" t="s">
+        <v>320</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="M21" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="L21" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="M21" s="37" t="s">
-        <v>324</v>
-      </c>
       <c r="N21" s="39" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="P21" s="18"/>
     </row>
@@ -11651,36 +11660,36 @@
         <v>10</v>
       </c>
       <c r="D22" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="E22" s="22" t="s">
-        <v>327</v>
-      </c>
       <c r="F22" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="23"/>
       <c r="I22" s="23" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="K22" s="22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L22" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="M22" s="39" t="s">
         <v>326</v>
       </c>
-      <c r="M22" s="39" t="s">
-        <v>328</v>
-      </c>
       <c r="N22" s="39" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="O22" s="39" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="P22" s="18"/>
     </row>
@@ -11695,36 +11704,36 @@
         <v>11</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="23"/>
       <c r="I23" s="23" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="K23" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="M23" s="41" t="s">
         <v>329</v>
       </c>
-      <c r="L23" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="M23" s="41" t="s">
-        <v>331</v>
-      </c>
       <c r="N23" s="40" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="O23" s="39" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="P23" s="18"/>
     </row>
@@ -11739,36 +11748,36 @@
         <v>12</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G24" s="23"/>
       <c r="H24" s="23"/>
       <c r="I24" s="23" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="K24" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="L24" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="M24" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="L24" s="40" t="s">
-        <v>333</v>
-      </c>
-      <c r="M24" s="41" t="s">
-        <v>334</v>
-      </c>
       <c r="N24" s="40" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="O24" s="39" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="P24" s="18"/>
     </row>
@@ -11783,36 +11792,36 @@
         <v>13</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="23" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="K25" s="40" t="s">
+        <v>333</v>
+      </c>
+      <c r="L25" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="L25" s="40" t="s">
-        <v>337</v>
-      </c>
       <c r="M25" s="41" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="N25" s="39" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="O25" s="39" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="P25" s="18"/>
     </row>
@@ -11827,36 +11836,36 @@
         <v>14</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
       <c r="I26" s="23" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="K26" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="M26" s="37" t="s">
         <v>339</v>
       </c>
-      <c r="L26" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="M26" s="37" t="s">
-        <v>341</v>
-      </c>
       <c r="N26" s="39" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="O26" s="39" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="P26" s="18"/>
     </row>
@@ -11871,36 +11880,36 @@
         <v>15</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G27" s="52"/>
       <c r="H27" s="52"/>
       <c r="I27" s="23" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="K27" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="M27" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="L27" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="M27" s="33" t="s">
-        <v>266</v>
-      </c>
       <c r="N27" s="32" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
       <c r="O27" s="32" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="P27" s="18"/>
     </row>
@@ -11915,36 +11924,36 @@
         <v>16</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
       <c r="I28" s="23" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="K28" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="M28" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="L28" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="M28" s="33" t="s">
-        <v>269</v>
-      </c>
       <c r="N28" s="32" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="O28" s="32" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="P28" s="18"/>
     </row>
@@ -11959,36 +11968,36 @@
         <v>17</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
       <c r="I29" s="23" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="K29" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="L29" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="M29" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="L29" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="M29" s="33" t="s">
-        <v>272</v>
-      </c>
       <c r="N29" s="32" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="O29" s="32" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="P29" s="18"/>
     </row>
@@ -12003,36 +12012,36 @@
         <v>18</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
       <c r="I30" s="23" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="K30" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="M30" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="L30" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="M30" s="33" t="s">
-        <v>275</v>
-      </c>
       <c r="N30" s="32" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="O30" s="34" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="P30" s="18"/>
     </row>
@@ -12047,36 +12056,36 @@
         <v>19</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E31" s="22" t="s">
         <v>20</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
       <c r="I31" s="23" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="K31" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="M31" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="N31" s="32" t="s">
+        <v>662</v>
+      </c>
+      <c r="O31" s="32" t="s">
         <v>277</v>
-      </c>
-      <c r="M31" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="N31" s="32" t="s">
-        <v>674</v>
-      </c>
-      <c r="O31" s="32" t="s">
-        <v>279</v>
       </c>
       <c r="P31" s="18"/>
     </row>
@@ -12091,36 +12100,36 @@
         <v>21</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>22</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="J32" s="25" t="s">
+        <v>449</v>
+      </c>
+      <c r="K32" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="J32" s="25" t="s">
-        <v>456</v>
-      </c>
-      <c r="K32" s="5" t="s">
+      <c r="L32" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="L32" s="6" t="s">
-        <v>253</v>
-      </c>
       <c r="M32" s="26" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="27"/>
@@ -12147,36 +12156,36 @@
         <v>23</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J33" s="25" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L33" s="58" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="M33" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="N33" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="N33" s="11" t="s">
-        <v>257</v>
-      </c>
       <c r="O33" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="P33" s="6"/>
       <c r="Q33" s="27"/>
@@ -12203,39 +12212,39 @@
         <v>25</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>26</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
       <c r="I34" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J34" s="25" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M34" s="26" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N34" s="32" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>261</v>
+        <v>774</v>
       </c>
       <c r="Q34" s="27"/>
       <c r="R34" s="27"/>
@@ -12261,36 +12270,36 @@
         <v>27</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>28</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
       <c r="I35" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J35" s="25" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M35" s="37" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="N35" s="32" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="O35" s="26" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="P35" s="6"/>
       <c r="Q35" s="27"/>
@@ -12317,36 +12326,36 @@
         <v>29</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J36" s="25" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M36" s="48" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N36" s="32" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="O36" s="26" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="P36" s="6"/>
       <c r="Q36" s="27"/>
@@ -12373,36 +12382,36 @@
         <v>31</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J37" s="25" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M37" s="33" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="N37" s="32" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="O37" s="32" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="P37" s="6"/>
       <c r="Q37" s="27"/>
@@ -12429,39 +12438,39 @@
         <v>33</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J38" s="25" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K38" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="L38" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="M38" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="N38" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="L38" s="6" t="s">
+      <c r="O38" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="P38" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="M38" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="N38" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="O38" s="32" t="s">
-        <v>597</v>
-      </c>
-      <c r="P38" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="Q38" s="27"/>
       <c r="R38" s="27"/>
@@ -12484,39 +12493,39 @@
         <v>8</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J39" s="25" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K39" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="L39" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="M39" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="N39" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="L39" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="M39" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="N39" s="32" t="s">
-        <v>292</v>
-      </c>
       <c r="O39" s="26" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="P39" s="6"/>
       <c r="Q39" s="27"/>
@@ -12540,39 +12549,39 @@
         <v>8</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J40" s="25" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M40" s="37" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="N40" s="32" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="O40" s="32" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="P40" s="6"/>
       <c r="Q40" s="27"/>
@@ -12596,39 +12605,39 @@
         <v>8</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J41" s="25" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M41" s="33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N41" s="32" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="O41" s="32" t="s">
-        <v>599</v>
+        <v>778</v>
       </c>
       <c r="P41" s="6"/>
       <c r="Q41" s="27"/>
@@ -12652,42 +12661,42 @@
         <v>9</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G42" s="43"/>
       <c r="H42" s="43"/>
       <c r="I42" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J42" s="25" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L42" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M42" s="33" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N42" s="26" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="O42" s="26" t="s">
-        <v>600</v>
+        <v>779</v>
       </c>
       <c r="P42" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="216">
@@ -12698,39 +12707,39 @@
         <v>9</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D43" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>141</v>
-      </c>
       <c r="F43" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J43" s="25" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M43" s="33" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N43" s="26" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="O43" s="26" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="P43" s="6"/>
     </row>
@@ -12742,42 +12751,42 @@
         <v>9</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>143</v>
-      </c>
       <c r="F44" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L44" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="M44" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="N44" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="O44" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="P44" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="M44" s="37" t="s">
-        <v>310</v>
-      </c>
-      <c r="N44" s="26" t="s">
-        <v>718</v>
-      </c>
-      <c r="O44" s="26" t="s">
-        <v>610</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:28" ht="168">
@@ -12788,42 +12797,42 @@
         <v>9</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="F45" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J45" s="25" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L45" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="M45" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="N45" s="26" t="s">
+        <v>707</v>
+      </c>
+      <c r="O45" s="26" t="s">
+        <v>599</v>
+      </c>
+      <c r="P45" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="M45" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="N45" s="26" t="s">
-        <v>719</v>
-      </c>
-      <c r="O45" s="26" t="s">
-        <v>611</v>
-      </c>
-      <c r="P45" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="168">
@@ -12834,45 +12843,45 @@
         <v>9</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J46" s="25" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K46" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L46" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="L46" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="M46" s="33" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N46" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="O46" s="26" t="s">
+        <v>600</v>
+      </c>
+      <c r="P46" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="O46" s="26" t="s">
-        <v>612</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>135</v>
-      </c>
     </row>
-    <row r="47" spans="1:28" s="2" customFormat="1" ht="396">
+    <row r="47" spans="1:28" s="2" customFormat="1" ht="264">
       <c r="A47" s="55">
         <v>46</v>
       </c>
@@ -12880,42 +12889,42 @@
         <v>10</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G47" s="32"/>
       <c r="H47" s="32"/>
       <c r="I47" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J47" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M47" s="36" t="s">
+        <v>760</v>
+      </c>
+      <c r="N47" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="O47" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="P47" s="4" t="s">
         <v>773</v>
-      </c>
-      <c r="N47" s="32" t="s">
-        <v>385</v>
-      </c>
-      <c r="O47" s="32" t="s">
-        <v>720</v>
-      </c>
-      <c r="P47" s="12" t="s">
-        <v>388</v>
       </c>
       <c r="Q47" s="27"/>
       <c r="R47" s="27"/>
@@ -12938,39 +12947,39 @@
         <v>10</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J48" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K48" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="L48" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="M48" s="33" t="s">
         <v>386</v>
       </c>
-      <c r="L48" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="M48" s="33" t="s">
-        <v>389</v>
-      </c>
       <c r="N48" s="32" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="O48" s="32" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="P48" s="6"/>
       <c r="Q48" s="27"/>
@@ -12994,42 +13003,42 @@
         <v>10</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>110</v>
-      </c>
       <c r="F49" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J49" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M49" s="37" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="N49" s="32" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="O49" s="32" t="s">
-        <v>614</v>
-      </c>
-      <c r="P49" s="12" t="s">
-        <v>391</v>
+        <v>602</v>
+      </c>
+      <c r="P49" s="4" t="s">
+        <v>772</v>
       </c>
       <c r="Q49" s="27"/>
       <c r="R49" s="27"/>
@@ -13052,42 +13061,42 @@
         <v>10</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>34</v>
+        <v>768</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J50" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L50" s="12" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M50" s="36" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="N50" s="32" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="O50" s="32" t="s">
-        <v>615</v>
-      </c>
-      <c r="P50" s="12" t="s">
-        <v>395</v>
+        <v>603</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>771</v>
       </c>
       <c r="Q50" s="27"/>
       <c r="R50" s="27"/>
@@ -13110,39 +13119,39 @@
         <v>10</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J51" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="M51" s="35" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="N51" s="32" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="O51" s="32" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="P51" s="6"/>
       <c r="Q51" s="27"/>
@@ -13166,42 +13175,42 @@
         <v>11</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G52" s="43"/>
       <c r="H52" s="43"/>
       <c r="I52" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J52" s="25" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="K52" s="9" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M52" s="41" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="N52" s="39" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="O52" s="40" t="s">
-        <v>617</v>
-      </c>
-      <c r="P52" s="40" t="s">
-        <v>415</v>
+        <v>605</v>
+      </c>
+      <c r="P52" s="69" t="s">
+        <v>770</v>
       </c>
       <c r="Q52" s="27"/>
       <c r="R52" s="27"/>
@@ -13224,39 +13233,39 @@
         <v>11</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J53" s="25" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M53" s="41" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="N53" s="39" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="O53" s="32" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="P53" s="6"/>
       <c r="Q53" s="27"/>
@@ -13280,42 +13289,42 @@
         <v>11</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J54" s="25" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="M54" s="38" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="N54" s="39" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="O54" s="39" t="s">
-        <v>619</v>
-      </c>
-      <c r="P54" s="12" t="s">
-        <v>408</v>
+        <v>607</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>769</v>
       </c>
       <c r="Q54" s="27"/>
       <c r="R54" s="27"/>
@@ -13338,39 +13347,39 @@
         <v>11</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J55" s="25" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="L55" s="40" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M55" s="49" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="N55" s="39" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="O55" s="39" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="P55" s="6"/>
       <c r="Q55" s="27"/>
@@ -13394,39 +13403,39 @@
         <v>11</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J56" s="25" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="M56" s="37" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="N56" s="39" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="O56" s="39" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="P56" s="6"/>
       <c r="Q56" s="27"/>
@@ -13450,39 +13459,39 @@
         <v>12</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G57" s="32"/>
       <c r="H57" s="32"/>
       <c r="I57" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J57" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="M57" s="41" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="N57" s="39" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="O57" s="39" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="P57" s="6"/>
       <c r="Q57" s="27"/>
@@ -13506,42 +13515,42 @@
         <v>12</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J58" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="M58" s="42" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="N58" s="39" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="O58" s="39" t="s">
-        <v>623</v>
-      </c>
-      <c r="P58" s="12" t="s">
-        <v>422</v>
+        <v>611</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="Q58" s="27"/>
       <c r="R58" s="27"/>
@@ -13564,39 +13573,39 @@
         <v>12</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J59" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="M59" s="50" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="N59" s="39" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="O59" s="40" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="P59" s="6"/>
       <c r="Q59" s="27"/>
@@ -13620,39 +13629,39 @@
         <v>12</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J60" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="M60" s="50" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="N60" s="39" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="O60" s="39" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="P60" s="6"/>
       <c r="Q60" s="27"/>
@@ -13676,42 +13685,42 @@
         <v>12</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J61" s="25" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="M61" s="38" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="N61" s="39" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="O61" s="39" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="P61" s="40" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="Q61" s="27"/>
       <c r="R61" s="27"/>
@@ -13734,39 +13743,39 @@
         <v>13</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J62" s="25" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="M62" s="37" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="N62" s="32" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="O62" s="32" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="P62" s="6"/>
       <c r="Q62" s="27"/>
@@ -13790,39 +13799,39 @@
         <v>13</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J63" s="25" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="M63" s="36" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="N63" s="39" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="O63" s="40" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="P63" s="6"/>
       <c r="Q63" s="27"/>
@@ -13846,42 +13855,42 @@
         <v>13</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J64" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="L64" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="K64" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="L64" s="12" t="s">
-        <v>447</v>
-      </c>
       <c r="M64" s="37" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="N64" s="32" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="O64" s="32" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="P64" s="12" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="Q64" s="27"/>
       <c r="R64" s="27"/>
@@ -13904,39 +13913,39 @@
         <v>13</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J65" s="25" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="M65" s="36" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="N65" s="32" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="O65" s="32" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="P65" s="6"/>
       <c r="Q65" s="27"/>
@@ -13960,39 +13969,39 @@
         <v>13</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J66" s="25" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="M66" s="37" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="N66" s="32" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="O66" s="32" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="P66" s="6"/>
       <c r="Q66" s="27"/>
@@ -14016,39 +14025,39 @@
         <v>14</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K67" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="L67" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="L67" s="6" t="s">
-        <v>480</v>
-      </c>
       <c r="M67" s="36" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="N67" s="26" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="O67" s="26" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="P67" s="6"/>
       <c r="Q67" s="27"/>
@@ -14072,39 +14081,39 @@
         <v>14</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J68" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="M68" s="36" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="N68" s="26" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="O68" s="26" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="P68" s="6"/>
       <c r="Q68" s="27"/>
@@ -14128,39 +14137,39 @@
         <v>14</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G69" s="10"/>
       <c r="H69" s="10"/>
       <c r="I69" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J69" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K69" s="5" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="M69" s="36" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="N69" s="26" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="O69" s="26" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="P69" s="6"/>
       <c r="Q69" s="27"/>
@@ -14184,39 +14193,39 @@
         <v>14</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G70" s="10"/>
       <c r="H70" s="10"/>
       <c r="I70" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J70" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="M70" s="36" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="N70" s="26" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="O70" s="26" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="P70" s="6"/>
       <c r="Q70" s="27"/>
@@ -14240,39 +14249,39 @@
         <v>14</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G71" s="10"/>
       <c r="H71" s="10"/>
       <c r="I71" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J71" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K71" s="5" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="M71" s="36" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="N71" s="26" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="O71" s="26" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="P71" s="6"/>
       <c r="Q71" s="27"/>
@@ -14296,39 +14305,39 @@
         <v>15</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G72" s="23"/>
       <c r="H72" s="23"/>
       <c r="I72" s="23" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="J72" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K72" s="22" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="M72" s="43" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="N72" s="32" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="O72" s="32" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="P72" s="18"/>
     </row>
@@ -14340,39 +14349,39 @@
         <v>15</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G73" s="23"/>
       <c r="H73" s="23"/>
       <c r="I73" s="23" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="J73" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K73" s="24" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="L73" s="12" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="M73" s="32" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="N73" s="43" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
       <c r="O73" s="34" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="P73" s="18"/>
     </row>
@@ -14384,39 +14393,39 @@
         <v>15</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G74" s="23"/>
       <c r="H74" s="23"/>
       <c r="I74" s="23" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="J74" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="M74" s="35" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="N74" s="32" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="O74" s="32" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="P74" s="18"/>
     </row>
@@ -14428,39 +14437,39 @@
         <v>15</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G75" s="23"/>
       <c r="H75" s="23"/>
       <c r="I75" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="J75" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="K75" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="J75" s="18" t="s">
-        <v>456</v>
-      </c>
-      <c r="K75" s="12" t="s">
-        <v>491</v>
-      </c>
       <c r="L75" s="12" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M75" s="36" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="N75" s="32" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="O75" s="32" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="P75" s="18"/>
     </row>
@@ -14472,39 +14481,39 @@
         <v>15</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G76" s="23"/>
       <c r="H76" s="23"/>
       <c r="I76" s="23" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="M76" s="43" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="N76" s="32" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="O76" s="32" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
       <c r="P76" s="18"/>
     </row>
@@ -14516,39 +14525,39 @@
         <v>16</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F77" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G77" s="23"/>
       <c r="H77" s="23"/>
       <c r="I77" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="J77" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="K77" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="L77" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="J77" s="18" t="s">
-        <v>501</v>
-      </c>
-      <c r="K77" s="24" t="s">
-        <v>502</v>
-      </c>
-      <c r="L77" s="12" t="s">
-        <v>503</v>
-      </c>
       <c r="M77" s="53" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="N77" s="32" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="O77" s="32" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="P77" s="18"/>
     </row>
@@ -14560,39 +14569,39 @@
         <v>16</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G78" s="23"/>
       <c r="H78" s="23"/>
       <c r="I78" s="23" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="M78" s="36" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="N78" s="32" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="O78" s="32" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="P78" s="18"/>
     </row>
@@ -14604,39 +14613,39 @@
         <v>16</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G79" s="23"/>
       <c r="H79" s="23"/>
       <c r="I79" s="23" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="J79" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="K79" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="K79" s="12" t="s">
-        <v>508</v>
-      </c>
       <c r="L79" s="12" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="M79" s="36" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="N79" s="32" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="O79" s="32" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="P79" s="18"/>
     </row>
@@ -14648,39 +14657,39 @@
         <v>16</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G80" s="23"/>
       <c r="H80" s="23"/>
       <c r="I80" s="23" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="J80" s="18" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="M80" s="37" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="N80" s="32" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="O80" s="32" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="P80" s="18"/>
     </row>
@@ -14692,39 +14701,39 @@
         <v>16</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D81" s="51" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G81" s="23"/>
       <c r="H81" s="23"/>
       <c r="I81" s="23" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="J81" s="18" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="M81" s="36" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="N81" s="32" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="O81" s="32" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="P81" s="18"/>
     </row>
@@ -14736,39 +14745,39 @@
         <v>17</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G82" s="23"/>
       <c r="H82" s="23"/>
       <c r="I82" s="23" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="J82" s="18" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="M82" s="34" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="N82" s="32" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="O82" s="32" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="P82" s="18"/>
     </row>
@@ -14780,39 +14789,39 @@
         <v>17</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G83" s="23"/>
       <c r="H83" s="23"/>
       <c r="I83" s="23" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="J83" s="18" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="M83" s="37" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="N83" s="43" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="O83" s="32" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="P83" s="18"/>
     </row>
@@ -14824,42 +14833,42 @@
         <v>17</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G84" s="23"/>
       <c r="H84" s="23"/>
       <c r="I84" s="23" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="J84" s="18" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="K84" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="L84" s="18" t="s">
         <v>527</v>
       </c>
-      <c r="L84" s="18" t="s">
-        <v>534</v>
-      </c>
       <c r="M84" s="37" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="N84" s="32" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
       <c r="O84" s="32" t="s">
-        <v>640</v>
-      </c>
-      <c r="P84" s="18" t="s">
-        <v>535</v>
+        <v>628</v>
+      </c>
+      <c r="P84" s="70" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="144">
@@ -14870,39 +14879,39 @@
         <v>17</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G85" s="23"/>
       <c r="H85" s="23"/>
       <c r="I85" s="23" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="J85" s="18" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="M85" s="37" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="N85" s="32" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="O85" s="32" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="P85" s="18"/>
     </row>
@@ -14914,39 +14923,39 @@
         <v>17</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G86" s="23"/>
       <c r="H86" s="23"/>
       <c r="I86" s="23" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="J86" s="18" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="K86" s="24" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M86" s="37" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="N86" s="43" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
       <c r="O86" s="32" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="P86" s="18"/>
     </row>
@@ -14958,42 +14967,42 @@
         <v>18</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G87" s="23"/>
       <c r="H87" s="23"/>
       <c r="I87" s="23" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="J87" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K87" s="22" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="M87" s="36" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="N87" s="32" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="O87" s="32" t="s">
-        <v>643</v>
-      </c>
-      <c r="P87" s="18" t="s">
-        <v>539</v>
+        <v>631</v>
+      </c>
+      <c r="P87" s="70" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="216">
@@ -15004,42 +15013,42 @@
         <v>18</v>
       </c>
       <c r="C88" s="60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="E88" s="61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F88" s="61" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G88" s="62"/>
       <c r="H88" s="62"/>
       <c r="I88" s="62" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K88" s="5" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="L88" s="27" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="M88" s="63" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="N88" s="68" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="O88" s="64" t="s">
-        <v>680</v>
-      </c>
-      <c r="P88" s="65" t="s">
-        <v>543</v>
+        <v>668</v>
+      </c>
+      <c r="P88" s="71" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="276">
@@ -15050,39 +15059,39 @@
         <v>18</v>
       </c>
       <c r="C89" s="60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D89" s="61" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="E89" s="61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F89" s="61" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G89" s="62"/>
       <c r="H89" s="62"/>
       <c r="I89" s="62" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K89" s="61" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="L89" s="64" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="M89" s="63" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="N89" s="68" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="O89" s="65" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="P89" s="6"/>
     </row>
@@ -15094,39 +15103,39 @@
         <v>18</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F90" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G90" s="23"/>
       <c r="H90" s="23"/>
       <c r="I90" s="23" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="J90" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="L90" s="18" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="M90" s="36" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="N90" s="43" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="O90" s="51" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="P90" s="18"/>
     </row>
@@ -15138,39 +15147,39 @@
         <v>18</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G91" s="23"/>
       <c r="H91" s="23"/>
       <c r="I91" s="23" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="J91" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K91" s="24" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="L91" s="51" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="M91" s="36" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="N91" s="43" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="O91" s="51" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="P91" s="18"/>
     </row>
@@ -15182,39 +15191,39 @@
         <v>19</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G92" s="43"/>
       <c r="H92" s="43"/>
       <c r="I92" s="23" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="J92" s="18" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K92" s="24" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="M92" s="36" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="N92" s="32" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="O92" s="32" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="P92" s="18"/>
     </row>
@@ -15226,39 +15235,39 @@
         <v>19</v>
       </c>
       <c r="C93" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F93" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G93" s="23"/>
       <c r="H93" s="23"/>
       <c r="I93" s="23" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="J93" s="18" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K93" s="24" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="M93" s="37" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="N93" s="43" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="O93" s="32" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="P93" s="18"/>
     </row>
@@ -15270,39 +15279,39 @@
         <v>19</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F94" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G94" s="23"/>
       <c r="H94" s="23"/>
       <c r="I94" s="23" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="J94" s="18" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K94" s="24" t="s">
+        <v>541</v>
+      </c>
+      <c r="L94" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="L94" s="12" t="s">
-        <v>561</v>
-      </c>
       <c r="M94" s="36" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="N94" s="32" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="O94" s="32" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="P94" s="18"/>
     </row>
@@ -15314,39 +15323,39 @@
         <v>19</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G95" s="23"/>
       <c r="H95" s="23"/>
       <c r="I95" s="23" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="J95" s="18" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K95" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="L95" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="M95" s="36" t="s">
         <v>552</v>
       </c>
-      <c r="L95" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="M95" s="36" t="s">
-        <v>562</v>
-      </c>
       <c r="N95" s="43" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="O95" s="51" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="P95" s="18"/>
     </row>
@@ -15358,39 +15367,39 @@
         <v>19</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F96" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G96" s="23"/>
       <c r="H96" s="23"/>
       <c r="I96" s="23" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="J96" s="18" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K96" s="24" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="L96" s="51" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="M96" s="36" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="N96" s="43" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="O96" s="51" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="P96" s="18"/>
     </row>
@@ -15402,39 +15411,39 @@
         <v>20</v>
       </c>
       <c r="C97" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D97" s="51" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G97" s="23"/>
       <c r="H97" s="23"/>
       <c r="I97" s="23" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="J97" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K97" s="51" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="L97" s="51" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="M97" s="67" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="N97" s="43" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="O97" s="51" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="P97" s="18"/>
     </row>
@@ -15446,39 +15455,39 @@
         <v>20</v>
       </c>
       <c r="C98" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D98" s="51" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G98" s="23"/>
       <c r="H98" s="23"/>
       <c r="I98" s="23" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="J98" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K98" s="51" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="L98" s="51" t="s">
+        <v>684</v>
+      </c>
+      <c r="M98" s="36" t="s">
+        <v>690</v>
+      </c>
+      <c r="N98" s="43" t="s">
+        <v>764</v>
+      </c>
+      <c r="O98" s="51" t="s">
         <v>696</v>
-      </c>
-      <c r="M98" s="36" t="s">
-        <v>702</v>
-      </c>
-      <c r="N98" s="43" t="s">
-        <v>777</v>
-      </c>
-      <c r="O98" s="51" t="s">
-        <v>708</v>
       </c>
       <c r="P98" s="18"/>
     </row>
@@ -15490,39 +15499,39 @@
         <v>20</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D99" s="51" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G99" s="23"/>
       <c r="H99" s="23"/>
       <c r="I99" s="23" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="J99" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K99" s="51" t="s">
+        <v>685</v>
+      </c>
+      <c r="L99" s="51" t="s">
+        <v>686</v>
+      </c>
+      <c r="M99" s="36" t="s">
+        <v>691</v>
+      </c>
+      <c r="N99" s="43" t="s">
+        <v>763</v>
+      </c>
+      <c r="O99" s="51" t="s">
         <v>697</v>
-      </c>
-      <c r="L99" s="51" t="s">
-        <v>698</v>
-      </c>
-      <c r="M99" s="36" t="s">
-        <v>703</v>
-      </c>
-      <c r="N99" s="43" t="s">
-        <v>776</v>
-      </c>
-      <c r="O99" s="51" t="s">
-        <v>709</v>
       </c>
       <c r="P99" s="18"/>
     </row>
@@ -15534,39 +15543,39 @@
         <v>20</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D100" s="51" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F100" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G100" s="23"/>
       <c r="H100" s="23"/>
       <c r="I100" s="23" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="J100" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K100" s="51" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="L100" s="51" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="M100" s="66" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="N100" s="43" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="O100" s="51" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="P100" s="18"/>
     </row>
@@ -15578,39 +15587,39 @@
         <v>20</v>
       </c>
       <c r="C101" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D101" s="51" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="E101" s="29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F101" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G101" s="30"/>
       <c r="H101" s="54"/>
       <c r="I101" s="23" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="J101" s="18" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K101" s="51" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="L101" s="51" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="M101" s="36" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="N101" s="43" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="O101" s="51" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="P101" s="31"/>
     </row>
@@ -15620,6 +15629,15 @@
     <hyperlink ref="P45" r:id="rId1"/>
     <hyperlink ref="P46" r:id="rId2"/>
     <hyperlink ref="P44" r:id="rId3"/>
+    <hyperlink ref="P58" r:id="rId4"/>
+    <hyperlink ref="P54" r:id="rId5"/>
+    <hyperlink ref="P52" r:id="rId6"/>
+    <hyperlink ref="P50" r:id="rId7"/>
+    <hyperlink ref="P49" r:id="rId8"/>
+    <hyperlink ref="P47" r:id="rId9"/>
+    <hyperlink ref="P84" r:id="rId10"/>
+    <hyperlink ref="P87" r:id="rId11"/>
+    <hyperlink ref="P88" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.29166666666666669" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>

--- a/data/comments.xlsx
+++ b/data/comments.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="912"/>
+    <workbookView xWindow="16740" yWindow="3040" windowWidth="25520" windowHeight="15560" tabRatio="912"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -10027,9 +10027,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="30">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -10267,7 +10268,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="30">
+  <cellStyles count="31">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
@@ -10297,6 +10298,7 @@
     <cellStyle name="Lien hypertexte visité" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Lien hypertexte visité" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10696,30 +10698,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N50" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="O52" sqref="O52"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.140625" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1"/>
-    <col min="2" max="3" width="7.85546875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="12" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="12" customWidth="1"/>
-    <col min="7" max="8" width="36.140625" style="12" customWidth="1"/>
-    <col min="9" max="10" width="25.28515625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="28.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="59" style="12" customWidth="1"/>
-    <col min="13" max="13" width="58.85546875" style="12" customWidth="1"/>
-    <col min="14" max="14" width="43.85546875" style="12" customWidth="1"/>
-    <col min="15" max="15" width="20" style="12" customWidth="1"/>
-    <col min="16" max="16" width="13" style="12" customWidth="1"/>
-    <col min="17" max="28" width="10.7109375" style="12"/>
-    <col min="29" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1"/>
+    <col min="2" max="28" width="12.140625" style="12"/>
+    <col min="29" max="16384" width="12.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:16" ht="57" customHeight="1">
       <c r="A1" s="55" t="s">
         <v>590</v>
       </c>
@@ -10769,7 +10759,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="339" customHeight="1">
+    <row r="2" spans="1:16" ht="57" customHeight="1">
       <c r="A2" s="55">
         <v>1</v>
       </c>
@@ -10813,7 +10803,7 @@
       </c>
       <c r="P2" s="20"/>
     </row>
-    <row r="3" spans="1:16" ht="252">
+    <row r="3" spans="1:16" ht="57" customHeight="1">
       <c r="A3" s="55">
         <v>2</v>
       </c>
@@ -10857,7 +10847,7 @@
       </c>
       <c r="P3" s="18"/>
     </row>
-    <row r="4" spans="1:16" ht="192">
+    <row r="4" spans="1:16" ht="57" customHeight="1">
       <c r="A4" s="55">
         <v>3</v>
       </c>
@@ -10901,7 +10891,7 @@
       </c>
       <c r="P4" s="18"/>
     </row>
-    <row r="5" spans="1:16" ht="228">
+    <row r="5" spans="1:16" ht="57" customHeight="1">
       <c r="A5" s="55">
         <v>4</v>
       </c>
@@ -10945,7 +10935,7 @@
       </c>
       <c r="P5" s="18"/>
     </row>
-    <row r="6" spans="1:16" ht="180">
+    <row r="6" spans="1:16" ht="57" customHeight="1">
       <c r="A6" s="55">
         <v>5</v>
       </c>
@@ -10989,7 +10979,7 @@
       </c>
       <c r="P6" s="18"/>
     </row>
-    <row r="7" spans="1:16" ht="192">
+    <row r="7" spans="1:16" ht="57" customHeight="1">
       <c r="A7" s="55">
         <v>6</v>
       </c>
@@ -11033,7 +11023,7 @@
       </c>
       <c r="P7" s="18"/>
     </row>
-    <row r="8" spans="1:16" ht="204">
+    <row r="8" spans="1:16" ht="57" customHeight="1">
       <c r="A8" s="55">
         <v>7</v>
       </c>
@@ -11077,7 +11067,7 @@
       </c>
       <c r="P8" s="18"/>
     </row>
-    <row r="9" spans="1:16" ht="168">
+    <row r="9" spans="1:16" ht="57" customHeight="1">
       <c r="A9" s="55">
         <v>8</v>
       </c>
@@ -11121,7 +11111,7 @@
       </c>
       <c r="P9" s="18"/>
     </row>
-    <row r="10" spans="1:16" ht="180">
+    <row r="10" spans="1:16" ht="57" customHeight="1">
       <c r="A10" s="55">
         <v>9</v>
       </c>
@@ -11165,7 +11155,7 @@
       </c>
       <c r="P10" s="18"/>
     </row>
-    <row r="11" spans="1:16" ht="245" customHeight="1">
+    <row r="11" spans="1:16" ht="57" customHeight="1">
       <c r="A11" s="55">
         <v>10</v>
       </c>
@@ -11209,7 +11199,7 @@
       </c>
       <c r="P11" s="18"/>
     </row>
-    <row r="12" spans="1:16" ht="216">
+    <row r="12" spans="1:16" ht="57" customHeight="1">
       <c r="A12" s="55">
         <v>11</v>
       </c>
@@ -11253,7 +11243,7 @@
       </c>
       <c r="P12" s="18"/>
     </row>
-    <row r="13" spans="1:16" ht="252">
+    <row r="13" spans="1:16" ht="57" customHeight="1">
       <c r="A13" s="55">
         <v>12</v>
       </c>
@@ -11297,7 +11287,7 @@
       </c>
       <c r="P13" s="18"/>
     </row>
-    <row r="14" spans="1:16" ht="156">
+    <row r="14" spans="1:16" ht="57" customHeight="1">
       <c r="A14" s="55">
         <v>13</v>
       </c>
@@ -11341,7 +11331,7 @@
       </c>
       <c r="P14" s="18"/>
     </row>
-    <row r="15" spans="1:16" ht="300">
+    <row r="15" spans="1:16" ht="57" customHeight="1">
       <c r="A15" s="55">
         <v>14</v>
       </c>
@@ -11385,7 +11375,7 @@
       </c>
       <c r="P15" s="18"/>
     </row>
-    <row r="16" spans="1:16" ht="360">
+    <row r="16" spans="1:16" ht="57" customHeight="1">
       <c r="A16" s="55">
         <v>15</v>
       </c>
@@ -11429,7 +11419,7 @@
       </c>
       <c r="P16" s="18"/>
     </row>
-    <row r="17" spans="1:28" ht="204">
+    <row r="17" spans="1:28" ht="57" customHeight="1">
       <c r="A17" s="55">
         <v>16</v>
       </c>
@@ -11473,7 +11463,7 @@
       </c>
       <c r="P17" s="18"/>
     </row>
-    <row r="18" spans="1:28" ht="216">
+    <row r="18" spans="1:28" ht="57" customHeight="1">
       <c r="A18" s="55">
         <v>17</v>
       </c>
@@ -11517,7 +11507,7 @@
       </c>
       <c r="P18" s="18"/>
     </row>
-    <row r="19" spans="1:28" ht="252">
+    <row r="19" spans="1:28" ht="57" customHeight="1">
       <c r="A19" s="55">
         <v>18</v>
       </c>
@@ -11561,7 +11551,7 @@
       </c>
       <c r="P19" s="18"/>
     </row>
-    <row r="20" spans="1:28" ht="204">
+    <row r="20" spans="1:28" ht="57" customHeight="1">
       <c r="A20" s="55">
         <v>19</v>
       </c>
@@ -11605,7 +11595,7 @@
       </c>
       <c r="P20" s="18"/>
     </row>
-    <row r="21" spans="1:28" ht="336">
+    <row r="21" spans="1:28" ht="57" customHeight="1">
       <c r="A21" s="55">
         <v>20</v>
       </c>
@@ -11649,7 +11639,7 @@
       </c>
       <c r="P21" s="18"/>
     </row>
-    <row r="22" spans="1:28" ht="276">
+    <row r="22" spans="1:28" ht="57" customHeight="1">
       <c r="A22" s="55">
         <v>21</v>
       </c>
@@ -11693,7 +11683,7 @@
       </c>
       <c r="P22" s="18"/>
     </row>
-    <row r="23" spans="1:28" ht="348">
+    <row r="23" spans="1:28" ht="57" customHeight="1">
       <c r="A23" s="55">
         <v>22</v>
       </c>
@@ -11737,7 +11727,7 @@
       </c>
       <c r="P23" s="18"/>
     </row>
-    <row r="24" spans="1:28" ht="240">
+    <row r="24" spans="1:28" ht="57" customHeight="1">
       <c r="A24" s="55">
         <v>23</v>
       </c>
@@ -11781,7 +11771,7 @@
       </c>
       <c r="P24" s="18"/>
     </row>
-    <row r="25" spans="1:28" ht="216">
+    <row r="25" spans="1:28" ht="57" customHeight="1">
       <c r="A25" s="55">
         <v>24</v>
       </c>
@@ -11825,7 +11815,7 @@
       </c>
       <c r="P25" s="18"/>
     </row>
-    <row r="26" spans="1:28" ht="324">
+    <row r="26" spans="1:28" ht="57" customHeight="1">
       <c r="A26" s="55">
         <v>25</v>
       </c>
@@ -11869,7 +11859,7 @@
       </c>
       <c r="P26" s="18"/>
     </row>
-    <row r="27" spans="1:28" ht="264">
+    <row r="27" spans="1:28" ht="57" customHeight="1">
       <c r="A27" s="55">
         <v>26</v>
       </c>
@@ -11913,7 +11903,7 @@
       </c>
       <c r="P27" s="18"/>
     </row>
-    <row r="28" spans="1:28" ht="288">
+    <row r="28" spans="1:28" ht="57" customHeight="1">
       <c r="A28" s="55">
         <v>27</v>
       </c>
@@ -11957,7 +11947,7 @@
       </c>
       <c r="P28" s="18"/>
     </row>
-    <row r="29" spans="1:28" ht="348">
+    <row r="29" spans="1:28" ht="57" customHeight="1">
       <c r="A29" s="55">
         <v>28</v>
       </c>
@@ -12001,7 +11991,7 @@
       </c>
       <c r="P29" s="18"/>
     </row>
-    <row r="30" spans="1:28" ht="252">
+    <row r="30" spans="1:28" ht="57" customHeight="1">
       <c r="A30" s="55">
         <v>29</v>
       </c>
@@ -12045,7 +12035,7 @@
       </c>
       <c r="P30" s="18"/>
     </row>
-    <row r="31" spans="1:28" ht="288">
+    <row r="31" spans="1:28" ht="57" customHeight="1">
       <c r="A31" s="55">
         <v>30</v>
       </c>
@@ -12089,7 +12079,7 @@
       </c>
       <c r="P31" s="18"/>
     </row>
-    <row r="32" spans="1:28" s="2" customFormat="1" ht="204">
+    <row r="32" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A32" s="55">
         <v>31</v>
       </c>
@@ -12145,7 +12135,7 @@
       <c r="AA32" s="27"/>
       <c r="AB32" s="27"/>
     </row>
-    <row r="33" spans="1:28" s="2" customFormat="1" ht="312">
+    <row r="33" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A33" s="55">
         <v>32</v>
       </c>
@@ -12201,7 +12191,7 @@
       <c r="AA33" s="27"/>
       <c r="AB33" s="27"/>
     </row>
-    <row r="34" spans="1:28" s="2" customFormat="1" ht="240">
+    <row r="34" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A34" s="55">
         <v>33</v>
       </c>
@@ -12259,7 +12249,7 @@
       <c r="AA34" s="27"/>
       <c r="AB34" s="27"/>
     </row>
-    <row r="35" spans="1:28" s="2" customFormat="1" ht="312">
+    <row r="35" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A35" s="55">
         <v>34</v>
       </c>
@@ -12315,7 +12305,7 @@
       <c r="AA35" s="27"/>
       <c r="AB35" s="27"/>
     </row>
-    <row r="36" spans="1:28" s="2" customFormat="1" ht="312">
+    <row r="36" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A36" s="55">
         <v>35</v>
       </c>
@@ -12371,7 +12361,7 @@
       <c r="AA36" s="27"/>
       <c r="AB36" s="27"/>
     </row>
-    <row r="37" spans="1:28" s="2" customFormat="1" ht="312">
+    <row r="37" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A37" s="55">
         <v>36</v>
       </c>
@@ -12427,7 +12417,7 @@
       <c r="AA37" s="27"/>
       <c r="AB37" s="27"/>
     </row>
-    <row r="38" spans="1:28" s="2" customFormat="1" ht="300">
+    <row r="38" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A38" s="55">
         <v>37</v>
       </c>
@@ -12485,7 +12475,7 @@
       <c r="AA38" s="27"/>
       <c r="AB38" s="27"/>
     </row>
-    <row r="39" spans="1:28" s="2" customFormat="1" ht="348">
+    <row r="39" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A39" s="55">
         <v>38</v>
       </c>
@@ -12541,7 +12531,7 @@
       <c r="AA39" s="27"/>
       <c r="AB39" s="27"/>
     </row>
-    <row r="40" spans="1:28" s="2" customFormat="1" ht="228">
+    <row r="40" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A40" s="55">
         <v>39</v>
       </c>
@@ -12597,7 +12587,7 @@
       <c r="AA40" s="27"/>
       <c r="AB40" s="27"/>
     </row>
-    <row r="41" spans="1:28" s="2" customFormat="1" ht="264">
+    <row r="41" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A41" s="55">
         <v>40</v>
       </c>
@@ -12653,7 +12643,7 @@
       <c r="AA41" s="27"/>
       <c r="AB41" s="27"/>
     </row>
-    <row r="42" spans="1:28" ht="168">
+    <row r="42" spans="1:28" ht="57" customHeight="1">
       <c r="A42" s="55">
         <v>41</v>
       </c>
@@ -12699,7 +12689,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="216">
+    <row r="43" spans="1:28" ht="57" customHeight="1">
       <c r="A43" s="55">
         <v>42</v>
       </c>
@@ -12743,7 +12733,7 @@
       </c>
       <c r="P43" s="6"/>
     </row>
-    <row r="44" spans="1:28" ht="216">
+    <row r="44" spans="1:28" ht="57" customHeight="1">
       <c r="A44" s="55">
         <v>43</v>
       </c>
@@ -12789,7 +12779,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:28" ht="168">
+    <row r="45" spans="1:28" ht="57" customHeight="1">
       <c r="A45" s="55">
         <v>44</v>
       </c>
@@ -12835,7 +12825,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:28" ht="168">
+    <row r="46" spans="1:28" ht="57" customHeight="1">
       <c r="A46" s="55">
         <v>45</v>
       </c>
@@ -12881,7 +12871,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:28" s="2" customFormat="1" ht="264">
+    <row r="47" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A47" s="55">
         <v>46</v>
       </c>
@@ -12939,7 +12929,7 @@
       <c r="AA47" s="27"/>
       <c r="AB47" s="27"/>
     </row>
-    <row r="48" spans="1:28" s="2" customFormat="1" ht="156">
+    <row r="48" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A48" s="55">
         <v>47</v>
       </c>
@@ -12995,7 +12985,7 @@
       <c r="AA48" s="27"/>
       <c r="AB48" s="27"/>
     </row>
-    <row r="49" spans="1:28" s="2" customFormat="1" ht="336">
+    <row r="49" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A49" s="55">
         <v>48</v>
       </c>
@@ -13053,7 +13043,7 @@
       <c r="AA49" s="27"/>
       <c r="AB49" s="27"/>
     </row>
-    <row r="50" spans="1:28" s="2" customFormat="1" ht="228">
+    <row r="50" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A50" s="55">
         <v>49</v>
       </c>
@@ -13111,7 +13101,7 @@
       <c r="AA50" s="27"/>
       <c r="AB50" s="27"/>
     </row>
-    <row r="51" spans="1:28" s="2" customFormat="1" ht="336">
+    <row r="51" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A51" s="55">
         <v>50</v>
       </c>
@@ -13167,7 +13157,7 @@
       <c r="AA51" s="27"/>
       <c r="AB51" s="27"/>
     </row>
-    <row r="52" spans="1:28" s="2" customFormat="1" ht="180">
+    <row r="52" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A52" s="55">
         <v>51</v>
       </c>
@@ -13225,7 +13215,7 @@
       <c r="AA52" s="27"/>
       <c r="AB52" s="27"/>
     </row>
-    <row r="53" spans="1:28" s="2" customFormat="1" ht="228">
+    <row r="53" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A53" s="55">
         <v>52</v>
       </c>
@@ -13281,7 +13271,7 @@
       <c r="AA53" s="27"/>
       <c r="AB53" s="27"/>
     </row>
-    <row r="54" spans="1:28" s="2" customFormat="1" ht="228">
+    <row r="54" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A54" s="55">
         <v>53</v>
       </c>
@@ -13339,7 +13329,7 @@
       <c r="AA54" s="27"/>
       <c r="AB54" s="27"/>
     </row>
-    <row r="55" spans="1:28" s="2" customFormat="1" ht="336">
+    <row r="55" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A55" s="55">
         <v>54</v>
       </c>
@@ -13395,7 +13385,7 @@
       <c r="AA55" s="27"/>
       <c r="AB55" s="27"/>
     </row>
-    <row r="56" spans="1:28" s="2" customFormat="1" ht="228">
+    <row r="56" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A56" s="55">
         <v>55</v>
       </c>
@@ -13451,7 +13441,7 @@
       <c r="AA56" s="27"/>
       <c r="AB56" s="27"/>
     </row>
-    <row r="57" spans="1:28" s="2" customFormat="1" ht="288">
+    <row r="57" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A57" s="55">
         <v>56</v>
       </c>
@@ -13507,7 +13497,7 @@
       <c r="AA57" s="27"/>
       <c r="AB57" s="27"/>
     </row>
-    <row r="58" spans="1:28" s="2" customFormat="1" ht="216">
+    <row r="58" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A58" s="55">
         <v>57</v>
       </c>
@@ -13565,7 +13555,7 @@
       <c r="AA58" s="27"/>
       <c r="AB58" s="27"/>
     </row>
-    <row r="59" spans="1:28" s="2" customFormat="1" ht="324">
+    <row r="59" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A59" s="55">
         <v>58</v>
       </c>
@@ -13621,7 +13611,7 @@
       <c r="AA59" s="27"/>
       <c r="AB59" s="27"/>
     </row>
-    <row r="60" spans="1:28" s="2" customFormat="1" ht="264">
+    <row r="60" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A60" s="55">
         <v>59</v>
       </c>
@@ -13677,7 +13667,7 @@
       <c r="AA60" s="27"/>
       <c r="AB60" s="27"/>
     </row>
-    <row r="61" spans="1:28" s="2" customFormat="1" ht="204">
+    <row r="61" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A61" s="55">
         <v>60</v>
       </c>
@@ -13735,7 +13725,7 @@
       <c r="AA61" s="27"/>
       <c r="AB61" s="27"/>
     </row>
-    <row r="62" spans="1:28" s="2" customFormat="1" ht="252">
+    <row r="62" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A62" s="55">
         <v>61</v>
       </c>
@@ -13791,7 +13781,7 @@
       <c r="AA62" s="27"/>
       <c r="AB62" s="27"/>
     </row>
-    <row r="63" spans="1:28" s="2" customFormat="1" ht="204">
+    <row r="63" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A63" s="55">
         <v>62</v>
       </c>
@@ -13847,7 +13837,7 @@
       <c r="AA63" s="27"/>
       <c r="AB63" s="27"/>
     </row>
-    <row r="64" spans="1:28" s="2" customFormat="1" ht="216">
+    <row r="64" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A64" s="55">
         <v>63</v>
       </c>
@@ -13905,7 +13895,7 @@
       <c r="AA64" s="27"/>
       <c r="AB64" s="27"/>
     </row>
-    <row r="65" spans="1:28" s="2" customFormat="1" ht="216">
+    <row r="65" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A65" s="55">
         <v>64</v>
       </c>
@@ -13961,7 +13951,7 @@
       <c r="AA65" s="27"/>
       <c r="AB65" s="27"/>
     </row>
-    <row r="66" spans="1:28" s="2" customFormat="1" ht="204">
+    <row r="66" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A66" s="55">
         <v>65</v>
       </c>
@@ -14017,7 +14007,7 @@
       <c r="AA66" s="27"/>
       <c r="AB66" s="27"/>
     </row>
-    <row r="67" spans="1:28" s="2" customFormat="1" ht="192">
+    <row r="67" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A67" s="55">
         <v>66</v>
       </c>
@@ -14073,7 +14063,7 @@
       <c r="AA67" s="27"/>
       <c r="AB67" s="27"/>
     </row>
-    <row r="68" spans="1:28" s="2" customFormat="1" ht="288">
+    <row r="68" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A68" s="55">
         <v>67</v>
       </c>
@@ -14129,7 +14119,7 @@
       <c r="AA68" s="27"/>
       <c r="AB68" s="27"/>
     </row>
-    <row r="69" spans="1:28" s="2" customFormat="1" ht="324">
+    <row r="69" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A69" s="55">
         <v>68</v>
       </c>
@@ -14185,7 +14175,7 @@
       <c r="AA69" s="27"/>
       <c r="AB69" s="27"/>
     </row>
-    <row r="70" spans="1:28" s="2" customFormat="1" ht="240">
+    <row r="70" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A70" s="55">
         <v>69</v>
       </c>
@@ -14241,7 +14231,7 @@
       <c r="AA70" s="27"/>
       <c r="AB70" s="27"/>
     </row>
-    <row r="71" spans="1:28" s="2" customFormat="1" ht="276">
+    <row r="71" spans="1:28" s="2" customFormat="1" ht="57" customHeight="1">
       <c r="A71" s="55">
         <v>70</v>
       </c>
@@ -14297,7 +14287,7 @@
       <c r="AA71" s="27"/>
       <c r="AB71" s="27"/>
     </row>
-    <row r="72" spans="1:28" ht="240">
+    <row r="72" spans="1:28" ht="57" customHeight="1">
       <c r="A72" s="55">
         <v>71</v>
       </c>
@@ -14341,7 +14331,7 @@
       </c>
       <c r="P72" s="18"/>
     </row>
-    <row r="73" spans="1:28" ht="204">
+    <row r="73" spans="1:28" ht="57" customHeight="1">
       <c r="A73" s="55">
         <v>72</v>
       </c>
@@ -14385,7 +14375,7 @@
       </c>
       <c r="P73" s="18"/>
     </row>
-    <row r="74" spans="1:28" ht="192">
+    <row r="74" spans="1:28" ht="57" customHeight="1">
       <c r="A74" s="55">
         <v>73</v>
       </c>
@@ -14429,7 +14419,7 @@
       </c>
       <c r="P74" s="18"/>
     </row>
-    <row r="75" spans="1:28" ht="312">
+    <row r="75" spans="1:28" ht="57" customHeight="1">
       <c r="A75" s="55">
         <v>74</v>
       </c>
@@ -14473,7 +14463,7 @@
       </c>
       <c r="P75" s="18"/>
     </row>
-    <row r="76" spans="1:28" ht="228">
+    <row r="76" spans="1:28" ht="57" customHeight="1">
       <c r="A76" s="55">
         <v>75</v>
       </c>
@@ -14517,7 +14507,7 @@
       </c>
       <c r="P76" s="18"/>
     </row>
-    <row r="77" spans="1:28" ht="216">
+    <row r="77" spans="1:28" ht="57" customHeight="1">
       <c r="A77" s="55">
         <v>76</v>
       </c>
@@ -14561,7 +14551,7 @@
       </c>
       <c r="P77" s="18"/>
     </row>
-    <row r="78" spans="1:28" ht="336">
+    <row r="78" spans="1:28" ht="57" customHeight="1">
       <c r="A78" s="55">
         <v>77</v>
       </c>
@@ -14605,7 +14595,7 @@
       </c>
       <c r="P78" s="18"/>
     </row>
-    <row r="79" spans="1:28" ht="264">
+    <row r="79" spans="1:28" ht="57" customHeight="1">
       <c r="A79" s="55">
         <v>78</v>
       </c>
@@ -14649,7 +14639,7 @@
       </c>
       <c r="P79" s="18"/>
     </row>
-    <row r="80" spans="1:28" ht="216">
+    <row r="80" spans="1:28" ht="57" customHeight="1">
       <c r="A80" s="55">
         <v>79</v>
       </c>
@@ -14693,7 +14683,7 @@
       </c>
       <c r="P80" s="18"/>
     </row>
-    <row r="81" spans="1:16" ht="288">
+    <row r="81" spans="1:16" ht="57" customHeight="1">
       <c r="A81" s="55">
         <v>80</v>
       </c>
@@ -14737,7 +14727,7 @@
       </c>
       <c r="P81" s="18"/>
     </row>
-    <row r="82" spans="1:16" ht="252">
+    <row r="82" spans="1:16" ht="57" customHeight="1">
       <c r="A82" s="55">
         <v>81</v>
       </c>
@@ -14781,7 +14771,7 @@
       </c>
       <c r="P82" s="18"/>
     </row>
-    <row r="83" spans="1:16" ht="168">
+    <row r="83" spans="1:16" ht="57" customHeight="1">
       <c r="A83" s="55">
         <v>82</v>
       </c>
@@ -14825,7 +14815,7 @@
       </c>
       <c r="P83" s="18"/>
     </row>
-    <row r="84" spans="1:16" ht="216">
+    <row r="84" spans="1:16" ht="57" customHeight="1">
       <c r="A84" s="55">
         <v>83</v>
       </c>
@@ -14871,7 +14861,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="144">
+    <row r="85" spans="1:16" ht="57" customHeight="1">
       <c r="A85" s="55">
         <v>84</v>
       </c>
@@ -14915,7 +14905,7 @@
       </c>
       <c r="P85" s="18"/>
     </row>
-    <row r="86" spans="1:16" ht="156">
+    <row r="86" spans="1:16" ht="57" customHeight="1">
       <c r="A86" s="55">
         <v>85</v>
       </c>
@@ -14959,7 +14949,7 @@
       </c>
       <c r="P86" s="18"/>
     </row>
-    <row r="87" spans="1:16" ht="228">
+    <row r="87" spans="1:16" ht="57" customHeight="1">
       <c r="A87" s="55">
         <v>86</v>
       </c>
@@ -15005,7 +14995,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="216">
+    <row r="88" spans="1:16" ht="57" customHeight="1">
       <c r="A88" s="59">
         <v>87</v>
       </c>
@@ -15051,7 +15041,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="276">
+    <row r="89" spans="1:16" ht="57" customHeight="1">
       <c r="A89" s="59">
         <v>88</v>
       </c>
@@ -15095,7 +15085,7 @@
       </c>
       <c r="P89" s="6"/>
     </row>
-    <row r="90" spans="1:16" ht="216">
+    <row r="90" spans="1:16" ht="57" customHeight="1">
       <c r="A90" s="55">
         <v>89</v>
       </c>
@@ -15139,7 +15129,7 @@
       </c>
       <c r="P90" s="18"/>
     </row>
-    <row r="91" spans="1:16" ht="192">
+    <row r="91" spans="1:16" ht="57" customHeight="1">
       <c r="A91" s="55">
         <v>90</v>
       </c>
@@ -15183,7 +15173,7 @@
       </c>
       <c r="P91" s="18"/>
     </row>
-    <row r="92" spans="1:16" ht="264">
+    <row r="92" spans="1:16" ht="57" customHeight="1">
       <c r="A92" s="55">
         <v>91</v>
       </c>
@@ -15227,7 +15217,7 @@
       </c>
       <c r="P92" s="18"/>
     </row>
-    <row r="93" spans="1:16" ht="192">
+    <row r="93" spans="1:16" ht="57" customHeight="1">
       <c r="A93" s="55">
         <v>92</v>
       </c>
@@ -15271,7 +15261,7 @@
       </c>
       <c r="P93" s="18"/>
     </row>
-    <row r="94" spans="1:16" ht="252">
+    <row r="94" spans="1:16" ht="57" customHeight="1">
       <c r="A94" s="55">
         <v>93</v>
       </c>
@@ -15315,7 +15305,7 @@
       </c>
       <c r="P94" s="18"/>
     </row>
-    <row r="95" spans="1:16" ht="252">
+    <row r="95" spans="1:16" ht="57" customHeight="1">
       <c r="A95" s="55">
         <v>94</v>
       </c>
@@ -15359,7 +15349,7 @@
       </c>
       <c r="P95" s="18"/>
     </row>
-    <row r="96" spans="1:16" ht="300">
+    <row r="96" spans="1:16" ht="57" customHeight="1">
       <c r="A96" s="55">
         <v>95</v>
       </c>
@@ -15403,7 +15393,7 @@
       </c>
       <c r="P96" s="18"/>
     </row>
-    <row r="97" spans="1:16" ht="252">
+    <row r="97" spans="1:16" ht="57" customHeight="1">
       <c r="A97" s="55">
         <v>96</v>
       </c>
@@ -15447,7 +15437,7 @@
       </c>
       <c r="P97" s="18"/>
     </row>
-    <row r="98" spans="1:16" ht="276">
+    <row r="98" spans="1:16" ht="57" customHeight="1">
       <c r="A98" s="55">
         <v>97</v>
       </c>
@@ -15491,7 +15481,7 @@
       </c>
       <c r="P98" s="18"/>
     </row>
-    <row r="99" spans="1:16" ht="216">
+    <row r="99" spans="1:16" ht="57" customHeight="1">
       <c r="A99" s="55">
         <v>98</v>
       </c>
@@ -15535,7 +15525,7 @@
       </c>
       <c r="P99" s="18"/>
     </row>
-    <row r="100" spans="1:16" ht="216">
+    <row r="100" spans="1:16" ht="57" customHeight="1">
       <c r="A100" s="55">
         <v>99</v>
       </c>
@@ -15579,7 +15569,7 @@
       </c>
       <c r="P100" s="18"/>
     </row>
-    <row r="101" spans="1:16" ht="168">
+    <row r="101" spans="1:16" ht="57" customHeight="1">
       <c r="A101" s="55">
         <v>100</v>
       </c>
